--- a/BAOCAO/Tailieuthietke/FormLogin(KH).xlsx
+++ b/BAOCAO/Tailieuthietke/FormLogin(KH).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.a_LearningOnline\A.MonTT\ĐBCLPM\Thầy trụ\Thiết kế các layout cơ bản\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguoi\OneDrive\Desktop\New folder\TTTN\BAOCAO\Tailieuthietke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7081CB-7DC1-4251-A79F-D9EA7BB12AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC7126C-6A74-4AEE-BD8B-ED05AD983224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,9 +403,6 @@
     <t>LOGIN_SUCCESS</t>
   </si>
   <si>
-    <t>LOGIN_E001</t>
-  </si>
-  <si>
     <t>1. Nhấn textview "quên mật khẩu" để chuyển sang màn hình reset mật khẩu</t>
   </si>
   <si>
@@ -415,9 +412,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>VALIDATION_USERNAME_E001</t>
-  </si>
-  <si>
     <t>VALIDATION_PASS_E001</t>
   </si>
   <si>
@@ -428,6 +422,12 @@
   </si>
   <si>
     <t>Trường hợp nhập mật khẩu nhập nhiều hơn 20 ký tự, báo lỗi</t>
+  </si>
+  <si>
+    <t>ERROR_USERNAME001</t>
+  </si>
+  <si>
+    <t>ERROR_LOGIN001</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +595,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +917,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -1056,128 +1062,314 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,9 +1377,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1197,188 +1386,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2056,8 +2065,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2940233" y="1497563"/>
-          <a:ext cx="9393441" cy="5829484"/>
+          <a:off x="2958162" y="1492520"/>
+          <a:ext cx="9465159" cy="5829484"/>
           <a:chOff x="2881316" y="751116"/>
           <a:chExt cx="6466953" cy="4163397"/>
         </a:xfrm>
@@ -3163,348 +3172,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="76" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="75" t="s">
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76" t="s">
+      <c r="K1" s="94"/>
+      <c r="L1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="75" t="s">
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="76" t="s">
+      <c r="Q1" s="94"/>
+      <c r="R1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="78" t="s">
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="78"/>
-      <c r="W1" s="79">
+      <c r="V1" s="95"/>
+      <c r="W1" s="106">
         <v>45026</v>
       </c>
-      <c r="X1" s="77"/>
+      <c r="X1" s="100"/>
     </row>
     <row r="2" spans="1:24" ht="15" thickBot="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="75" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="78" t="s">
+      <c r="Q2" s="94"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="78"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="75" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="77" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78" t="s">
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="77" t="s">
+      <c r="Q3" s="95"/>
+      <c r="R3" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="91"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="102"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="92"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="91"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="102"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="92"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="91"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="102"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="92"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="91"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="102"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="92"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="91"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="102"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="92"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="91"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="102"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="92"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="91"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="102"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="92"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="91"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="102"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="92"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="91"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="102"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="12"/>
@@ -3513,21 +3522,21 @@
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
@@ -3541,19 +3550,19 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
@@ -3567,19 +3576,19 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
@@ -3593,19 +3602,19 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
@@ -3619,19 +3628,19 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
@@ -4035,112 +4044,112 @@
       <c r="X39" s="20"/>
     </row>
     <row r="40" spans="1:24" ht="15" thickBot="1">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="76" t="s">
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76" t="s">
+      <c r="F40" s="78"/>
+      <c r="G40" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="84" t="s">
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="84"/>
-      <c r="L40" s="76" t="s">
+      <c r="K40" s="107"/>
+      <c r="L40" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="84" t="s">
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="76" t="s">
+      <c r="Q40" s="107"/>
+      <c r="R40" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S40" s="76"/>
-      <c r="T40" s="76"/>
-      <c r="U40" s="88" t="s">
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="V40" s="88"/>
-      <c r="W40" s="79">
+      <c r="V40" s="108"/>
+      <c r="W40" s="106">
         <v>45026</v>
       </c>
-      <c r="X40" s="77"/>
+      <c r="X40" s="100"/>
     </row>
     <row r="41" spans="1:24" ht="15" thickBot="1">
-      <c r="A41" s="87"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="84" t="s">
+      <c r="A41" s="93"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="77"/>
-      <c r="S41" s="77"/>
-      <c r="T41" s="77"/>
-      <c r="U41" s="88" t="s">
+      <c r="Q41" s="107"/>
+      <c r="R41" s="100"/>
+      <c r="S41" s="100"/>
+      <c r="T41" s="100"/>
+      <c r="U41" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="V41" s="88"/>
-      <c r="W41" s="77"/>
-      <c r="X41" s="77"/>
+      <c r="V41" s="108"/>
+      <c r="W41" s="100"/>
+      <c r="X41" s="100"/>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="84" t="s">
+      <c r="A42" s="93"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="84"/>
-      <c r="L42" s="77" t="s">
+      <c r="K42" s="107"/>
+      <c r="L42" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="88" t="s">
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="77" t="s">
+      <c r="Q42" s="108"/>
+      <c r="R42" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="S42" s="77"/>
-      <c r="T42" s="77"/>
-      <c r="U42" s="77"/>
-      <c r="V42" s="77"/>
-      <c r="W42" s="77"/>
-      <c r="X42" s="77"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
+      <c r="V42" s="100"/>
+      <c r="W42" s="100"/>
+      <c r="X42" s="100"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="21"/>
@@ -4182,830 +4191,830 @@
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1">
       <c r="A47" s="16"/>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83" t="s">
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83" t="s">
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="98"/>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="99"/>
-      <c r="S47" s="100"/>
-      <c r="T47" s="101"/>
-      <c r="U47" s="101"/>
-      <c r="V47" s="102"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="84"/>
+      <c r="S47" s="85"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="87"/>
       <c r="W47" s="13"/>
       <c r="X47" s="17"/>
     </row>
     <row r="48" spans="1:24" ht="15" thickBot="1">
       <c r="A48" s="16"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="84" t="s">
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84" t="s">
+      <c r="P48" s="107"/>
+      <c r="Q48" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="84"/>
-      <c r="S48" s="84" t="s">
+      <c r="R48" s="107"/>
+      <c r="S48" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="T48" s="84"/>
-      <c r="U48" s="84" t="s">
+      <c r="T48" s="107"/>
+      <c r="U48" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="V48" s="84"/>
+      <c r="V48" s="107"/>
       <c r="W48" s="13"/>
       <c r="X48" s="17"/>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="16"/>
-      <c r="B49" s="85">
+      <c r="B49" s="96">
         <v>1</v>
       </c>
-      <c r="C49" s="86">
+      <c r="C49" s="109">
         <v>45026</v>
       </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85" t="s">
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85" t="s">
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
-      <c r="Q49" s="85"/>
-      <c r="R49" s="85"/>
-      <c r="S49" s="85"/>
-      <c r="T49" s="85"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="85"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="96"/>
+      <c r="S49" s="96"/>
+      <c r="T49" s="96"/>
+      <c r="U49" s="96"/>
+      <c r="V49" s="96"/>
       <c r="X49" s="17"/>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="16"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-      <c r="Q50" s="85"/>
-      <c r="R50" s="85"/>
-      <c r="S50" s="85"/>
-      <c r="T50" s="85"/>
-      <c r="U50" s="85"/>
-      <c r="V50" s="85"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="96"/>
+      <c r="O50" s="96"/>
+      <c r="P50" s="96"/>
+      <c r="Q50" s="96"/>
+      <c r="R50" s="96"/>
+      <c r="S50" s="96"/>
+      <c r="T50" s="96"/>
+      <c r="U50" s="96"/>
+      <c r="V50" s="96"/>
       <c r="X50" s="17"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="16"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-      <c r="Q51" s="85"/>
-      <c r="R51" s="85"/>
-      <c r="S51" s="85"/>
-      <c r="T51" s="85"/>
-      <c r="U51" s="85"/>
-      <c r="V51" s="85"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="96"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="96"/>
+      <c r="O51" s="96"/>
+      <c r="P51" s="96"/>
+      <c r="Q51" s="96"/>
+      <c r="R51" s="96"/>
+      <c r="S51" s="96"/>
+      <c r="T51" s="96"/>
+      <c r="U51" s="96"/>
+      <c r="V51" s="96"/>
       <c r="X51" s="17"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="16"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-      <c r="Q52" s="85"/>
-      <c r="R52" s="85"/>
-      <c r="S52" s="85"/>
-      <c r="T52" s="85"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="96"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="96"/>
+      <c r="U52" s="96"/>
+      <c r="V52" s="96"/>
       <c r="X52" s="17"/>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="16"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-      <c r="Q53" s="85"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="96"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="96"/>
+      <c r="O53" s="96"/>
+      <c r="P53" s="96"/>
+      <c r="Q53" s="96"/>
+      <c r="R53" s="96"/>
+      <c r="S53" s="96"/>
+      <c r="T53" s="96"/>
+      <c r="U53" s="96"/>
+      <c r="V53" s="96"/>
       <c r="X53" s="17"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="16"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="85"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="85"/>
-      <c r="R54" s="85"/>
-      <c r="S54" s="85"/>
-      <c r="T54" s="85"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="96"/>
+      <c r="P54" s="96"/>
+      <c r="Q54" s="96"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="96"/>
+      <c r="T54" s="96"/>
+      <c r="U54" s="96"/>
+      <c r="V54" s="96"/>
       <c r="X54" s="17"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="16"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
-      <c r="Q55" s="85"/>
-      <c r="R55" s="85"/>
-      <c r="S55" s="85"/>
-      <c r="T55" s="85"/>
-      <c r="U55" s="85"/>
-      <c r="V55" s="85"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="96"/>
+      <c r="O55" s="96"/>
+      <c r="P55" s="96"/>
+      <c r="Q55" s="96"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="96"/>
+      <c r="T55" s="96"/>
+      <c r="U55" s="96"/>
+      <c r="V55" s="96"/>
       <c r="X55" s="17"/>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="16"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
-      <c r="Q56" s="85"/>
-      <c r="R56" s="85"/>
-      <c r="S56" s="85"/>
-      <c r="T56" s="85"/>
-      <c r="U56" s="85"/>
-      <c r="V56" s="85"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="96"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="96"/>
+      <c r="Q56" s="96"/>
+      <c r="R56" s="96"/>
+      <c r="S56" s="96"/>
+      <c r="T56" s="96"/>
+      <c r="U56" s="96"/>
+      <c r="V56" s="96"/>
       <c r="X56" s="17"/>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="16"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
-      <c r="Q57" s="85"/>
-      <c r="R57" s="85"/>
-      <c r="S57" s="85"/>
-      <c r="T57" s="85"/>
-      <c r="U57" s="85"/>
-      <c r="V57" s="85"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="96"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="96"/>
+      <c r="U57" s="96"/>
+      <c r="V57" s="96"/>
       <c r="X57" s="17"/>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="16"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
-      <c r="Q58" s="85"/>
-      <c r="R58" s="85"/>
-      <c r="S58" s="85"/>
-      <c r="T58" s="85"/>
-      <c r="U58" s="85"/>
-      <c r="V58" s="85"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="96"/>
+      <c r="R58" s="96"/>
+      <c r="S58" s="96"/>
+      <c r="T58" s="96"/>
+      <c r="U58" s="96"/>
+      <c r="V58" s="96"/>
       <c r="X58" s="17"/>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="16"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
-      <c r="Q59" s="85"/>
-      <c r="R59" s="85"/>
-      <c r="S59" s="85"/>
-      <c r="T59" s="85"/>
-      <c r="U59" s="85"/>
-      <c r="V59" s="85"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="96"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="96"/>
+      <c r="R59" s="96"/>
+      <c r="S59" s="96"/>
+      <c r="T59" s="96"/>
+      <c r="U59" s="96"/>
+      <c r="V59" s="96"/>
       <c r="X59" s="17"/>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="16"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
-      <c r="P60" s="85"/>
-      <c r="Q60" s="85"/>
-      <c r="R60" s="85"/>
-      <c r="S60" s="85"/>
-      <c r="T60" s="85"/>
-      <c r="U60" s="85"/>
-      <c r="V60" s="85"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="96"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="96"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="96"/>
+      <c r="O60" s="96"/>
+      <c r="P60" s="96"/>
+      <c r="Q60" s="96"/>
+      <c r="R60" s="96"/>
+      <c r="S60" s="96"/>
+      <c r="T60" s="96"/>
+      <c r="U60" s="96"/>
+      <c r="V60" s="96"/>
       <c r="X60" s="17"/>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="16"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="85"/>
-      <c r="Q61" s="85"/>
-      <c r="R61" s="85"/>
-      <c r="S61" s="85"/>
-      <c r="T61" s="85"/>
-      <c r="U61" s="85"/>
-      <c r="V61" s="85"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="96"/>
+      <c r="R61" s="96"/>
+      <c r="S61" s="96"/>
+      <c r="T61" s="96"/>
+      <c r="U61" s="96"/>
+      <c r="V61" s="96"/>
       <c r="X61" s="17"/>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="16"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85"/>
-      <c r="K62" s="85"/>
-      <c r="L62" s="85"/>
-      <c r="M62" s="85"/>
-      <c r="N62" s="85"/>
-      <c r="O62" s="85"/>
-      <c r="P62" s="85"/>
-      <c r="Q62" s="85"/>
-      <c r="R62" s="85"/>
-      <c r="S62" s="85"/>
-      <c r="T62" s="85"/>
-      <c r="U62" s="85"/>
-      <c r="V62" s="85"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="96"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="96"/>
+      <c r="S62" s="96"/>
+      <c r="T62" s="96"/>
+      <c r="U62" s="96"/>
+      <c r="V62" s="96"/>
       <c r="X62" s="17"/>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="16"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
-      <c r="K63" s="85"/>
-      <c r="L63" s="85"/>
-      <c r="M63" s="85"/>
-      <c r="N63" s="85"/>
-      <c r="O63" s="85"/>
-      <c r="P63" s="85"/>
-      <c r="Q63" s="85"/>
-      <c r="R63" s="85"/>
-      <c r="S63" s="85"/>
-      <c r="T63" s="85"/>
-      <c r="U63" s="85"/>
-      <c r="V63" s="85"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="96"/>
+      <c r="J63" s="96"/>
+      <c r="K63" s="96"/>
+      <c r="L63" s="96"/>
+      <c r="M63" s="96"/>
+      <c r="N63" s="96"/>
+      <c r="O63" s="96"/>
+      <c r="P63" s="96"/>
+      <c r="Q63" s="96"/>
+      <c r="R63" s="96"/>
+      <c r="S63" s="96"/>
+      <c r="T63" s="96"/>
+      <c r="U63" s="96"/>
+      <c r="V63" s="96"/>
       <c r="X63" s="17"/>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="16"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="85"/>
-      <c r="M64" s="85"/>
-      <c r="N64" s="85"/>
-      <c r="O64" s="85"/>
-      <c r="P64" s="85"/>
-      <c r="Q64" s="85"/>
-      <c r="R64" s="85"/>
-      <c r="S64" s="85"/>
-      <c r="T64" s="85"/>
-      <c r="U64" s="85"/>
-      <c r="V64" s="85"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="96"/>
+      <c r="K64" s="96"/>
+      <c r="L64" s="96"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="96"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="96"/>
+      <c r="Q64" s="96"/>
+      <c r="R64" s="96"/>
+      <c r="S64" s="96"/>
+      <c r="T64" s="96"/>
+      <c r="U64" s="96"/>
+      <c r="V64" s="96"/>
       <c r="X64" s="17"/>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="16"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="85"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
-      <c r="K65" s="85"/>
-      <c r="L65" s="85"/>
-      <c r="M65" s="85"/>
-      <c r="N65" s="85"/>
-      <c r="O65" s="85"/>
-      <c r="P65" s="85"/>
-      <c r="Q65" s="85"/>
-      <c r="R65" s="85"/>
-      <c r="S65" s="85"/>
-      <c r="T65" s="85"/>
-      <c r="U65" s="85"/>
-      <c r="V65" s="85"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="96"/>
+      <c r="K65" s="96"/>
+      <c r="L65" s="96"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="96"/>
+      <c r="O65" s="96"/>
+      <c r="P65" s="96"/>
+      <c r="Q65" s="96"/>
+      <c r="R65" s="96"/>
+      <c r="S65" s="96"/>
+      <c r="T65" s="96"/>
+      <c r="U65" s="96"/>
+      <c r="V65" s="96"/>
       <c r="X65" s="17"/>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="16"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="85"/>
-      <c r="K66" s="85"/>
-      <c r="L66" s="85"/>
-      <c r="M66" s="85"/>
-      <c r="N66" s="85"/>
-      <c r="O66" s="85"/>
-      <c r="P66" s="85"/>
-      <c r="Q66" s="85"/>
-      <c r="R66" s="85"/>
-      <c r="S66" s="85"/>
-      <c r="T66" s="85"/>
-      <c r="U66" s="85"/>
-      <c r="V66" s="85"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="96"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="96"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="96"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="96"/>
+      <c r="S66" s="96"/>
+      <c r="T66" s="96"/>
+      <c r="U66" s="96"/>
+      <c r="V66" s="96"/>
       <c r="X66" s="17"/>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="16"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="85"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="85"/>
-      <c r="K67" s="85"/>
-      <c r="L67" s="85"/>
-      <c r="M67" s="85"/>
-      <c r="N67" s="85"/>
-      <c r="O67" s="85"/>
-      <c r="P67" s="85"/>
-      <c r="Q67" s="85"/>
-      <c r="R67" s="85"/>
-      <c r="S67" s="85"/>
-      <c r="T67" s="85"/>
-      <c r="U67" s="85"/>
-      <c r="V67" s="85"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="96"/>
+      <c r="K67" s="96"/>
+      <c r="L67" s="96"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="96"/>
+      <c r="O67" s="96"/>
+      <c r="P67" s="96"/>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="96"/>
+      <c r="S67" s="96"/>
+      <c r="T67" s="96"/>
+      <c r="U67" s="96"/>
+      <c r="V67" s="96"/>
       <c r="X67" s="17"/>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="16"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="85"/>
-      <c r="I68" s="85"/>
-      <c r="J68" s="85"/>
-      <c r="K68" s="85"/>
-      <c r="L68" s="85"/>
-      <c r="M68" s="85"/>
-      <c r="N68" s="85"/>
-      <c r="O68" s="85"/>
-      <c r="P68" s="85"/>
-      <c r="Q68" s="85"/>
-      <c r="R68" s="85"/>
-      <c r="S68" s="85"/>
-      <c r="T68" s="85"/>
-      <c r="U68" s="85"/>
-      <c r="V68" s="85"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="96"/>
+      <c r="K68" s="96"/>
+      <c r="L68" s="96"/>
+      <c r="M68" s="96"/>
+      <c r="N68" s="96"/>
+      <c r="O68" s="96"/>
+      <c r="P68" s="96"/>
+      <c r="Q68" s="96"/>
+      <c r="R68" s="96"/>
+      <c r="S68" s="96"/>
+      <c r="T68" s="96"/>
+      <c r="U68" s="96"/>
+      <c r="V68" s="96"/>
       <c r="X68" s="17"/>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="16"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="85"/>
-      <c r="K69" s="85"/>
-      <c r="L69" s="85"/>
-      <c r="M69" s="85"/>
-      <c r="N69" s="85"/>
-      <c r="O69" s="85"/>
-      <c r="P69" s="85"/>
-      <c r="Q69" s="85"/>
-      <c r="R69" s="85"/>
-      <c r="S69" s="85"/>
-      <c r="T69" s="85"/>
-      <c r="U69" s="85"/>
-      <c r="V69" s="85"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="96"/>
+      <c r="K69" s="96"/>
+      <c r="L69" s="96"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="96"/>
+      <c r="O69" s="96"/>
+      <c r="P69" s="96"/>
+      <c r="Q69" s="96"/>
+      <c r="R69" s="96"/>
+      <c r="S69" s="96"/>
+      <c r="T69" s="96"/>
+      <c r="U69" s="96"/>
+      <c r="V69" s="96"/>
       <c r="X69" s="17"/>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="16"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="85"/>
-      <c r="K70" s="85"/>
-      <c r="L70" s="85"/>
-      <c r="M70" s="85"/>
-      <c r="N70" s="85"/>
-      <c r="O70" s="85"/>
-      <c r="P70" s="85"/>
-      <c r="Q70" s="85"/>
-      <c r="R70" s="85"/>
-      <c r="S70" s="85"/>
-      <c r="T70" s="85"/>
-      <c r="U70" s="85"/>
-      <c r="V70" s="85"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="96"/>
+      <c r="H70" s="96"/>
+      <c r="I70" s="96"/>
+      <c r="J70" s="96"/>
+      <c r="K70" s="96"/>
+      <c r="L70" s="96"/>
+      <c r="M70" s="96"/>
+      <c r="N70" s="96"/>
+      <c r="O70" s="96"/>
+      <c r="P70" s="96"/>
+      <c r="Q70" s="96"/>
+      <c r="R70" s="96"/>
+      <c r="S70" s="96"/>
+      <c r="T70" s="96"/>
+      <c r="U70" s="96"/>
+      <c r="V70" s="96"/>
       <c r="X70" s="17"/>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="16"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
-      <c r="I71" s="85"/>
-      <c r="J71" s="85"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="85"/>
-      <c r="M71" s="85"/>
-      <c r="N71" s="85"/>
-      <c r="O71" s="85"/>
-      <c r="P71" s="85"/>
-      <c r="Q71" s="85"/>
-      <c r="R71" s="85"/>
-      <c r="S71" s="85"/>
-      <c r="T71" s="85"/>
-      <c r="U71" s="85"/>
-      <c r="V71" s="85"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="96"/>
+      <c r="H71" s="96"/>
+      <c r="I71" s="96"/>
+      <c r="J71" s="96"/>
+      <c r="K71" s="96"/>
+      <c r="L71" s="96"/>
+      <c r="M71" s="96"/>
+      <c r="N71" s="96"/>
+      <c r="O71" s="96"/>
+      <c r="P71" s="96"/>
+      <c r="Q71" s="96"/>
+      <c r="R71" s="96"/>
+      <c r="S71" s="96"/>
+      <c r="T71" s="96"/>
+      <c r="U71" s="96"/>
+      <c r="V71" s="96"/>
       <c r="X71" s="17"/>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="16"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="85"/>
-      <c r="L72" s="85"/>
-      <c r="M72" s="85"/>
-      <c r="N72" s="85"/>
-      <c r="O72" s="85"/>
-      <c r="P72" s="85"/>
-      <c r="Q72" s="85"/>
-      <c r="R72" s="85"/>
-      <c r="S72" s="85"/>
-      <c r="T72" s="85"/>
-      <c r="U72" s="85"/>
-      <c r="V72" s="85"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="96"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="96"/>
+      <c r="H72" s="96"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="96"/>
+      <c r="K72" s="96"/>
+      <c r="L72" s="96"/>
+      <c r="M72" s="96"/>
+      <c r="N72" s="96"/>
+      <c r="O72" s="96"/>
+      <c r="P72" s="96"/>
+      <c r="Q72" s="96"/>
+      <c r="R72" s="96"/>
+      <c r="S72" s="96"/>
+      <c r="T72" s="96"/>
+      <c r="U72" s="96"/>
+      <c r="V72" s="96"/>
       <c r="X72" s="17"/>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="16"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-      <c r="J73" s="85"/>
-      <c r="K73" s="85"/>
-      <c r="L73" s="85"/>
-      <c r="M73" s="85"/>
-      <c r="N73" s="85"/>
-      <c r="O73" s="85"/>
-      <c r="P73" s="85"/>
-      <c r="Q73" s="85"/>
-      <c r="R73" s="85"/>
-      <c r="S73" s="85"/>
-      <c r="T73" s="85"/>
-      <c r="U73" s="85"/>
-      <c r="V73" s="85"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="96"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="96"/>
+      <c r="K73" s="96"/>
+      <c r="L73" s="96"/>
+      <c r="M73" s="96"/>
+      <c r="N73" s="96"/>
+      <c r="O73" s="96"/>
+      <c r="P73" s="96"/>
+      <c r="Q73" s="96"/>
+      <c r="R73" s="96"/>
+      <c r="S73" s="96"/>
+      <c r="T73" s="96"/>
+      <c r="U73" s="96"/>
+      <c r="V73" s="96"/>
       <c r="X73" s="17"/>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="16"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="85"/>
-      <c r="K74" s="85"/>
-      <c r="L74" s="85"/>
-      <c r="M74" s="85"/>
-      <c r="N74" s="85"/>
-      <c r="O74" s="85"/>
-      <c r="P74" s="85"/>
-      <c r="Q74" s="85"/>
-      <c r="R74" s="85"/>
-      <c r="S74" s="85"/>
-      <c r="T74" s="85"/>
-      <c r="U74" s="85"/>
-      <c r="V74" s="85"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="96"/>
+      <c r="K74" s="96"/>
+      <c r="L74" s="96"/>
+      <c r="M74" s="96"/>
+      <c r="N74" s="96"/>
+      <c r="O74" s="96"/>
+      <c r="P74" s="96"/>
+      <c r="Q74" s="96"/>
+      <c r="R74" s="96"/>
+      <c r="S74" s="96"/>
+      <c r="T74" s="96"/>
+      <c r="U74" s="96"/>
+      <c r="V74" s="96"/>
       <c r="X74" s="17"/>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="16"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="85"/>
-      <c r="J75" s="85"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
-      <c r="M75" s="85"/>
-      <c r="N75" s="85"/>
-      <c r="O75" s="85"/>
-      <c r="P75" s="85"/>
-      <c r="Q75" s="85"/>
-      <c r="R75" s="85"/>
-      <c r="S75" s="85"/>
-      <c r="T75" s="85"/>
-      <c r="U75" s="85"/>
-      <c r="V75" s="85"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="96"/>
+      <c r="J75" s="96"/>
+      <c r="K75" s="96"/>
+      <c r="L75" s="96"/>
+      <c r="M75" s="96"/>
+      <c r="N75" s="96"/>
+      <c r="O75" s="96"/>
+      <c r="P75" s="96"/>
+      <c r="Q75" s="96"/>
+      <c r="R75" s="96"/>
+      <c r="S75" s="96"/>
+      <c r="T75" s="96"/>
+      <c r="U75" s="96"/>
+      <c r="V75" s="96"/>
       <c r="X75" s="17"/>
     </row>
     <row r="76" spans="1:25" ht="15" thickBot="1">
       <c r="A76" s="16"/>
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="95"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="95"/>
-      <c r="K76" s="95"/>
-      <c r="L76" s="95"/>
-      <c r="M76" s="95"/>
-      <c r="N76" s="95"/>
-      <c r="O76" s="95"/>
-      <c r="P76" s="95"/>
-      <c r="Q76" s="95"/>
-      <c r="R76" s="95"/>
-      <c r="S76" s="95"/>
-      <c r="T76" s="95"/>
-      <c r="U76" s="95"/>
-      <c r="V76" s="96"/>
+      <c r="B76" s="97"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="97"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="97"/>
+      <c r="J76" s="97"/>
+      <c r="K76" s="97"/>
+      <c r="L76" s="97"/>
+      <c r="M76" s="97"/>
+      <c r="N76" s="97"/>
+      <c r="O76" s="97"/>
+      <c r="P76" s="97"/>
+      <c r="Q76" s="97"/>
+      <c r="R76" s="97"/>
+      <c r="S76" s="97"/>
+      <c r="T76" s="97"/>
+      <c r="U76" s="97"/>
+      <c r="V76" s="98"/>
       <c r="W76" s="25"/>
       <c r="X76" s="17"/>
       <c r="Y76" s="16"/>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="16"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="90"/>
-      <c r="H77" s="90"/>
-      <c r="I77" s="90"/>
-      <c r="J77" s="90"/>
-      <c r="K77" s="90"/>
-      <c r="L77" s="90"/>
-      <c r="M77" s="90"/>
-      <c r="N77" s="90"/>
-      <c r="O77" s="90"/>
-      <c r="P77" s="90"/>
-      <c r="Q77" s="90"/>
-      <c r="R77" s="90"/>
-      <c r="S77" s="90"/>
-      <c r="T77" s="90"/>
-      <c r="U77" s="90"/>
-      <c r="V77" s="90"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="99"/>
+      <c r="K77" s="99"/>
+      <c r="L77" s="99"/>
+      <c r="M77" s="99"/>
+      <c r="N77" s="99"/>
+      <c r="O77" s="99"/>
+      <c r="P77" s="99"/>
+      <c r="Q77" s="99"/>
+      <c r="R77" s="99"/>
+      <c r="S77" s="99"/>
+      <c r="T77" s="99"/>
+      <c r="U77" s="99"/>
+      <c r="V77" s="99"/>
       <c r="X77" s="17"/>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="16"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="90"/>
-      <c r="K78" s="90"/>
-      <c r="L78" s="90"/>
-      <c r="M78" s="90"/>
-      <c r="N78" s="90"/>
-      <c r="O78" s="90"/>
-      <c r="P78" s="90"/>
-      <c r="Q78" s="90"/>
-      <c r="R78" s="90"/>
-      <c r="S78" s="90"/>
-      <c r="T78" s="90"/>
-      <c r="U78" s="90"/>
-      <c r="V78" s="90"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="99"/>
+      <c r="J78" s="99"/>
+      <c r="K78" s="99"/>
+      <c r="L78" s="99"/>
+      <c r="M78" s="99"/>
+      <c r="N78" s="99"/>
+      <c r="O78" s="99"/>
+      <c r="P78" s="99"/>
+      <c r="Q78" s="99"/>
+      <c r="R78" s="99"/>
+      <c r="S78" s="99"/>
+      <c r="T78" s="99"/>
+      <c r="U78" s="99"/>
+      <c r="V78" s="99"/>
       <c r="X78" s="17"/>
     </row>
     <row r="79" spans="1:25">
@@ -5039,112 +5048,112 @@
       <c r="X80" s="20"/>
     </row>
     <row r="81" spans="1:24" ht="15" thickBot="1">
-      <c r="A81" s="87" t="s">
+      <c r="A81" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="76" t="s">
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76" t="s">
+      <c r="F81" s="78"/>
+      <c r="G81" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="75" t="s">
+      <c r="H81" s="78"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="75"/>
-      <c r="L81" s="76" t="s">
+      <c r="K81" s="94"/>
+      <c r="L81" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M81" s="76"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76"/>
-      <c r="P81" s="75" t="s">
+      <c r="M81" s="78"/>
+      <c r="N81" s="78"/>
+      <c r="O81" s="78"/>
+      <c r="P81" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Q81" s="75"/>
-      <c r="R81" s="76" t="s">
+      <c r="Q81" s="94"/>
+      <c r="R81" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S81" s="76"/>
-      <c r="T81" s="76"/>
-      <c r="U81" s="78" t="s">
+      <c r="S81" s="78"/>
+      <c r="T81" s="78"/>
+      <c r="U81" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="V81" s="78"/>
-      <c r="W81" s="79">
+      <c r="V81" s="95"/>
+      <c r="W81" s="106">
         <v>45026</v>
       </c>
-      <c r="X81" s="77"/>
+      <c r="X81" s="100"/>
     </row>
     <row r="82" spans="1:24" ht="15" thickBot="1">
-      <c r="A82" s="87"/>
-      <c r="B82" s="87"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="87"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="76"/>
-      <c r="M82" s="76"/>
-      <c r="N82" s="76"/>
-      <c r="O82" s="76"/>
-      <c r="P82" s="75" t="s">
+      <c r="A82" s="93"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="94"/>
+      <c r="K82" s="94"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="78"/>
+      <c r="N82" s="78"/>
+      <c r="O82" s="78"/>
+      <c r="P82" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="77"/>
-      <c r="S82" s="77"/>
-      <c r="T82" s="77"/>
-      <c r="U82" s="78" t="s">
+      <c r="Q82" s="94"/>
+      <c r="R82" s="100"/>
+      <c r="S82" s="100"/>
+      <c r="T82" s="100"/>
+      <c r="U82" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="V82" s="78"/>
-      <c r="W82" s="77"/>
-      <c r="X82" s="77"/>
+      <c r="V82" s="95"/>
+      <c r="W82" s="100"/>
+      <c r="X82" s="100"/>
     </row>
     <row r="83" spans="1:24" ht="15" thickBot="1">
-      <c r="A83" s="87"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="75" t="s">
+      <c r="A83" s="93"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="78"/>
+      <c r="I83" s="78"/>
+      <c r="J83" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="75"/>
-      <c r="L83" s="77" t="s">
+      <c r="K83" s="94"/>
+      <c r="L83" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M83" s="77"/>
-      <c r="N83" s="77"/>
-      <c r="O83" s="77"/>
-      <c r="P83" s="78" t="s">
+      <c r="M83" s="100"/>
+      <c r="N83" s="100"/>
+      <c r="O83" s="100"/>
+      <c r="P83" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q83" s="78"/>
-      <c r="R83" s="77" t="s">
+      <c r="Q83" s="95"/>
+      <c r="R83" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="S83" s="77"/>
-      <c r="T83" s="77"/>
-      <c r="U83" s="77"/>
-      <c r="V83" s="77"/>
-      <c r="W83" s="77"/>
-      <c r="X83" s="77"/>
+      <c r="S83" s="100"/>
+      <c r="T83" s="100"/>
+      <c r="U83" s="100"/>
+      <c r="V83" s="100"/>
+      <c r="W83" s="100"/>
+      <c r="X83" s="100"/>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="21"/>
@@ -5401,112 +5410,112 @@
       <c r="X121" s="20"/>
     </row>
     <row r="122" spans="1:24" ht="15" thickBot="1">
-      <c r="A122" s="87" t="s">
+      <c r="A122" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="87"/>
-      <c r="C122" s="87"/>
-      <c r="D122" s="87"/>
-      <c r="E122" s="76" t="s">
+      <c r="B122" s="93"/>
+      <c r="C122" s="93"/>
+      <c r="D122" s="93"/>
+      <c r="E122" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F122" s="76"/>
-      <c r="G122" s="76" t="s">
+      <c r="F122" s="78"/>
+      <c r="G122" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="76"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="75" t="s">
+      <c r="H122" s="78"/>
+      <c r="I122" s="78"/>
+      <c r="J122" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K122" s="75"/>
-      <c r="L122" s="76" t="s">
+      <c r="K122" s="94"/>
+      <c r="L122" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M122" s="76"/>
-      <c r="N122" s="76"/>
-      <c r="O122" s="76"/>
-      <c r="P122" s="75" t="s">
+      <c r="M122" s="78"/>
+      <c r="N122" s="78"/>
+      <c r="O122" s="78"/>
+      <c r="P122" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Q122" s="75"/>
-      <c r="R122" s="76" t="s">
+      <c r="Q122" s="94"/>
+      <c r="R122" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S122" s="76"/>
-      <c r="T122" s="76"/>
-      <c r="U122" s="78" t="s">
+      <c r="S122" s="78"/>
+      <c r="T122" s="78"/>
+      <c r="U122" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="V122" s="78"/>
-      <c r="W122" s="79">
+      <c r="V122" s="95"/>
+      <c r="W122" s="106">
         <v>45026</v>
       </c>
-      <c r="X122" s="77"/>
+      <c r="X122" s="100"/>
     </row>
     <row r="123" spans="1:24" ht="15" thickBot="1">
-      <c r="A123" s="87"/>
-      <c r="B123" s="87"/>
-      <c r="C123" s="87"/>
-      <c r="D123" s="87"/>
-      <c r="E123" s="76"/>
-      <c r="F123" s="76"/>
-      <c r="G123" s="76"/>
-      <c r="H123" s="76"/>
-      <c r="I123" s="76"/>
-      <c r="J123" s="75"/>
-      <c r="K123" s="75"/>
-      <c r="L123" s="76"/>
-      <c r="M123" s="76"/>
-      <c r="N123" s="76"/>
-      <c r="O123" s="76"/>
-      <c r="P123" s="75" t="s">
+      <c r="A123" s="93"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="93"/>
+      <c r="D123" s="93"/>
+      <c r="E123" s="78"/>
+      <c r="F123" s="78"/>
+      <c r="G123" s="78"/>
+      <c r="H123" s="78"/>
+      <c r="I123" s="78"/>
+      <c r="J123" s="94"/>
+      <c r="K123" s="94"/>
+      <c r="L123" s="78"/>
+      <c r="M123" s="78"/>
+      <c r="N123" s="78"/>
+      <c r="O123" s="78"/>
+      <c r="P123" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q123" s="75"/>
-      <c r="R123" s="77"/>
-      <c r="S123" s="77"/>
-      <c r="T123" s="77"/>
-      <c r="U123" s="78" t="s">
+      <c r="Q123" s="94"/>
+      <c r="R123" s="100"/>
+      <c r="S123" s="100"/>
+      <c r="T123" s="100"/>
+      <c r="U123" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="V123" s="78"/>
-      <c r="W123" s="77"/>
-      <c r="X123" s="77"/>
+      <c r="V123" s="95"/>
+      <c r="W123" s="100"/>
+      <c r="X123" s="100"/>
     </row>
     <row r="124" spans="1:24" ht="15" thickBot="1">
-      <c r="A124" s="87"/>
-      <c r="B124" s="87"/>
-      <c r="C124" s="87"/>
-      <c r="D124" s="87"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="76"/>
-      <c r="G124" s="76"/>
-      <c r="H124" s="76"/>
-      <c r="I124" s="76"/>
-      <c r="J124" s="75" t="s">
+      <c r="A124" s="93"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="93"/>
+      <c r="D124" s="93"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="78"/>
+      <c r="H124" s="78"/>
+      <c r="I124" s="78"/>
+      <c r="J124" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K124" s="75"/>
-      <c r="L124" s="77" t="s">
+      <c r="K124" s="94"/>
+      <c r="L124" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M124" s="77"/>
-      <c r="N124" s="77"/>
-      <c r="O124" s="77"/>
-      <c r="P124" s="78" t="s">
+      <c r="M124" s="100"/>
+      <c r="N124" s="100"/>
+      <c r="O124" s="100"/>
+      <c r="P124" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q124" s="78"/>
-      <c r="R124" s="77" t="s">
+      <c r="Q124" s="95"/>
+      <c r="R124" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="S124" s="77"/>
-      <c r="T124" s="77"/>
-      <c r="U124" s="77"/>
-      <c r="V124" s="77"/>
-      <c r="W124" s="77"/>
-      <c r="X124" s="77"/>
+      <c r="S124" s="100"/>
+      <c r="T124" s="100"/>
+      <c r="U124" s="100"/>
+      <c r="V124" s="100"/>
+      <c r="W124" s="100"/>
+      <c r="X124" s="100"/>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="21"/>
@@ -5762,31 +5771,31 @@
       <c r="C148" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D148" s="83" t="s">
+      <c r="D148" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="E148" s="83"/>
-      <c r="F148" s="83" t="s">
+      <c r="E148" s="88"/>
+      <c r="F148" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="G148" s="83"/>
-      <c r="H148" s="83"/>
-      <c r="I148" s="83"/>
-      <c r="J148" s="83"/>
+      <c r="G148" s="88"/>
+      <c r="H148" s="88"/>
+      <c r="I148" s="88"/>
+      <c r="J148" s="88"/>
       <c r="K148" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L148" s="103" t="s">
+      <c r="L148" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="M148" s="104"/>
-      <c r="N148" s="104"/>
-      <c r="O148" s="104"/>
-      <c r="P148" s="104"/>
-      <c r="Q148" s="104"/>
-      <c r="R148" s="104"/>
-      <c r="S148" s="104"/>
-      <c r="T148" s="105"/>
+      <c r="M148" s="90"/>
+      <c r="N148" s="90"/>
+      <c r="O148" s="90"/>
+      <c r="P148" s="90"/>
+      <c r="Q148" s="90"/>
+      <c r="R148" s="90"/>
+      <c r="S148" s="90"/>
+      <c r="T148" s="91"/>
       <c r="X148" s="17"/>
     </row>
     <row r="149" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
@@ -5794,251 +5803,251 @@
       <c r="C149" s="39">
         <v>1</v>
       </c>
-      <c r="D149" s="106" t="s">
+      <c r="D149" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="E149" s="106"/>
-      <c r="F149" s="107" t="s">
+      <c r="E149" s="92"/>
+      <c r="F149" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="G149" s="108"/>
-      <c r="H149" s="107" t="s">
+      <c r="G149" s="80"/>
+      <c r="H149" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="I149" s="109"/>
-      <c r="J149" s="108"/>
+      <c r="I149" s="81"/>
+      <c r="J149" s="80"/>
       <c r="K149" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L149" s="80"/>
-      <c r="M149" s="81"/>
-      <c r="N149" s="81"/>
-      <c r="O149" s="81"/>
-      <c r="P149" s="81"/>
-      <c r="Q149" s="81"/>
-      <c r="R149" s="81"/>
-      <c r="S149" s="81"/>
-      <c r="T149" s="82"/>
+      <c r="L149" s="75"/>
+      <c r="M149" s="76"/>
+      <c r="N149" s="76"/>
+      <c r="O149" s="76"/>
+      <c r="P149" s="76"/>
+      <c r="Q149" s="76"/>
+      <c r="R149" s="76"/>
+      <c r="S149" s="76"/>
+      <c r="T149" s="77"/>
       <c r="X149" s="17"/>
     </row>
     <row r="150" spans="1:24" ht="15" thickBot="1">
       <c r="A150" s="16"/>
       <c r="C150" s="10"/>
-      <c r="D150" s="76"/>
-      <c r="E150" s="76"/>
-      <c r="F150" s="80"/>
-      <c r="G150" s="82"/>
-      <c r="H150" s="80"/>
-      <c r="I150" s="81"/>
-      <c r="J150" s="82"/>
+      <c r="D150" s="78"/>
+      <c r="E150" s="78"/>
+      <c r="F150" s="75"/>
+      <c r="G150" s="77"/>
+      <c r="H150" s="75"/>
+      <c r="I150" s="76"/>
+      <c r="J150" s="77"/>
       <c r="K150" s="10"/>
-      <c r="L150" s="80"/>
-      <c r="M150" s="81"/>
-      <c r="N150" s="81"/>
-      <c r="O150" s="81"/>
-      <c r="P150" s="81"/>
-      <c r="Q150" s="81"/>
-      <c r="R150" s="81"/>
-      <c r="S150" s="81"/>
-      <c r="T150" s="82"/>
+      <c r="L150" s="75"/>
+      <c r="M150" s="76"/>
+      <c r="N150" s="76"/>
+      <c r="O150" s="76"/>
+      <c r="P150" s="76"/>
+      <c r="Q150" s="76"/>
+      <c r="R150" s="76"/>
+      <c r="S150" s="76"/>
+      <c r="T150" s="77"/>
       <c r="X150" s="17"/>
     </row>
     <row r="151" spans="1:24" ht="15" thickBot="1">
       <c r="A151" s="16"/>
       <c r="C151" s="10"/>
-      <c r="D151" s="76"/>
-      <c r="E151" s="76"/>
-      <c r="F151" s="80"/>
-      <c r="G151" s="82"/>
-      <c r="H151" s="80"/>
-      <c r="I151" s="81"/>
-      <c r="J151" s="82"/>
+      <c r="D151" s="78"/>
+      <c r="E151" s="78"/>
+      <c r="F151" s="75"/>
+      <c r="G151" s="77"/>
+      <c r="H151" s="75"/>
+      <c r="I151" s="76"/>
+      <c r="J151" s="77"/>
       <c r="K151" s="10"/>
-      <c r="L151" s="80"/>
-      <c r="M151" s="81"/>
-      <c r="N151" s="81"/>
-      <c r="O151" s="81"/>
-      <c r="P151" s="81"/>
-      <c r="Q151" s="81"/>
-      <c r="R151" s="81"/>
-      <c r="S151" s="81"/>
-      <c r="T151" s="82"/>
+      <c r="L151" s="75"/>
+      <c r="M151" s="76"/>
+      <c r="N151" s="76"/>
+      <c r="O151" s="76"/>
+      <c r="P151" s="76"/>
+      <c r="Q151" s="76"/>
+      <c r="R151" s="76"/>
+      <c r="S151" s="76"/>
+      <c r="T151" s="77"/>
       <c r="X151" s="17"/>
     </row>
     <row r="152" spans="1:24" ht="15" thickBot="1">
       <c r="A152" s="16"/>
       <c r="C152" s="10"/>
-      <c r="D152" s="76"/>
-      <c r="E152" s="76"/>
-      <c r="F152" s="80"/>
-      <c r="G152" s="82"/>
-      <c r="H152" s="80"/>
-      <c r="I152" s="81"/>
-      <c r="J152" s="82"/>
+      <c r="D152" s="78"/>
+      <c r="E152" s="78"/>
+      <c r="F152" s="75"/>
+      <c r="G152" s="77"/>
+      <c r="H152" s="75"/>
+      <c r="I152" s="76"/>
+      <c r="J152" s="77"/>
       <c r="K152" s="10"/>
-      <c r="L152" s="80"/>
-      <c r="M152" s="81"/>
-      <c r="N152" s="81"/>
-      <c r="O152" s="81"/>
-      <c r="P152" s="81"/>
-      <c r="Q152" s="81"/>
-      <c r="R152" s="81"/>
-      <c r="S152" s="81"/>
-      <c r="T152" s="82"/>
+      <c r="L152" s="75"/>
+      <c r="M152" s="76"/>
+      <c r="N152" s="76"/>
+      <c r="O152" s="76"/>
+      <c r="P152" s="76"/>
+      <c r="Q152" s="76"/>
+      <c r="R152" s="76"/>
+      <c r="S152" s="76"/>
+      <c r="T152" s="77"/>
       <c r="X152" s="17"/>
     </row>
     <row r="153" spans="1:24" ht="15" thickBot="1">
       <c r="A153" s="16"/>
       <c r="C153" s="10"/>
-      <c r="D153" s="76"/>
-      <c r="E153" s="76"/>
-      <c r="F153" s="80"/>
-      <c r="G153" s="82"/>
-      <c r="H153" s="80"/>
-      <c r="I153" s="81"/>
-      <c r="J153" s="82"/>
+      <c r="D153" s="78"/>
+      <c r="E153" s="78"/>
+      <c r="F153" s="75"/>
+      <c r="G153" s="77"/>
+      <c r="H153" s="75"/>
+      <c r="I153" s="76"/>
+      <c r="J153" s="77"/>
       <c r="K153" s="10"/>
-      <c r="L153" s="80"/>
-      <c r="M153" s="81"/>
-      <c r="N153" s="81"/>
-      <c r="O153" s="81"/>
-      <c r="P153" s="81"/>
-      <c r="Q153" s="81"/>
-      <c r="R153" s="81"/>
-      <c r="S153" s="81"/>
-      <c r="T153" s="82"/>
+      <c r="L153" s="75"/>
+      <c r="M153" s="76"/>
+      <c r="N153" s="76"/>
+      <c r="O153" s="76"/>
+      <c r="P153" s="76"/>
+      <c r="Q153" s="76"/>
+      <c r="R153" s="76"/>
+      <c r="S153" s="76"/>
+      <c r="T153" s="77"/>
       <c r="X153" s="17"/>
     </row>
     <row r="154" spans="1:24" ht="15" thickBot="1">
       <c r="A154" s="16"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="76"/>
-      <c r="E154" s="76"/>
-      <c r="F154" s="80"/>
-      <c r="G154" s="82"/>
-      <c r="H154" s="80"/>
-      <c r="I154" s="81"/>
-      <c r="J154" s="82"/>
+      <c r="D154" s="78"/>
+      <c r="E154" s="78"/>
+      <c r="F154" s="75"/>
+      <c r="G154" s="77"/>
+      <c r="H154" s="75"/>
+      <c r="I154" s="76"/>
+      <c r="J154" s="77"/>
       <c r="K154" s="10"/>
-      <c r="L154" s="80"/>
-      <c r="M154" s="81"/>
-      <c r="N154" s="81"/>
-      <c r="O154" s="81"/>
-      <c r="P154" s="81"/>
-      <c r="Q154" s="81"/>
-      <c r="R154" s="81"/>
-      <c r="S154" s="81"/>
-      <c r="T154" s="82"/>
+      <c r="L154" s="75"/>
+      <c r="M154" s="76"/>
+      <c r="N154" s="76"/>
+      <c r="O154" s="76"/>
+      <c r="P154" s="76"/>
+      <c r="Q154" s="76"/>
+      <c r="R154" s="76"/>
+      <c r="S154" s="76"/>
+      <c r="T154" s="77"/>
       <c r="X154" s="17"/>
     </row>
     <row r="155" spans="1:24" ht="15" thickBot="1">
       <c r="A155" s="16"/>
       <c r="C155" s="10"/>
-      <c r="D155" s="76"/>
-      <c r="E155" s="76"/>
-      <c r="F155" s="80"/>
-      <c r="G155" s="82"/>
-      <c r="H155" s="80"/>
-      <c r="I155" s="81"/>
-      <c r="J155" s="82"/>
+      <c r="D155" s="78"/>
+      <c r="E155" s="78"/>
+      <c r="F155" s="75"/>
+      <c r="G155" s="77"/>
+      <c r="H155" s="75"/>
+      <c r="I155" s="76"/>
+      <c r="J155" s="77"/>
       <c r="K155" s="10"/>
-      <c r="L155" s="80"/>
-      <c r="M155" s="81"/>
-      <c r="N155" s="81"/>
-      <c r="O155" s="81"/>
-      <c r="P155" s="81"/>
-      <c r="Q155" s="81"/>
-      <c r="R155" s="81"/>
-      <c r="S155" s="81"/>
-      <c r="T155" s="82"/>
+      <c r="L155" s="75"/>
+      <c r="M155" s="76"/>
+      <c r="N155" s="76"/>
+      <c r="O155" s="76"/>
+      <c r="P155" s="76"/>
+      <c r="Q155" s="76"/>
+      <c r="R155" s="76"/>
+      <c r="S155" s="76"/>
+      <c r="T155" s="77"/>
       <c r="X155" s="17"/>
     </row>
     <row r="156" spans="1:24" ht="15" thickBot="1">
       <c r="A156" s="16"/>
       <c r="C156" s="10"/>
-      <c r="D156" s="76"/>
-      <c r="E156" s="76"/>
-      <c r="F156" s="80"/>
-      <c r="G156" s="82"/>
-      <c r="H156" s="80"/>
-      <c r="I156" s="81"/>
-      <c r="J156" s="82"/>
+      <c r="D156" s="78"/>
+      <c r="E156" s="78"/>
+      <c r="F156" s="75"/>
+      <c r="G156" s="77"/>
+      <c r="H156" s="75"/>
+      <c r="I156" s="76"/>
+      <c r="J156" s="77"/>
       <c r="K156" s="10"/>
-      <c r="L156" s="80"/>
-      <c r="M156" s="81"/>
-      <c r="N156" s="81"/>
-      <c r="O156" s="81"/>
-      <c r="P156" s="81"/>
-      <c r="Q156" s="81"/>
-      <c r="R156" s="81"/>
-      <c r="S156" s="81"/>
-      <c r="T156" s="82"/>
+      <c r="L156" s="75"/>
+      <c r="M156" s="76"/>
+      <c r="N156" s="76"/>
+      <c r="O156" s="76"/>
+      <c r="P156" s="76"/>
+      <c r="Q156" s="76"/>
+      <c r="R156" s="76"/>
+      <c r="S156" s="76"/>
+      <c r="T156" s="77"/>
       <c r="X156" s="17"/>
     </row>
     <row r="157" spans="1:24" ht="15" thickBot="1">
       <c r="A157" s="16"/>
       <c r="C157" s="10"/>
-      <c r="D157" s="76"/>
-      <c r="E157" s="76"/>
-      <c r="F157" s="80"/>
-      <c r="G157" s="82"/>
-      <c r="H157" s="80"/>
-      <c r="I157" s="81"/>
-      <c r="J157" s="82"/>
+      <c r="D157" s="78"/>
+      <c r="E157" s="78"/>
+      <c r="F157" s="75"/>
+      <c r="G157" s="77"/>
+      <c r="H157" s="75"/>
+      <c r="I157" s="76"/>
+      <c r="J157" s="77"/>
       <c r="K157" s="10"/>
-      <c r="L157" s="80"/>
-      <c r="M157" s="81"/>
-      <c r="N157" s="81"/>
-      <c r="O157" s="81"/>
-      <c r="P157" s="81"/>
-      <c r="Q157" s="81"/>
-      <c r="R157" s="81"/>
-      <c r="S157" s="81"/>
-      <c r="T157" s="82"/>
+      <c r="L157" s="75"/>
+      <c r="M157" s="76"/>
+      <c r="N157" s="76"/>
+      <c r="O157" s="76"/>
+      <c r="P157" s="76"/>
+      <c r="Q157" s="76"/>
+      <c r="R157" s="76"/>
+      <c r="S157" s="76"/>
+      <c r="T157" s="77"/>
       <c r="X157" s="17"/>
     </row>
     <row r="158" spans="1:24" ht="15" thickBot="1">
       <c r="A158" s="16"/>
       <c r="C158" s="10"/>
-      <c r="D158" s="76"/>
-      <c r="E158" s="76"/>
-      <c r="F158" s="80"/>
-      <c r="G158" s="82"/>
-      <c r="H158" s="80"/>
-      <c r="I158" s="81"/>
-      <c r="J158" s="82"/>
+      <c r="D158" s="78"/>
+      <c r="E158" s="78"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="77"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="76"/>
+      <c r="J158" s="77"/>
       <c r="K158" s="10"/>
-      <c r="L158" s="80"/>
-      <c r="M158" s="81"/>
-      <c r="N158" s="81"/>
-      <c r="O158" s="81"/>
-      <c r="P158" s="81"/>
-      <c r="Q158" s="81"/>
-      <c r="R158" s="81"/>
-      <c r="S158" s="81"/>
-      <c r="T158" s="82"/>
+      <c r="L158" s="75"/>
+      <c r="M158" s="76"/>
+      <c r="N158" s="76"/>
+      <c r="O158" s="76"/>
+      <c r="P158" s="76"/>
+      <c r="Q158" s="76"/>
+      <c r="R158" s="76"/>
+      <c r="S158" s="76"/>
+      <c r="T158" s="77"/>
       <c r="X158" s="17"/>
     </row>
     <row r="159" spans="1:24" ht="15" thickBot="1">
       <c r="A159" s="16"/>
       <c r="C159" s="10"/>
-      <c r="D159" s="76"/>
-      <c r="E159" s="76"/>
-      <c r="F159" s="80"/>
-      <c r="G159" s="82"/>
-      <c r="H159" s="80"/>
-      <c r="I159" s="81"/>
-      <c r="J159" s="82"/>
+      <c r="D159" s="78"/>
+      <c r="E159" s="78"/>
+      <c r="F159" s="75"/>
+      <c r="G159" s="77"/>
+      <c r="H159" s="75"/>
+      <c r="I159" s="76"/>
+      <c r="J159" s="77"/>
       <c r="K159" s="10"/>
-      <c r="L159" s="80"/>
-      <c r="M159" s="81"/>
-      <c r="N159" s="81"/>
-      <c r="O159" s="81"/>
-      <c r="P159" s="81"/>
-      <c r="Q159" s="81"/>
-      <c r="R159" s="81"/>
-      <c r="S159" s="81"/>
-      <c r="T159" s="82"/>
+      <c r="L159" s="75"/>
+      <c r="M159" s="76"/>
+      <c r="N159" s="76"/>
+      <c r="O159" s="76"/>
+      <c r="P159" s="76"/>
+      <c r="Q159" s="76"/>
+      <c r="R159" s="76"/>
+      <c r="S159" s="76"/>
+      <c r="T159" s="77"/>
       <c r="X159" s="17"/>
     </row>
     <row r="160" spans="1:24">
@@ -6079,112 +6088,112 @@
       <c r="X162" s="20"/>
     </row>
     <row r="163" spans="1:24" ht="15" thickBot="1">
-      <c r="A163" s="87" t="s">
+      <c r="A163" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="87"/>
-      <c r="C163" s="87"/>
-      <c r="D163" s="87"/>
-      <c r="E163" s="76" t="s">
+      <c r="B163" s="93"/>
+      <c r="C163" s="93"/>
+      <c r="D163" s="93"/>
+      <c r="E163" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F163" s="76"/>
-      <c r="G163" s="76" t="s">
+      <c r="F163" s="78"/>
+      <c r="G163" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H163" s="76"/>
-      <c r="I163" s="76"/>
-      <c r="J163" s="75" t="s">
+      <c r="H163" s="78"/>
+      <c r="I163" s="78"/>
+      <c r="J163" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K163" s="75"/>
-      <c r="L163" s="76" t="s">
+      <c r="K163" s="94"/>
+      <c r="L163" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M163" s="76"/>
-      <c r="N163" s="76"/>
-      <c r="O163" s="76"/>
-      <c r="P163" s="75" t="s">
+      <c r="M163" s="78"/>
+      <c r="N163" s="78"/>
+      <c r="O163" s="78"/>
+      <c r="P163" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Q163" s="75"/>
-      <c r="R163" s="76" t="s">
+      <c r="Q163" s="94"/>
+      <c r="R163" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S163" s="76"/>
-      <c r="T163" s="76"/>
-      <c r="U163" s="78" t="s">
+      <c r="S163" s="78"/>
+      <c r="T163" s="78"/>
+      <c r="U163" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="V163" s="78"/>
-      <c r="W163" s="79">
+      <c r="V163" s="95"/>
+      <c r="W163" s="106">
         <v>45026</v>
       </c>
-      <c r="X163" s="77"/>
+      <c r="X163" s="100"/>
     </row>
     <row r="164" spans="1:24" ht="15" thickBot="1">
-      <c r="A164" s="87"/>
-      <c r="B164" s="87"/>
-      <c r="C164" s="87"/>
-      <c r="D164" s="87"/>
-      <c r="E164" s="76"/>
-      <c r="F164" s="76"/>
-      <c r="G164" s="76"/>
-      <c r="H164" s="76"/>
-      <c r="I164" s="76"/>
-      <c r="J164" s="75"/>
-      <c r="K164" s="75"/>
-      <c r="L164" s="76"/>
-      <c r="M164" s="76"/>
-      <c r="N164" s="76"/>
-      <c r="O164" s="76"/>
-      <c r="P164" s="75" t="s">
+      <c r="A164" s="93"/>
+      <c r="B164" s="93"/>
+      <c r="C164" s="93"/>
+      <c r="D164" s="93"/>
+      <c r="E164" s="78"/>
+      <c r="F164" s="78"/>
+      <c r="G164" s="78"/>
+      <c r="H164" s="78"/>
+      <c r="I164" s="78"/>
+      <c r="J164" s="94"/>
+      <c r="K164" s="94"/>
+      <c r="L164" s="78"/>
+      <c r="M164" s="78"/>
+      <c r="N164" s="78"/>
+      <c r="O164" s="78"/>
+      <c r="P164" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q164" s="75"/>
-      <c r="R164" s="77"/>
-      <c r="S164" s="77"/>
-      <c r="T164" s="77"/>
-      <c r="U164" s="78" t="s">
+      <c r="Q164" s="94"/>
+      <c r="R164" s="100"/>
+      <c r="S164" s="100"/>
+      <c r="T164" s="100"/>
+      <c r="U164" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="V164" s="78"/>
-      <c r="W164" s="77"/>
-      <c r="X164" s="77"/>
+      <c r="V164" s="95"/>
+      <c r="W164" s="100"/>
+      <c r="X164" s="100"/>
     </row>
     <row r="165" spans="1:24" ht="15" thickBot="1">
-      <c r="A165" s="87"/>
-      <c r="B165" s="87"/>
-      <c r="C165" s="87"/>
-      <c r="D165" s="87"/>
-      <c r="E165" s="76"/>
-      <c r="F165" s="76"/>
-      <c r="G165" s="76"/>
-      <c r="H165" s="76"/>
-      <c r="I165" s="76"/>
-      <c r="J165" s="75" t="s">
+      <c r="A165" s="93"/>
+      <c r="B165" s="93"/>
+      <c r="C165" s="93"/>
+      <c r="D165" s="93"/>
+      <c r="E165" s="78"/>
+      <c r="F165" s="78"/>
+      <c r="G165" s="78"/>
+      <c r="H165" s="78"/>
+      <c r="I165" s="78"/>
+      <c r="J165" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K165" s="75"/>
-      <c r="L165" s="77" t="s">
+      <c r="K165" s="94"/>
+      <c r="L165" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M165" s="77"/>
-      <c r="N165" s="77"/>
-      <c r="O165" s="77"/>
-      <c r="P165" s="78" t="s">
+      <c r="M165" s="100"/>
+      <c r="N165" s="100"/>
+      <c r="O165" s="100"/>
+      <c r="P165" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q165" s="78"/>
-      <c r="R165" s="77" t="s">
+      <c r="Q165" s="95"/>
+      <c r="R165" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="S165" s="77"/>
-      <c r="T165" s="77"/>
-      <c r="U165" s="77"/>
-      <c r="V165" s="77"/>
-      <c r="W165" s="77"/>
-      <c r="X165" s="77"/>
+      <c r="S165" s="100"/>
+      <c r="T165" s="100"/>
+      <c r="U165" s="100"/>
+      <c r="V165" s="100"/>
+      <c r="W165" s="100"/>
+      <c r="X165" s="100"/>
     </row>
     <row r="166" spans="1:24">
       <c r="A166" s="21"/>
@@ -6383,112 +6392,112 @@
       <c r="X203" s="20"/>
     </row>
     <row r="204" spans="1:24" ht="15" thickBot="1">
-      <c r="A204" s="87" t="s">
+      <c r="A204" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B204" s="87"/>
-      <c r="C204" s="87"/>
-      <c r="D204" s="87"/>
-      <c r="E204" s="76" t="s">
+      <c r="B204" s="93"/>
+      <c r="C204" s="93"/>
+      <c r="D204" s="93"/>
+      <c r="E204" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F204" s="76"/>
-      <c r="G204" s="76" t="s">
+      <c r="F204" s="78"/>
+      <c r="G204" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H204" s="76"/>
-      <c r="I204" s="76"/>
-      <c r="J204" s="75" t="s">
+      <c r="H204" s="78"/>
+      <c r="I204" s="78"/>
+      <c r="J204" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K204" s="75"/>
-      <c r="L204" s="76" t="s">
+      <c r="K204" s="94"/>
+      <c r="L204" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M204" s="76"/>
-      <c r="N204" s="76"/>
-      <c r="O204" s="76"/>
-      <c r="P204" s="75" t="s">
+      <c r="M204" s="78"/>
+      <c r="N204" s="78"/>
+      <c r="O204" s="78"/>
+      <c r="P204" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Q204" s="75"/>
-      <c r="R204" s="76" t="s">
+      <c r="Q204" s="94"/>
+      <c r="R204" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S204" s="76"/>
-      <c r="T204" s="76"/>
-      <c r="U204" s="78" t="s">
+      <c r="S204" s="78"/>
+      <c r="T204" s="78"/>
+      <c r="U204" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="V204" s="78"/>
-      <c r="W204" s="79">
+      <c r="V204" s="95"/>
+      <c r="W204" s="106">
         <v>45026</v>
       </c>
-      <c r="X204" s="77"/>
+      <c r="X204" s="100"/>
     </row>
     <row r="205" spans="1:24" ht="15" thickBot="1">
-      <c r="A205" s="87"/>
-      <c r="B205" s="87"/>
-      <c r="C205" s="87"/>
-      <c r="D205" s="87"/>
-      <c r="E205" s="76"/>
-      <c r="F205" s="76"/>
-      <c r="G205" s="76"/>
-      <c r="H205" s="76"/>
-      <c r="I205" s="76"/>
-      <c r="J205" s="75"/>
-      <c r="K205" s="75"/>
-      <c r="L205" s="76"/>
-      <c r="M205" s="76"/>
-      <c r="N205" s="76"/>
-      <c r="O205" s="76"/>
-      <c r="P205" s="75" t="s">
+      <c r="A205" s="93"/>
+      <c r="B205" s="93"/>
+      <c r="C205" s="93"/>
+      <c r="D205" s="93"/>
+      <c r="E205" s="78"/>
+      <c r="F205" s="78"/>
+      <c r="G205" s="78"/>
+      <c r="H205" s="78"/>
+      <c r="I205" s="78"/>
+      <c r="J205" s="94"/>
+      <c r="K205" s="94"/>
+      <c r="L205" s="78"/>
+      <c r="M205" s="78"/>
+      <c r="N205" s="78"/>
+      <c r="O205" s="78"/>
+      <c r="P205" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q205" s="75"/>
-      <c r="R205" s="77"/>
-      <c r="S205" s="77"/>
-      <c r="T205" s="77"/>
-      <c r="U205" s="78" t="s">
+      <c r="Q205" s="94"/>
+      <c r="R205" s="100"/>
+      <c r="S205" s="100"/>
+      <c r="T205" s="100"/>
+      <c r="U205" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="V205" s="78"/>
-      <c r="W205" s="77"/>
-      <c r="X205" s="77"/>
+      <c r="V205" s="95"/>
+      <c r="W205" s="100"/>
+      <c r="X205" s="100"/>
     </row>
     <row r="206" spans="1:24" ht="15" thickBot="1">
-      <c r="A206" s="87"/>
-      <c r="B206" s="87"/>
-      <c r="C206" s="87"/>
-      <c r="D206" s="87"/>
-      <c r="E206" s="76"/>
-      <c r="F206" s="76"/>
-      <c r="G206" s="76"/>
-      <c r="H206" s="76"/>
-      <c r="I206" s="76"/>
-      <c r="J206" s="75" t="s">
+      <c r="A206" s="93"/>
+      <c r="B206" s="93"/>
+      <c r="C206" s="93"/>
+      <c r="D206" s="93"/>
+      <c r="E206" s="78"/>
+      <c r="F206" s="78"/>
+      <c r="G206" s="78"/>
+      <c r="H206" s="78"/>
+      <c r="I206" s="78"/>
+      <c r="J206" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K206" s="75"/>
-      <c r="L206" s="77" t="s">
+      <c r="K206" s="94"/>
+      <c r="L206" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M206" s="77"/>
-      <c r="N206" s="77"/>
-      <c r="O206" s="77"/>
-      <c r="P206" s="78" t="s">
+      <c r="M206" s="100"/>
+      <c r="N206" s="100"/>
+      <c r="O206" s="100"/>
+      <c r="P206" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q206" s="78"/>
-      <c r="R206" s="77" t="s">
+      <c r="Q206" s="95"/>
+      <c r="R206" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="S206" s="77"/>
-      <c r="T206" s="77"/>
-      <c r="U206" s="77"/>
-      <c r="V206" s="77"/>
-      <c r="W206" s="77"/>
-      <c r="X206" s="77"/>
+      <c r="S206" s="100"/>
+      <c r="T206" s="100"/>
+      <c r="U206" s="100"/>
+      <c r="V206" s="100"/>
+      <c r="W206" s="100"/>
+      <c r="X206" s="100"/>
     </row>
     <row r="207" spans="1:24">
       <c r="A207" s="21"/>
@@ -6688,35 +6697,234 @@
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="H157:J157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="L153:T153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="L154:T154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="L155:T155"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="L159:T159"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:J155"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:J156"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="J204:K205"/>
+    <mergeCell ref="L204:O205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:O206"/>
+    <mergeCell ref="P206:Q206"/>
+    <mergeCell ref="R206:X206"/>
+    <mergeCell ref="W204:X204"/>
+    <mergeCell ref="P205:Q205"/>
+    <mergeCell ref="R205:T205"/>
+    <mergeCell ref="U205:V205"/>
+    <mergeCell ref="W205:X205"/>
+    <mergeCell ref="P204:Q204"/>
+    <mergeCell ref="R204:T204"/>
+    <mergeCell ref="U204:V204"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="R124:X124"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="L156:T156"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="F47:K48"/>
+    <mergeCell ref="L47:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W81:X81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:T82"/>
+    <mergeCell ref="U82:V82"/>
+    <mergeCell ref="W82:X82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:E50"/>
+    <mergeCell ref="F49:K50"/>
+    <mergeCell ref="L49:N50"/>
+    <mergeCell ref="A163:D165"/>
+    <mergeCell ref="E163:F165"/>
+    <mergeCell ref="G163:I165"/>
+    <mergeCell ref="J163:K164"/>
+    <mergeCell ref="L163:O164"/>
+    <mergeCell ref="P163:Q163"/>
+    <mergeCell ref="R163:T163"/>
+    <mergeCell ref="U163:V163"/>
+    <mergeCell ref="W163:X163"/>
+    <mergeCell ref="P164:Q164"/>
+    <mergeCell ref="R164:T164"/>
+    <mergeCell ref="U164:V164"/>
+    <mergeCell ref="W164:X164"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="P165:Q165"/>
+    <mergeCell ref="R165:X165"/>
+    <mergeCell ref="A204:D206"/>
+    <mergeCell ref="E204:F206"/>
+    <mergeCell ref="G204:I206"/>
+    <mergeCell ref="J122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="R123:T123"/>
+    <mergeCell ref="U123:V123"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="L150:T150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="L151:T151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="L152:T152"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:T157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="L158:T158"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="Q49:R50"/>
+    <mergeCell ref="S49:T50"/>
+    <mergeCell ref="U49:V50"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:X83"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:E52"/>
+    <mergeCell ref="F51:K52"/>
+    <mergeCell ref="L51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="Q51:R52"/>
+    <mergeCell ref="S51:T52"/>
+    <mergeCell ref="U51:V52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:E54"/>
+    <mergeCell ref="F53:K54"/>
+    <mergeCell ref="L53:N54"/>
+    <mergeCell ref="O53:P54"/>
+    <mergeCell ref="Q53:R54"/>
+    <mergeCell ref="S53:T54"/>
+    <mergeCell ref="U53:V54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="A40:D42"/>
+    <mergeCell ref="E40:F42"/>
+    <mergeCell ref="G40:I42"/>
+    <mergeCell ref="J40:K41"/>
+    <mergeCell ref="L40:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:X42"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="A4:X12"/>
+    <mergeCell ref="G13:S17"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="C55:E56"/>
+    <mergeCell ref="F55:K56"/>
+    <mergeCell ref="L55:N56"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="Q55:R56"/>
+    <mergeCell ref="S55:T56"/>
+    <mergeCell ref="U55:V56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:E58"/>
+    <mergeCell ref="F57:K58"/>
+    <mergeCell ref="L57:N58"/>
+    <mergeCell ref="O57:P58"/>
+    <mergeCell ref="Q57:R58"/>
+    <mergeCell ref="S57:T58"/>
+    <mergeCell ref="U57:V58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="F59:K60"/>
+    <mergeCell ref="L59:N60"/>
+    <mergeCell ref="O59:P60"/>
+    <mergeCell ref="Q59:R60"/>
+    <mergeCell ref="S59:T60"/>
+    <mergeCell ref="U59:V60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:E62"/>
+    <mergeCell ref="F61:K62"/>
+    <mergeCell ref="L61:N62"/>
+    <mergeCell ref="O61:P62"/>
+    <mergeCell ref="Q61:R62"/>
+    <mergeCell ref="S61:T62"/>
+    <mergeCell ref="U61:V62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:E64"/>
+    <mergeCell ref="F63:K64"/>
+    <mergeCell ref="L63:N64"/>
+    <mergeCell ref="O63:P64"/>
+    <mergeCell ref="Q63:R64"/>
+    <mergeCell ref="S63:T64"/>
+    <mergeCell ref="U63:V64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:E66"/>
+    <mergeCell ref="F65:K66"/>
+    <mergeCell ref="L65:N66"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="Q65:R66"/>
+    <mergeCell ref="S65:T66"/>
+    <mergeCell ref="U65:V66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:E68"/>
+    <mergeCell ref="F67:K68"/>
+    <mergeCell ref="L67:N68"/>
+    <mergeCell ref="O67:P68"/>
+    <mergeCell ref="Q67:R68"/>
+    <mergeCell ref="S67:T68"/>
+    <mergeCell ref="U67:V68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:E70"/>
+    <mergeCell ref="F69:K70"/>
+    <mergeCell ref="L69:N70"/>
+    <mergeCell ref="O69:P70"/>
+    <mergeCell ref="Q69:R70"/>
+    <mergeCell ref="S69:T70"/>
+    <mergeCell ref="U69:V70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:E72"/>
+    <mergeCell ref="F71:K72"/>
+    <mergeCell ref="L71:N72"/>
+    <mergeCell ref="O71:P72"/>
+    <mergeCell ref="Q71:R72"/>
+    <mergeCell ref="S71:T72"/>
+    <mergeCell ref="U71:V72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:E74"/>
+    <mergeCell ref="F73:K74"/>
+    <mergeCell ref="L73:N74"/>
+    <mergeCell ref="O73:P74"/>
+    <mergeCell ref="Q73:R74"/>
+    <mergeCell ref="S73:T74"/>
+    <mergeCell ref="U73:V74"/>
+    <mergeCell ref="S75:T76"/>
+    <mergeCell ref="U75:V76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:E78"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L77:N78"/>
+    <mergeCell ref="O77:P78"/>
+    <mergeCell ref="Q77:R78"/>
+    <mergeCell ref="S77:T78"/>
+    <mergeCell ref="U77:V78"/>
     <mergeCell ref="O47:R47"/>
     <mergeCell ref="S47:V47"/>
     <mergeCell ref="D148:E148"/>
@@ -6741,234 +6949,35 @@
     <mergeCell ref="L75:N76"/>
     <mergeCell ref="O75:P76"/>
     <mergeCell ref="Q75:R76"/>
-    <mergeCell ref="S75:T76"/>
-    <mergeCell ref="U75:V76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:E78"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L77:N78"/>
-    <mergeCell ref="O77:P78"/>
-    <mergeCell ref="Q77:R78"/>
-    <mergeCell ref="S77:T78"/>
-    <mergeCell ref="U77:V78"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:E72"/>
-    <mergeCell ref="F71:K72"/>
-    <mergeCell ref="L71:N72"/>
-    <mergeCell ref="O71:P72"/>
-    <mergeCell ref="Q71:R72"/>
-    <mergeCell ref="S71:T72"/>
-    <mergeCell ref="U71:V72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:E74"/>
-    <mergeCell ref="F73:K74"/>
-    <mergeCell ref="L73:N74"/>
-    <mergeCell ref="O73:P74"/>
-    <mergeCell ref="Q73:R74"/>
-    <mergeCell ref="S73:T74"/>
-    <mergeCell ref="U73:V74"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:E68"/>
-    <mergeCell ref="F67:K68"/>
-    <mergeCell ref="L67:N68"/>
-    <mergeCell ref="O67:P68"/>
-    <mergeCell ref="Q67:R68"/>
-    <mergeCell ref="S67:T68"/>
-    <mergeCell ref="U67:V68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:E70"/>
-    <mergeCell ref="F69:K70"/>
-    <mergeCell ref="L69:N70"/>
-    <mergeCell ref="O69:P70"/>
-    <mergeCell ref="Q69:R70"/>
-    <mergeCell ref="S69:T70"/>
-    <mergeCell ref="U69:V70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:E64"/>
-    <mergeCell ref="F63:K64"/>
-    <mergeCell ref="L63:N64"/>
-    <mergeCell ref="O63:P64"/>
-    <mergeCell ref="Q63:R64"/>
-    <mergeCell ref="S63:T64"/>
-    <mergeCell ref="U63:V64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:E66"/>
-    <mergeCell ref="F65:K66"/>
-    <mergeCell ref="L65:N66"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="Q65:R66"/>
-    <mergeCell ref="S65:T66"/>
-    <mergeCell ref="U65:V66"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="F59:K60"/>
-    <mergeCell ref="L59:N60"/>
-    <mergeCell ref="O59:P60"/>
-    <mergeCell ref="Q59:R60"/>
-    <mergeCell ref="S59:T60"/>
-    <mergeCell ref="U59:V60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:E62"/>
-    <mergeCell ref="F61:K62"/>
-    <mergeCell ref="L61:N62"/>
-    <mergeCell ref="O61:P62"/>
-    <mergeCell ref="Q61:R62"/>
-    <mergeCell ref="S61:T62"/>
-    <mergeCell ref="U61:V62"/>
-    <mergeCell ref="C55:E56"/>
-    <mergeCell ref="F55:K56"/>
-    <mergeCell ref="L55:N56"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="Q55:R56"/>
-    <mergeCell ref="S55:T56"/>
-    <mergeCell ref="U55:V56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:E58"/>
-    <mergeCell ref="F57:K58"/>
-    <mergeCell ref="L57:N58"/>
-    <mergeCell ref="O57:P58"/>
-    <mergeCell ref="Q57:R58"/>
-    <mergeCell ref="S57:T58"/>
-    <mergeCell ref="U57:V58"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="A4:X12"/>
-    <mergeCell ref="G13:S17"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="A40:D42"/>
-    <mergeCell ref="E40:F42"/>
-    <mergeCell ref="G40:I42"/>
-    <mergeCell ref="J40:K41"/>
-    <mergeCell ref="L40:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:X42"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="Q49:R50"/>
-    <mergeCell ref="S49:T50"/>
-    <mergeCell ref="U49:V50"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:X83"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:E52"/>
-    <mergeCell ref="F51:K52"/>
-    <mergeCell ref="L51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="Q51:R52"/>
-    <mergeCell ref="S51:T52"/>
-    <mergeCell ref="U51:V52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:E54"/>
-    <mergeCell ref="F53:K54"/>
-    <mergeCell ref="L53:N54"/>
-    <mergeCell ref="O53:P54"/>
-    <mergeCell ref="Q53:R54"/>
-    <mergeCell ref="S53:T54"/>
-    <mergeCell ref="U53:V54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A204:D206"/>
-    <mergeCell ref="E204:F206"/>
-    <mergeCell ref="G204:I206"/>
-    <mergeCell ref="J122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="U122:V122"/>
-    <mergeCell ref="W122:X122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="R123:T123"/>
-    <mergeCell ref="U123:V123"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="L150:T150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="L151:T151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="L152:T152"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:T157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="L158:T158"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="A163:D165"/>
-    <mergeCell ref="E163:F165"/>
-    <mergeCell ref="G163:I165"/>
-    <mergeCell ref="J163:K164"/>
-    <mergeCell ref="L163:O164"/>
-    <mergeCell ref="P163:Q163"/>
-    <mergeCell ref="R163:T163"/>
-    <mergeCell ref="U163:V163"/>
-    <mergeCell ref="W163:X163"/>
-    <mergeCell ref="P164:Q164"/>
-    <mergeCell ref="R164:T164"/>
-    <mergeCell ref="U164:V164"/>
-    <mergeCell ref="W164:X164"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="P165:Q165"/>
-    <mergeCell ref="R165:X165"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="R124:X124"/>
-    <mergeCell ref="H159:J159"/>
-    <mergeCell ref="L156:T156"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:E48"/>
-    <mergeCell ref="F47:K48"/>
-    <mergeCell ref="L47:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W81:X81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:T82"/>
-    <mergeCell ref="U82:V82"/>
-    <mergeCell ref="W82:X82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E50"/>
-    <mergeCell ref="F49:K50"/>
-    <mergeCell ref="L49:N50"/>
-    <mergeCell ref="J204:K205"/>
-    <mergeCell ref="L204:O205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:O206"/>
-    <mergeCell ref="P206:Q206"/>
-    <mergeCell ref="R206:X206"/>
-    <mergeCell ref="W204:X204"/>
-    <mergeCell ref="P205:Q205"/>
-    <mergeCell ref="R205:T205"/>
-    <mergeCell ref="U205:V205"/>
-    <mergeCell ref="W205:X205"/>
-    <mergeCell ref="P204:Q204"/>
-    <mergeCell ref="R204:T204"/>
-    <mergeCell ref="U204:V204"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="L153:T153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="L154:T154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="L155:T155"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="L159:T159"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="F157:G157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
@@ -6980,8 +6989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7BAF47-5540-452B-A5E0-0183B26E9959}">
   <dimension ref="A1:AB172"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A131" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I149" sqref="I149:Q149"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C118" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6990,112 +6999,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="113" t="s">
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="173"/>
+      <c r="G1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="112" t="s">
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="112"/>
-      <c r="L1" s="113" t="s">
+      <c r="K1" s="168"/>
+      <c r="L1" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="112" t="s">
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="113" t="s">
+      <c r="Q1" s="168"/>
+      <c r="R1" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="110" t="s">
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="110"/>
-      <c r="W1" s="114">
+      <c r="V1" s="169"/>
+      <c r="W1" s="166">
         <v>45026</v>
       </c>
-      <c r="X1" s="111"/>
+      <c r="X1" s="167"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="112" t="s">
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="110" t="s">
+      <c r="Q2" s="168"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="110"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="112" t="s">
+      <c r="A3" s="172"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="112"/>
-      <c r="L3" s="111" t="s">
+      <c r="K3" s="168"/>
+      <c r="L3" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="110" t="s">
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111" t="s">
+      <c r="Q3" s="169"/>
+      <c r="R3" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="42"/>
@@ -7271,112 +7280,112 @@
       <c r="X40" s="47"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="113" t="s">
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113" t="s">
+      <c r="F41" s="173"/>
+      <c r="G41" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="112" t="s">
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="112"/>
-      <c r="L41" s="113" t="s">
+      <c r="K41" s="168"/>
+      <c r="L41" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="112" t="s">
+      <c r="M41" s="173"/>
+      <c r="N41" s="173"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="113" t="s">
+      <c r="Q41" s="168"/>
+      <c r="R41" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="S41" s="113"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="110" t="s">
+      <c r="S41" s="173"/>
+      <c r="T41" s="173"/>
+      <c r="U41" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="V41" s="110"/>
-      <c r="W41" s="114">
+      <c r="V41" s="169"/>
+      <c r="W41" s="166">
         <v>45026</v>
       </c>
-      <c r="X41" s="111"/>
+      <c r="X41" s="167"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A42" s="115"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="112" t="s">
+      <c r="A42" s="172"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="168"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="173"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="Q42" s="112"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="111"/>
-      <c r="U42" s="110" t="s">
+      <c r="Q42" s="168"/>
+      <c r="R42" s="167"/>
+      <c r="S42" s="167"/>
+      <c r="T42" s="167"/>
+      <c r="U42" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="V42" s="110"/>
-      <c r="W42" s="111"/>
-      <c r="X42" s="111"/>
+      <c r="V42" s="169"/>
+      <c r="W42" s="167"/>
+      <c r="X42" s="167"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A43" s="115"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="112" t="s">
+      <c r="A43" s="172"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="112"/>
-      <c r="L43" s="111" t="s">
+      <c r="K43" s="168"/>
+      <c r="L43" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
-      <c r="P43" s="110" t="s">
+      <c r="M43" s="167"/>
+      <c r="N43" s="167"/>
+      <c r="O43" s="167"/>
+      <c r="P43" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="Q43" s="110"/>
-      <c r="R43" s="111" t="s">
+      <c r="Q43" s="169"/>
+      <c r="R43" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="S43" s="111"/>
-      <c r="T43" s="111"/>
-      <c r="U43" s="111"/>
-      <c r="V43" s="111"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="111"/>
+      <c r="S43" s="167"/>
+      <c r="T43" s="167"/>
+      <c r="U43" s="167"/>
+      <c r="V43" s="167"/>
+      <c r="W43" s="167"/>
+      <c r="X43" s="167"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="42"/>
@@ -7427,41 +7436,41 @@
       <c r="B48" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="117" t="s">
+      <c r="C48" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="116" t="s">
+      <c r="D48" s="179"/>
+      <c r="E48" s="179"/>
+      <c r="F48" s="178" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="116"/>
-      <c r="H48" s="117" t="s">
+      <c r="G48" s="178"/>
+      <c r="H48" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="117"/>
-      <c r="J48" s="117" t="s">
+      <c r="I48" s="179"/>
+      <c r="J48" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="K48" s="117"/>
+      <c r="K48" s="179"/>
       <c r="L48" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="M48" s="116" t="s">
+      <c r="M48" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="N48" s="116"/>
-      <c r="O48" s="117" t="s">
+      <c r="N48" s="178"/>
+      <c r="O48" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="P48" s="117"/>
-      <c r="Q48" s="117" t="s">
+      <c r="P48" s="179"/>
+      <c r="Q48" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="R48" s="117"/>
-      <c r="S48" s="117"/>
-      <c r="T48" s="117"/>
-      <c r="U48" s="117"/>
+      <c r="R48" s="179"/>
+      <c r="S48" s="179"/>
+      <c r="T48" s="179"/>
+      <c r="U48" s="179"/>
       <c r="X48" s="47"/>
     </row>
     <row r="49" spans="1:24">
@@ -7469,37 +7478,37 @@
       <c r="B49" s="50">
         <v>1</v>
       </c>
-      <c r="C49" s="118" t="s">
+      <c r="C49" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="118"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="120" t="s">
+      <c r="D49" s="174"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="181" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="121"/>
-      <c r="H49" s="121">
+      <c r="G49" s="182"/>
+      <c r="H49" s="182">
         <v>32</v>
       </c>
-      <c r="I49" s="122"/>
-      <c r="J49" s="122" t="s">
+      <c r="I49" s="175"/>
+      <c r="J49" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="K49" s="122"/>
+      <c r="K49" s="175"/>
       <c r="L49" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="M49" s="120" t="s">
+      <c r="M49" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121"/>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="122"/>
-      <c r="R49" s="122"/>
-      <c r="S49" s="122"/>
-      <c r="T49" s="122"/>
-      <c r="U49" s="122"/>
+      <c r="N49" s="182"/>
+      <c r="O49" s="182"/>
+      <c r="P49" s="175"/>
+      <c r="Q49" s="175"/>
+      <c r="R49" s="175"/>
+      <c r="S49" s="175"/>
+      <c r="T49" s="175"/>
+      <c r="U49" s="175"/>
       <c r="X49" s="47"/>
     </row>
     <row r="50" spans="1:24">
@@ -7507,89 +7516,89 @@
       <c r="B50" s="52">
         <v>2</v>
       </c>
-      <c r="C50" s="124" t="s">
+      <c r="C50" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="123" t="s">
+      <c r="D50" s="176"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="123"/>
-      <c r="H50" s="123">
+      <c r="G50" s="177"/>
+      <c r="H50" s="177">
         <v>32</v>
       </c>
-      <c r="I50" s="123"/>
-      <c r="J50" s="123" t="s">
+      <c r="I50" s="177"/>
+      <c r="J50" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="K50" s="123"/>
+      <c r="K50" s="177"/>
       <c r="L50" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="M50" s="123" t="s">
+      <c r="M50" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="N50" s="123"/>
-      <c r="O50" s="123" t="s">
+      <c r="N50" s="177"/>
+      <c r="O50" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="P50" s="123"/>
-      <c r="Q50" s="123" t="s">
+      <c r="P50" s="177"/>
+      <c r="Q50" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="R50" s="123"/>
-      <c r="S50" s="123"/>
-      <c r="T50" s="123"/>
-      <c r="U50" s="123"/>
+      <c r="R50" s="177"/>
+      <c r="S50" s="177"/>
+      <c r="T50" s="177"/>
+      <c r="U50" s="177"/>
       <c r="X50" s="47"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="45"/>
       <c r="B51" s="52"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="123"/>
-      <c r="K51" s="123"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="177"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="177"/>
+      <c r="H51" s="177"/>
+      <c r="I51" s="177"/>
+      <c r="J51" s="177"/>
+      <c r="K51" s="177"/>
       <c r="L51" s="52"/>
-      <c r="M51" s="123"/>
-      <c r="N51" s="123"/>
-      <c r="O51" s="123"/>
-      <c r="P51" s="123"/>
-      <c r="Q51" s="123"/>
-      <c r="R51" s="123"/>
-      <c r="S51" s="123"/>
-      <c r="T51" s="123"/>
-      <c r="U51" s="123"/>
+      <c r="M51" s="177"/>
+      <c r="N51" s="177"/>
+      <c r="O51" s="177"/>
+      <c r="P51" s="177"/>
+      <c r="Q51" s="177"/>
+      <c r="R51" s="177"/>
+      <c r="S51" s="177"/>
+      <c r="T51" s="177"/>
+      <c r="U51" s="177"/>
       <c r="X51" s="47"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="45"/>
       <c r="B52" s="53"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
+      <c r="C52" s="171"/>
+      <c r="D52" s="171"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="171"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="171"/>
+      <c r="I52" s="171"/>
+      <c r="J52" s="171"/>
+      <c r="K52" s="171"/>
       <c r="L52" s="53"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="125"/>
-      <c r="P52" s="125"/>
-      <c r="Q52" s="125"/>
-      <c r="R52" s="125"/>
-      <c r="S52" s="125"/>
-      <c r="T52" s="125"/>
-      <c r="U52" s="125"/>
+      <c r="M52" s="171"/>
+      <c r="N52" s="171"/>
+      <c r="O52" s="171"/>
+      <c r="P52" s="171"/>
+      <c r="Q52" s="171"/>
+      <c r="R52" s="171"/>
+      <c r="S52" s="171"/>
+      <c r="T52" s="171"/>
+      <c r="U52" s="171"/>
       <c r="X52" s="47"/>
     </row>
     <row r="53" spans="1:24">
@@ -7612,31 +7621,31 @@
       <c r="B56" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="126" t="s">
+      <c r="C56" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126" t="s">
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126" t="s">
+      <c r="J56" s="112"/>
+      <c r="K56" s="112"/>
+      <c r="L56" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="M56" s="126"/>
-      <c r="N56" s="126"/>
-      <c r="O56" s="126"/>
-      <c r="P56" s="126"/>
-      <c r="Q56" s="126"/>
-      <c r="R56" s="126"/>
-      <c r="S56" s="126"/>
-      <c r="T56" s="126"/>
-      <c r="U56" s="126"/>
+      <c r="M56" s="112"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="112"/>
+      <c r="R56" s="112"/>
+      <c r="S56" s="112"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="112"/>
       <c r="X56" s="47"/>
     </row>
     <row r="57" spans="1:24">
@@ -7644,29 +7653,29 @@
       <c r="B57" s="50">
         <v>1</v>
       </c>
-      <c r="C57" s="118" t="s">
+      <c r="C57" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="122" t="s">
+      <c r="D57" s="174"/>
+      <c r="E57" s="174"/>
+      <c r="F57" s="174"/>
+      <c r="G57" s="174"/>
+      <c r="H57" s="174"/>
+      <c r="I57" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
-      <c r="M57" s="122"/>
-      <c r="N57" s="122"/>
-      <c r="O57" s="122"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="122"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="122"/>
-      <c r="T57" s="122"/>
-      <c r="U57" s="122"/>
+      <c r="J57" s="175"/>
+      <c r="K57" s="175"/>
+      <c r="L57" s="175"/>
+      <c r="M57" s="175"/>
+      <c r="N57" s="175"/>
+      <c r="O57" s="175"/>
+      <c r="P57" s="175"/>
+      <c r="Q57" s="175"/>
+      <c r="R57" s="175"/>
+      <c r="S57" s="175"/>
+      <c r="T57" s="175"/>
+      <c r="U57" s="175"/>
       <c r="X57" s="47"/>
     </row>
     <row r="58" spans="1:24">
@@ -7674,29 +7683,29 @@
       <c r="B58" s="52">
         <v>2</v>
       </c>
-      <c r="C58" s="124" t="s">
+      <c r="C58" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="123" t="s">
+      <c r="D58" s="176"/>
+      <c r="E58" s="176"/>
+      <c r="F58" s="176"/>
+      <c r="G58" s="176"/>
+      <c r="H58" s="176"/>
+      <c r="I58" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="J58" s="123"/>
-      <c r="K58" s="123"/>
-      <c r="L58" s="123"/>
-      <c r="M58" s="123"/>
-      <c r="N58" s="123"/>
-      <c r="O58" s="123"/>
-      <c r="P58" s="123"/>
-      <c r="Q58" s="123"/>
-      <c r="R58" s="123"/>
-      <c r="S58" s="123"/>
-      <c r="T58" s="123"/>
-      <c r="U58" s="123"/>
+      <c r="J58" s="177"/>
+      <c r="K58" s="177"/>
+      <c r="L58" s="177"/>
+      <c r="M58" s="177"/>
+      <c r="N58" s="177"/>
+      <c r="O58" s="177"/>
+      <c r="P58" s="177"/>
+      <c r="Q58" s="177"/>
+      <c r="R58" s="177"/>
+      <c r="S58" s="177"/>
+      <c r="T58" s="177"/>
+      <c r="U58" s="177"/>
       <c r="X58" s="47"/>
     </row>
     <row r="59" spans="1:24">
@@ -7704,29 +7713,29 @@
       <c r="B59" s="53">
         <v>3</v>
       </c>
-      <c r="C59" s="127" t="s">
+      <c r="C59" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="127"/>
-      <c r="I59" s="125" t="s">
+      <c r="D59" s="170"/>
+      <c r="E59" s="170"/>
+      <c r="F59" s="170"/>
+      <c r="G59" s="170"/>
+      <c r="H59" s="170"/>
+      <c r="I59" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="J59" s="125"/>
-      <c r="K59" s="125"/>
-      <c r="L59" s="125"/>
-      <c r="M59" s="125"/>
-      <c r="N59" s="125"/>
-      <c r="O59" s="125"/>
-      <c r="P59" s="125"/>
-      <c r="Q59" s="125"/>
-      <c r="R59" s="125"/>
-      <c r="S59" s="125"/>
-      <c r="T59" s="125"/>
-      <c r="U59" s="125"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="171"/>
+      <c r="L59" s="171"/>
+      <c r="M59" s="171"/>
+      <c r="N59" s="171"/>
+      <c r="O59" s="171"/>
+      <c r="P59" s="171"/>
+      <c r="Q59" s="171"/>
+      <c r="R59" s="171"/>
+      <c r="S59" s="171"/>
+      <c r="T59" s="171"/>
+      <c r="U59" s="171"/>
       <c r="X59" s="47"/>
     </row>
     <row r="60" spans="1:24">
@@ -7814,112 +7823,112 @@
       <c r="X80" s="47"/>
     </row>
     <row r="81" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A81" s="115" t="s">
+      <c r="A81" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="115"/>
-      <c r="C81" s="115"/>
-      <c r="D81" s="115"/>
-      <c r="E81" s="113" t="s">
+      <c r="B81" s="172"/>
+      <c r="C81" s="172"/>
+      <c r="D81" s="172"/>
+      <c r="E81" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="113"/>
-      <c r="G81" s="113" t="s">
+      <c r="F81" s="173"/>
+      <c r="G81" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="113"/>
-      <c r="I81" s="113"/>
-      <c r="J81" s="112" t="s">
+      <c r="H81" s="173"/>
+      <c r="I81" s="173"/>
+      <c r="J81" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="112"/>
-      <c r="L81" s="113" t="s">
+      <c r="K81" s="168"/>
+      <c r="L81" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="M81" s="113"/>
-      <c r="N81" s="113"/>
-      <c r="O81" s="113"/>
-      <c r="P81" s="112" t="s">
+      <c r="M81" s="173"/>
+      <c r="N81" s="173"/>
+      <c r="O81" s="173"/>
+      <c r="P81" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="Q81" s="112"/>
-      <c r="R81" s="113" t="s">
+      <c r="Q81" s="168"/>
+      <c r="R81" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="S81" s="113"/>
-      <c r="T81" s="113"/>
-      <c r="U81" s="110" t="s">
+      <c r="S81" s="173"/>
+      <c r="T81" s="173"/>
+      <c r="U81" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="V81" s="110"/>
-      <c r="W81" s="114">
+      <c r="V81" s="169"/>
+      <c r="W81" s="166">
         <v>45026</v>
       </c>
-      <c r="X81" s="111"/>
+      <c r="X81" s="167"/>
     </row>
     <row r="82" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A82" s="115"/>
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
-      <c r="G82" s="113"/>
-      <c r="H82" s="113"/>
-      <c r="I82" s="113"/>
-      <c r="J82" s="112"/>
-      <c r="K82" s="112"/>
-      <c r="L82" s="113"/>
-      <c r="M82" s="113"/>
-      <c r="N82" s="113"/>
-      <c r="O82" s="113"/>
-      <c r="P82" s="112" t="s">
+      <c r="A82" s="172"/>
+      <c r="B82" s="172"/>
+      <c r="C82" s="172"/>
+      <c r="D82" s="172"/>
+      <c r="E82" s="173"/>
+      <c r="F82" s="173"/>
+      <c r="G82" s="173"/>
+      <c r="H82" s="173"/>
+      <c r="I82" s="173"/>
+      <c r="J82" s="168"/>
+      <c r="K82" s="168"/>
+      <c r="L82" s="173"/>
+      <c r="M82" s="173"/>
+      <c r="N82" s="173"/>
+      <c r="O82" s="173"/>
+      <c r="P82" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="Q82" s="112"/>
-      <c r="R82" s="111"/>
-      <c r="S82" s="111"/>
-      <c r="T82" s="111"/>
-      <c r="U82" s="110" t="s">
+      <c r="Q82" s="168"/>
+      <c r="R82" s="167"/>
+      <c r="S82" s="167"/>
+      <c r="T82" s="167"/>
+      <c r="U82" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="V82" s="110"/>
-      <c r="W82" s="111"/>
-      <c r="X82" s="111"/>
+      <c r="V82" s="169"/>
+      <c r="W82" s="167"/>
+      <c r="X82" s="167"/>
     </row>
     <row r="83" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A83" s="115"/>
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="113"/>
-      <c r="F83" s="113"/>
-      <c r="G83" s="113"/>
-      <c r="H83" s="113"/>
-      <c r="I83" s="113"/>
-      <c r="J83" s="112" t="s">
+      <c r="A83" s="172"/>
+      <c r="B83" s="172"/>
+      <c r="C83" s="172"/>
+      <c r="D83" s="172"/>
+      <c r="E83" s="173"/>
+      <c r="F83" s="173"/>
+      <c r="G83" s="173"/>
+      <c r="H83" s="173"/>
+      <c r="I83" s="173"/>
+      <c r="J83" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="112"/>
-      <c r="L83" s="111" t="s">
+      <c r="K83" s="168"/>
+      <c r="L83" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="M83" s="111"/>
-      <c r="N83" s="111"/>
-      <c r="O83" s="111"/>
-      <c r="P83" s="110" t="s">
+      <c r="M83" s="167"/>
+      <c r="N83" s="167"/>
+      <c r="O83" s="167"/>
+      <c r="P83" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="Q83" s="110"/>
-      <c r="R83" s="111" t="s">
+      <c r="Q83" s="169"/>
+      <c r="R83" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="S83" s="111"/>
-      <c r="T83" s="111"/>
-      <c r="U83" s="111"/>
-      <c r="V83" s="111"/>
-      <c r="W83" s="111"/>
-      <c r="X83" s="111"/>
+      <c r="S83" s="167"/>
+      <c r="T83" s="167"/>
+      <c r="U83" s="167"/>
+      <c r="V83" s="167"/>
+      <c r="W83" s="167"/>
+      <c r="X83" s="167"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="42"/>
@@ -8477,112 +8486,112 @@
       <c r="X121" s="60"/>
     </row>
     <row r="122" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A122" s="128" t="s">
+      <c r="A122" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="129"/>
-      <c r="C122" s="129"/>
-      <c r="D122" s="130"/>
-      <c r="E122" s="137" t="s">
+      <c r="B122" s="139"/>
+      <c r="C122" s="139"/>
+      <c r="D122" s="140"/>
+      <c r="E122" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="F122" s="138"/>
-      <c r="G122" s="137" t="s">
+      <c r="F122" s="148"/>
+      <c r="G122" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="143"/>
-      <c r="I122" s="138"/>
-      <c r="J122" s="146" t="s">
+      <c r="H122" s="153"/>
+      <c r="I122" s="148"/>
+      <c r="J122" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="K122" s="147"/>
-      <c r="L122" s="137" t="s">
+      <c r="K122" s="156"/>
+      <c r="L122" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="M122" s="143"/>
-      <c r="N122" s="143"/>
-      <c r="O122" s="138"/>
-      <c r="P122" s="150" t="s">
+      <c r="M122" s="153"/>
+      <c r="N122" s="153"/>
+      <c r="O122" s="148"/>
+      <c r="P122" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="Q122" s="151"/>
-      <c r="R122" s="152" t="s">
+      <c r="Q122" s="160"/>
+      <c r="R122" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="S122" s="153"/>
-      <c r="T122" s="154"/>
-      <c r="U122" s="155" t="s">
+      <c r="S122" s="162"/>
+      <c r="T122" s="163"/>
+      <c r="U122" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="V122" s="156"/>
-      <c r="W122" s="157">
+      <c r="V122" s="137"/>
+      <c r="W122" s="164">
         <v>45026</v>
       </c>
-      <c r="X122" s="158"/>
+      <c r="X122" s="165"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A123" s="131"/>
-      <c r="B123" s="132"/>
-      <c r="C123" s="132"/>
-      <c r="D123" s="133"/>
-      <c r="E123" s="139"/>
-      <c r="F123" s="140"/>
-      <c r="G123" s="139"/>
-      <c r="H123" s="144"/>
-      <c r="I123" s="140"/>
-      <c r="J123" s="148"/>
-      <c r="K123" s="149"/>
-      <c r="L123" s="141"/>
-      <c r="M123" s="145"/>
-      <c r="N123" s="145"/>
-      <c r="O123" s="142"/>
-      <c r="P123" s="150" t="s">
+      <c r="A123" s="141"/>
+      <c r="B123" s="142"/>
+      <c r="C123" s="142"/>
+      <c r="D123" s="143"/>
+      <c r="E123" s="149"/>
+      <c r="F123" s="150"/>
+      <c r="G123" s="149"/>
+      <c r="H123" s="118"/>
+      <c r="I123" s="150"/>
+      <c r="J123" s="157"/>
+      <c r="K123" s="158"/>
+      <c r="L123" s="151"/>
+      <c r="M123" s="154"/>
+      <c r="N123" s="154"/>
+      <c r="O123" s="152"/>
+      <c r="P123" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="Q123" s="151"/>
-      <c r="R123" s="159"/>
-      <c r="S123" s="160"/>
-      <c r="T123" s="161"/>
-      <c r="U123" s="155" t="s">
+      <c r="Q123" s="160"/>
+      <c r="R123" s="133"/>
+      <c r="S123" s="134"/>
+      <c r="T123" s="135"/>
+      <c r="U123" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="V123" s="156"/>
-      <c r="W123" s="159"/>
-      <c r="X123" s="161"/>
+      <c r="V123" s="137"/>
+      <c r="W123" s="133"/>
+      <c r="X123" s="135"/>
     </row>
     <row r="124" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A124" s="134"/>
-      <c r="B124" s="135"/>
-      <c r="C124" s="135"/>
-      <c r="D124" s="136"/>
-      <c r="E124" s="141"/>
-      <c r="F124" s="142"/>
-      <c r="G124" s="141"/>
-      <c r="H124" s="145"/>
-      <c r="I124" s="142"/>
-      <c r="J124" s="150" t="s">
+      <c r="A124" s="144"/>
+      <c r="B124" s="145"/>
+      <c r="C124" s="145"/>
+      <c r="D124" s="146"/>
+      <c r="E124" s="151"/>
+      <c r="F124" s="152"/>
+      <c r="G124" s="151"/>
+      <c r="H124" s="154"/>
+      <c r="I124" s="152"/>
+      <c r="J124" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="K124" s="151"/>
-      <c r="L124" s="159" t="s">
+      <c r="K124" s="160"/>
+      <c r="L124" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="M124" s="160"/>
-      <c r="N124" s="160"/>
-      <c r="O124" s="161"/>
-      <c r="P124" s="155" t="s">
+      <c r="M124" s="134"/>
+      <c r="N124" s="134"/>
+      <c r="O124" s="135"/>
+      <c r="P124" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="Q124" s="156"/>
-      <c r="R124" s="159" t="s">
+      <c r="Q124" s="137"/>
+      <c r="R124" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="S124" s="160"/>
-      <c r="T124" s="160"/>
-      <c r="U124" s="160"/>
-      <c r="V124" s="160"/>
-      <c r="W124" s="160"/>
-      <c r="X124" s="161"/>
+      <c r="S124" s="134"/>
+      <c r="T124" s="134"/>
+      <c r="U124" s="134"/>
+      <c r="V124" s="134"/>
+      <c r="W124" s="134"/>
+      <c r="X124" s="135"/>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="61"/>
@@ -8756,33 +8765,33 @@
       <c r="E131" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F131" s="126" t="s">
+      <c r="F131" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G131" s="126"/>
-      <c r="H131" s="126"/>
-      <c r="I131" s="126" t="s">
+      <c r="G131" s="112"/>
+      <c r="H131" s="112"/>
+      <c r="I131" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="J131" s="126"/>
-      <c r="K131" s="126"/>
-      <c r="L131" s="126"/>
-      <c r="M131" s="126"/>
-      <c r="N131" s="126"/>
-      <c r="O131" s="126" t="s">
+      <c r="J131" s="112"/>
+      <c r="K131" s="112"/>
+      <c r="L131" s="112"/>
+      <c r="M131" s="112"/>
+      <c r="N131" s="112"/>
+      <c r="O131" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="P131" s="126"/>
-      <c r="Q131" s="126"/>
-      <c r="R131" s="126" t="s">
+      <c r="P131" s="112"/>
+      <c r="Q131" s="112"/>
+      <c r="R131" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="S131" s="126"/>
-      <c r="T131" s="126" t="s">
+      <c r="S131" s="112"/>
+      <c r="T131" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="U131" s="126"/>
-      <c r="V131" s="126"/>
+      <c r="U131" s="112"/>
+      <c r="V131" s="112"/>
     </row>
     <row r="132" spans="1:24">
       <c r="A132" s="61"/>
@@ -8792,31 +8801,31 @@
       <c r="E132" s="68">
         <v>1</v>
       </c>
-      <c r="F132" s="162" t="s">
+      <c r="F132" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="G132" s="162"/>
-      <c r="H132" s="162"/>
-      <c r="I132" s="162" t="s">
+      <c r="G132" s="111"/>
+      <c r="H132" s="111"/>
+      <c r="I132" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="J132" s="162"/>
-      <c r="K132" s="162"/>
-      <c r="L132" s="162"/>
-      <c r="M132" s="162"/>
-      <c r="N132" s="162"/>
-      <c r="O132" s="163" t="s">
+      <c r="J132" s="111"/>
+      <c r="K132" s="111"/>
+      <c r="L132" s="111"/>
+      <c r="M132" s="111"/>
+      <c r="N132" s="111"/>
+      <c r="O132" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="P132" s="163"/>
-      <c r="Q132" s="163"/>
-      <c r="R132" s="163" t="s">
+      <c r="P132" s="132"/>
+      <c r="Q132" s="132"/>
+      <c r="R132" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="S132" s="163"/>
-      <c r="T132" s="163"/>
-      <c r="U132" s="163"/>
-      <c r="V132" s="163"/>
+      <c r="S132" s="132"/>
+      <c r="T132" s="132"/>
+      <c r="U132" s="132"/>
+      <c r="V132" s="132"/>
     </row>
     <row r="133" spans="1:24">
       <c r="A133" s="61"/>
@@ -8826,31 +8835,31 @@
       <c r="E133" s="68">
         <v>2</v>
       </c>
-      <c r="F133" s="162" t="s">
+      <c r="F133" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="G133" s="162"/>
-      <c r="H133" s="162"/>
-      <c r="I133" s="162" t="s">
+      <c r="G133" s="111"/>
+      <c r="H133" s="111"/>
+      <c r="I133" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="J133" s="162"/>
-      <c r="K133" s="162"/>
-      <c r="L133" s="162"/>
-      <c r="M133" s="162"/>
-      <c r="N133" s="162"/>
-      <c r="O133" s="163" t="s">
+      <c r="J133" s="111"/>
+      <c r="K133" s="111"/>
+      <c r="L133" s="111"/>
+      <c r="M133" s="111"/>
+      <c r="N133" s="111"/>
+      <c r="O133" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="P133" s="163"/>
-      <c r="Q133" s="163"/>
-      <c r="R133" s="163" t="s">
+      <c r="P133" s="132"/>
+      <c r="Q133" s="132"/>
+      <c r="R133" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="S133" s="163"/>
-      <c r="T133" s="163"/>
-      <c r="U133" s="163"/>
-      <c r="V133" s="163"/>
+      <c r="S133" s="132"/>
+      <c r="T133" s="132"/>
+      <c r="U133" s="132"/>
+      <c r="V133" s="132"/>
       <c r="W133" s="62"/>
       <c r="X133" s="63"/>
     </row>
@@ -8898,33 +8907,33 @@
       <c r="E136" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F136" s="126" t="s">
+      <c r="F136" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G136" s="126"/>
-      <c r="H136" s="126"/>
-      <c r="I136" s="126" t="s">
+      <c r="G136" s="112"/>
+      <c r="H136" s="112"/>
+      <c r="I136" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="J136" s="126"/>
-      <c r="K136" s="126"/>
-      <c r="L136" s="126"/>
-      <c r="M136" s="126"/>
-      <c r="N136" s="126"/>
-      <c r="O136" s="126" t="s">
+      <c r="J136" s="112"/>
+      <c r="K136" s="112"/>
+      <c r="L136" s="112"/>
+      <c r="M136" s="112"/>
+      <c r="N136" s="112"/>
+      <c r="O136" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="P136" s="126"/>
-      <c r="Q136" s="126"/>
-      <c r="R136" s="126" t="s">
+      <c r="P136" s="112"/>
+      <c r="Q136" s="112"/>
+      <c r="R136" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="S136" s="126"/>
-      <c r="T136" s="126" t="s">
+      <c r="S136" s="112"/>
+      <c r="T136" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="U136" s="126"/>
-      <c r="V136" s="126"/>
+      <c r="U136" s="112"/>
+      <c r="V136" s="112"/>
       <c r="W136" s="62"/>
       <c r="X136" s="63"/>
     </row>
@@ -8936,29 +8945,29 @@
       <c r="E137" s="68">
         <v>1</v>
       </c>
-      <c r="F137" s="162" t="s">
+      <c r="F137" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="G137" s="162"/>
-      <c r="H137" s="162"/>
-      <c r="I137" s="162" t="s">
+      <c r="G137" s="111"/>
+      <c r="H137" s="111"/>
+      <c r="I137" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="J137" s="162"/>
-      <c r="K137" s="162"/>
-      <c r="L137" s="162"/>
-      <c r="M137" s="162"/>
-      <c r="N137" s="162"/>
-      <c r="O137" s="163"/>
-      <c r="P137" s="163"/>
-      <c r="Q137" s="163"/>
-      <c r="R137" s="163" t="s">
+      <c r="J137" s="111"/>
+      <c r="K137" s="111"/>
+      <c r="L137" s="111"/>
+      <c r="M137" s="111"/>
+      <c r="N137" s="111"/>
+      <c r="O137" s="132"/>
+      <c r="P137" s="132"/>
+      <c r="Q137" s="132"/>
+      <c r="R137" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="S137" s="163"/>
-      <c r="T137" s="163"/>
-      <c r="U137" s="163"/>
-      <c r="V137" s="163"/>
+      <c r="S137" s="132"/>
+      <c r="T137" s="132"/>
+      <c r="U137" s="132"/>
+      <c r="V137" s="132"/>
       <c r="W137" s="62"/>
       <c r="X137" s="63"/>
     </row>
@@ -8970,29 +8979,29 @@
       <c r="E138" s="68">
         <v>2</v>
       </c>
-      <c r="F138" s="162" t="s">
+      <c r="F138" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="G138" s="162"/>
-      <c r="H138" s="162"/>
-      <c r="I138" s="162" t="s">
+      <c r="G138" s="111"/>
+      <c r="H138" s="111"/>
+      <c r="I138" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="J138" s="162"/>
-      <c r="K138" s="162"/>
-      <c r="L138" s="162"/>
-      <c r="M138" s="162"/>
-      <c r="N138" s="162"/>
-      <c r="O138" s="163"/>
-      <c r="P138" s="163"/>
-      <c r="Q138" s="163"/>
-      <c r="R138" s="163" t="s">
+      <c r="J138" s="111"/>
+      <c r="K138" s="111"/>
+      <c r="L138" s="111"/>
+      <c r="M138" s="111"/>
+      <c r="N138" s="111"/>
+      <c r="O138" s="132"/>
+      <c r="P138" s="132"/>
+      <c r="Q138" s="132"/>
+      <c r="R138" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="S138" s="163"/>
-      <c r="T138" s="163"/>
-      <c r="U138" s="163"/>
-      <c r="V138" s="163"/>
+      <c r="S138" s="132"/>
+      <c r="T138" s="132"/>
+      <c r="U138" s="132"/>
+      <c r="V138" s="132"/>
       <c r="W138" s="62"/>
       <c r="X138" s="63"/>
     </row>
@@ -9004,29 +9013,29 @@
       <c r="E139" s="68">
         <v>3</v>
       </c>
-      <c r="F139" s="162" t="s">
+      <c r="F139" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="G139" s="162"/>
-      <c r="H139" s="162"/>
-      <c r="I139" s="162" t="s">
+      <c r="G139" s="111"/>
+      <c r="H139" s="111"/>
+      <c r="I139" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="J139" s="162"/>
-      <c r="K139" s="162"/>
-      <c r="L139" s="162"/>
-      <c r="M139" s="162"/>
-      <c r="N139" s="162"/>
-      <c r="O139" s="163"/>
-      <c r="P139" s="163"/>
-      <c r="Q139" s="163"/>
-      <c r="R139" s="163" t="s">
+      <c r="J139" s="111"/>
+      <c r="K139" s="111"/>
+      <c r="L139" s="111"/>
+      <c r="M139" s="111"/>
+      <c r="N139" s="111"/>
+      <c r="O139" s="132"/>
+      <c r="P139" s="132"/>
+      <c r="Q139" s="132"/>
+      <c r="R139" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="S139" s="163"/>
-      <c r="T139" s="163"/>
-      <c r="U139" s="163"/>
-      <c r="V139" s="163"/>
+      <c r="S139" s="132"/>
+      <c r="T139" s="132"/>
+      <c r="U139" s="132"/>
+      <c r="V139" s="132"/>
       <c r="W139" s="62"/>
       <c r="X139" s="63"/>
     </row>
@@ -9177,29 +9186,29 @@
       <c r="E146" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="F146" s="170" t="s">
+      <c r="F146" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="G146" s="170"/>
-      <c r="H146" s="170"/>
-      <c r="I146" s="171" t="s">
+      <c r="G146" s="110"/>
+      <c r="H146" s="110"/>
+      <c r="I146" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="J146" s="172"/>
-      <c r="K146" s="172"/>
-      <c r="L146" s="172"/>
-      <c r="M146" s="172"/>
-      <c r="N146" s="172"/>
-      <c r="O146" s="172"/>
-      <c r="P146" s="172"/>
-      <c r="Q146" s="173"/>
-      <c r="R146" s="171" t="s">
+      <c r="J146" s="129"/>
+      <c r="K146" s="129"/>
+      <c r="L146" s="129"/>
+      <c r="M146" s="129"/>
+      <c r="N146" s="129"/>
+      <c r="O146" s="129"/>
+      <c r="P146" s="129"/>
+      <c r="Q146" s="130"/>
+      <c r="R146" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="S146" s="172"/>
-      <c r="T146" s="172"/>
-      <c r="U146" s="172"/>
-      <c r="V146" s="174"/>
+      <c r="S146" s="129"/>
+      <c r="T146" s="129"/>
+      <c r="U146" s="129"/>
+      <c r="V146" s="131"/>
       <c r="W146" s="62"/>
       <c r="X146" s="63"/>
     </row>
@@ -9210,29 +9219,29 @@
       <c r="E147" s="68">
         <v>1</v>
       </c>
-      <c r="F147" s="162" t="s">
+      <c r="F147" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="G147" s="162"/>
-      <c r="H147" s="162"/>
-      <c r="I147" s="167" t="s">
+      <c r="G147" s="111"/>
+      <c r="H147" s="111"/>
+      <c r="I147" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="J147" s="168"/>
-      <c r="K147" s="168"/>
-      <c r="L147" s="168"/>
-      <c r="M147" s="168"/>
-      <c r="N147" s="168"/>
-      <c r="O147" s="168"/>
-      <c r="P147" s="168"/>
-      <c r="Q147" s="169"/>
-      <c r="R147" s="164" t="s">
-        <v>115</v>
-      </c>
-      <c r="S147" s="165"/>
-      <c r="T147" s="165"/>
-      <c r="U147" s="165"/>
-      <c r="V147" s="166"/>
+      <c r="J147" s="123"/>
+      <c r="K147" s="123"/>
+      <c r="L147" s="123"/>
+      <c r="M147" s="123"/>
+      <c r="N147" s="123"/>
+      <c r="O147" s="123"/>
+      <c r="P147" s="123"/>
+      <c r="Q147" s="124"/>
+      <c r="R147" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="S147" s="126"/>
+      <c r="T147" s="126"/>
+      <c r="U147" s="126"/>
+      <c r="V147" s="127"/>
       <c r="W147" s="62"/>
       <c r="X147" s="63"/>
     </row>
@@ -9243,29 +9252,29 @@
       <c r="E148" s="68">
         <v>2</v>
       </c>
-      <c r="F148" s="162" t="s">
+      <c r="F148" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="G148" s="162"/>
-      <c r="H148" s="162"/>
-      <c r="I148" s="167" t="s">
+      <c r="G148" s="111"/>
+      <c r="H148" s="111"/>
+      <c r="I148" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="J148" s="168"/>
-      <c r="K148" s="168"/>
-      <c r="L148" s="168"/>
-      <c r="M148" s="168"/>
-      <c r="N148" s="168"/>
-      <c r="O148" s="168"/>
-      <c r="P148" s="168"/>
-      <c r="Q148" s="169"/>
-      <c r="R148" s="164" t="s">
-        <v>116</v>
-      </c>
-      <c r="S148" s="165"/>
-      <c r="T148" s="165"/>
-      <c r="U148" s="165"/>
-      <c r="V148" s="166"/>
+      <c r="J148" s="123"/>
+      <c r="K148" s="123"/>
+      <c r="L148" s="123"/>
+      <c r="M148" s="123"/>
+      <c r="N148" s="123"/>
+      <c r="O148" s="123"/>
+      <c r="P148" s="123"/>
+      <c r="Q148" s="124"/>
+      <c r="R148" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="S148" s="126"/>
+      <c r="T148" s="126"/>
+      <c r="U148" s="126"/>
+      <c r="V148" s="127"/>
       <c r="W148" s="62"/>
       <c r="X148" s="63"/>
     </row>
@@ -9276,29 +9285,29 @@
       <c r="E149" s="68">
         <v>3</v>
       </c>
-      <c r="F149" s="162" t="s">
+      <c r="F149" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="G149" s="162"/>
-      <c r="H149" s="162"/>
-      <c r="I149" s="167" t="s">
-        <v>119</v>
-      </c>
-      <c r="J149" s="168"/>
-      <c r="K149" s="168"/>
-      <c r="L149" s="168"/>
-      <c r="M149" s="168"/>
-      <c r="N149" s="168"/>
-      <c r="O149" s="168"/>
-      <c r="P149" s="168"/>
-      <c r="Q149" s="169"/>
-      <c r="R149" s="164" t="s">
+      <c r="G149" s="111"/>
+      <c r="H149" s="111"/>
+      <c r="I149" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="S149" s="165"/>
-      <c r="T149" s="165"/>
-      <c r="U149" s="165"/>
-      <c r="V149" s="166"/>
+      <c r="J149" s="123"/>
+      <c r="K149" s="123"/>
+      <c r="L149" s="123"/>
+      <c r="M149" s="123"/>
+      <c r="N149" s="123"/>
+      <c r="O149" s="123"/>
+      <c r="P149" s="123"/>
+      <c r="Q149" s="124"/>
+      <c r="R149" s="125" t="s">
+        <v>115</v>
+      </c>
+      <c r="S149" s="126"/>
+      <c r="T149" s="126"/>
+      <c r="U149" s="126"/>
+      <c r="V149" s="127"/>
       <c r="W149" s="62"/>
       <c r="X149" s="63"/>
     </row>
@@ -9368,80 +9377,80 @@
     <row r="154" spans="1:24">
       <c r="A154" s="61"/>
       <c r="D154" s="62"/>
-      <c r="E154" s="181" t="s">
+      <c r="E154" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="F154" s="181"/>
-      <c r="G154" s="181"/>
-      <c r="H154" s="181" t="s">
+      <c r="F154" s="120"/>
+      <c r="G154" s="120"/>
+      <c r="H154" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="I154" s="181"/>
-      <c r="J154" s="181"/>
-      <c r="K154" s="181"/>
-      <c r="L154" s="181"/>
-      <c r="M154" s="181"/>
-      <c r="N154" s="181"/>
-      <c r="O154" s="181"/>
-      <c r="P154" s="181"/>
-      <c r="Q154" s="181"/>
-      <c r="R154" s="181"/>
-      <c r="S154" s="181"/>
-      <c r="T154" s="181"/>
-      <c r="U154" s="181"/>
-      <c r="V154" s="181"/>
+      <c r="I154" s="120"/>
+      <c r="J154" s="120"/>
+      <c r="K154" s="120"/>
+      <c r="L154" s="120"/>
+      <c r="M154" s="120"/>
+      <c r="N154" s="120"/>
+      <c r="O154" s="120"/>
+      <c r="P154" s="120"/>
+      <c r="Q154" s="120"/>
+      <c r="R154" s="120"/>
+      <c r="S154" s="120"/>
+      <c r="T154" s="120"/>
+      <c r="U154" s="120"/>
+      <c r="V154" s="120"/>
       <c r="W154" s="62"/>
       <c r="X154" s="63"/>
     </row>
     <row r="155" spans="1:24">
       <c r="A155" s="61"/>
-      <c r="E155" s="176" t="s">
+      <c r="E155" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="F155" s="177"/>
-      <c r="G155" s="178"/>
-      <c r="H155" s="182" t="s">
+      <c r="F155" s="115"/>
+      <c r="G155" s="116"/>
+      <c r="H155" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="I155" s="182"/>
-      <c r="J155" s="182"/>
-      <c r="K155" s="182"/>
-      <c r="L155" s="182"/>
-      <c r="M155" s="182"/>
-      <c r="N155" s="182"/>
-      <c r="O155" s="182"/>
-      <c r="P155" s="182"/>
-      <c r="Q155" s="182"/>
-      <c r="R155" s="182"/>
-      <c r="S155" s="182"/>
-      <c r="T155" s="182"/>
-      <c r="U155" s="182"/>
-      <c r="V155" s="182"/>
+      <c r="I155" s="121"/>
+      <c r="J155" s="121"/>
+      <c r="K155" s="121"/>
+      <c r="L155" s="121"/>
+      <c r="M155" s="121"/>
+      <c r="N155" s="121"/>
+      <c r="O155" s="121"/>
+      <c r="P155" s="121"/>
+      <c r="Q155" s="121"/>
+      <c r="R155" s="121"/>
+      <c r="S155" s="121"/>
+      <c r="T155" s="121"/>
+      <c r="U155" s="121"/>
+      <c r="V155" s="121"/>
       <c r="W155" s="62"/>
       <c r="X155" s="63"/>
     </row>
     <row r="156" spans="1:24">
       <c r="A156" s="61"/>
-      <c r="E156" s="179"/>
-      <c r="F156" s="144"/>
-      <c r="G156" s="180"/>
-      <c r="H156" s="175" t="s">
+      <c r="E156" s="117"/>
+      <c r="F156" s="118"/>
+      <c r="G156" s="119"/>
+      <c r="H156" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="I156" s="175"/>
-      <c r="J156" s="175"/>
-      <c r="K156" s="175"/>
-      <c r="L156" s="175"/>
-      <c r="M156" s="175"/>
-      <c r="N156" s="175"/>
-      <c r="O156" s="175"/>
-      <c r="P156" s="175"/>
-      <c r="Q156" s="175"/>
-      <c r="R156" s="175"/>
-      <c r="S156" s="175"/>
-      <c r="T156" s="175"/>
-      <c r="U156" s="175"/>
-      <c r="V156" s="175"/>
+      <c r="I156" s="113"/>
+      <c r="J156" s="113"/>
+      <c r="K156" s="113"/>
+      <c r="L156" s="113"/>
+      <c r="M156" s="113"/>
+      <c r="N156" s="113"/>
+      <c r="O156" s="113"/>
+      <c r="P156" s="113"/>
+      <c r="Q156" s="113"/>
+      <c r="R156" s="113"/>
+      <c r="S156" s="113"/>
+      <c r="T156" s="113"/>
+      <c r="U156" s="113"/>
+      <c r="V156" s="113"/>
       <c r="W156" s="62"/>
       <c r="X156" s="63"/>
     </row>
@@ -9537,7 +9546,7 @@
       <c r="A161" s="61"/>
       <c r="E161" s="69"/>
       <c r="F161" s="67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G161" s="65"/>
       <c r="H161" s="65"/>
@@ -9560,82 +9569,82 @@
       <c r="X162" s="62"/>
     </row>
     <row r="163" spans="1:24">
-      <c r="E163" s="126" t="s">
+      <c r="E163" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="F163" s="126"/>
-      <c r="G163" s="126" t="s">
+      <c r="F163" s="112"/>
+      <c r="G163" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="H163" s="126"/>
-      <c r="I163" s="126"/>
-      <c r="J163" s="126"/>
-      <c r="K163" s="126"/>
-      <c r="L163" s="126"/>
-      <c r="M163" s="126"/>
-      <c r="N163" s="126"/>
-      <c r="O163" s="126"/>
-      <c r="P163" s="126"/>
-      <c r="Q163" s="126" t="s">
+      <c r="H163" s="112"/>
+      <c r="I163" s="112"/>
+      <c r="J163" s="112"/>
+      <c r="K163" s="112"/>
+      <c r="L163" s="112"/>
+      <c r="M163" s="112"/>
+      <c r="N163" s="112"/>
+      <c r="O163" s="112"/>
+      <c r="P163" s="112"/>
+      <c r="Q163" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="R163" s="126"/>
-      <c r="S163" s="126"/>
-      <c r="T163" s="126"/>
-      <c r="U163" s="126"/>
-      <c r="V163" s="126"/>
+      <c r="R163" s="112"/>
+      <c r="S163" s="112"/>
+      <c r="T163" s="112"/>
+      <c r="U163" s="112"/>
+      <c r="V163" s="112"/>
     </row>
     <row r="164" spans="1:24">
-      <c r="E164" s="170" t="s">
+      <c r="E164" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="F164" s="170"/>
-      <c r="G164" s="162" t="s">
+      <c r="F164" s="110"/>
+      <c r="G164" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="H164" s="162"/>
-      <c r="I164" s="162"/>
-      <c r="J164" s="162"/>
-      <c r="K164" s="162"/>
-      <c r="L164" s="162"/>
-      <c r="M164" s="162"/>
-      <c r="N164" s="162"/>
-      <c r="O164" s="162"/>
-      <c r="P164" s="162"/>
-      <c r="Q164" s="162" t="s">
+      <c r="H164" s="111"/>
+      <c r="I164" s="111"/>
+      <c r="J164" s="111"/>
+      <c r="K164" s="111"/>
+      <c r="L164" s="111"/>
+      <c r="M164" s="111"/>
+      <c r="N164" s="111"/>
+      <c r="O164" s="111"/>
+      <c r="P164" s="111"/>
+      <c r="Q164" s="183" t="s">
         <v>110</v>
       </c>
-      <c r="R164" s="162"/>
-      <c r="S164" s="162"/>
-      <c r="T164" s="162"/>
-      <c r="U164" s="162"/>
-      <c r="V164" s="162"/>
+      <c r="R164" s="183"/>
+      <c r="S164" s="183"/>
+      <c r="T164" s="183"/>
+      <c r="U164" s="183"/>
+      <c r="V164" s="183"/>
     </row>
     <row r="165" spans="1:24">
-      <c r="E165" s="170" t="s">
+      <c r="E165" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F165" s="170"/>
-      <c r="G165" s="162" t="s">
+      <c r="F165" s="110"/>
+      <c r="G165" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="H165" s="162"/>
-      <c r="I165" s="162"/>
-      <c r="J165" s="162"/>
-      <c r="K165" s="162"/>
-      <c r="L165" s="162"/>
-      <c r="M165" s="162"/>
-      <c r="N165" s="162"/>
-      <c r="O165" s="162"/>
-      <c r="P165" s="162"/>
-      <c r="Q165" s="162" t="s">
-        <v>111</v>
-      </c>
-      <c r="R165" s="162"/>
-      <c r="S165" s="162"/>
-      <c r="T165" s="162"/>
-      <c r="U165" s="162"/>
-      <c r="V165" s="162"/>
+      <c r="H165" s="111"/>
+      <c r="I165" s="111"/>
+      <c r="J165" s="111"/>
+      <c r="K165" s="111"/>
+      <c r="L165" s="111"/>
+      <c r="M165" s="111"/>
+      <c r="N165" s="111"/>
+      <c r="O165" s="111"/>
+      <c r="P165" s="111"/>
+      <c r="Q165" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="R165" s="111"/>
+      <c r="S165" s="111"/>
+      <c r="T165" s="111"/>
+      <c r="U165" s="111"/>
+      <c r="V165" s="111"/>
     </row>
     <row r="168" spans="1:24">
       <c r="C168" s="66" t="s">
@@ -9666,7 +9675,7 @@
     <row r="169" spans="1:24">
       <c r="C169" s="64"/>
       <c r="D169" s="70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E169" s="65"/>
       <c r="F169" s="65"/>
@@ -9718,7 +9727,7 @@
     <row r="171" spans="1:24">
       <c r="C171" s="64"/>
       <c r="D171" s="70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E171" s="65"/>
       <c r="F171" s="65"/>
@@ -9744,7 +9753,7 @@
     <row r="172" spans="1:24">
       <c r="C172" s="64"/>
       <c r="D172" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E172" s="65"/>
       <c r="F172" s="65"/>
@@ -9769,84 +9778,84 @@
     </row>
   </sheetData>
   <mergeCells count="176">
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="G165:P165"/>
-    <mergeCell ref="Q165:V165"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:P163"/>
-    <mergeCell ref="Q163:V163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:P164"/>
-    <mergeCell ref="Q164:V164"/>
-    <mergeCell ref="H156:V156"/>
-    <mergeCell ref="E155:G156"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="H154:V154"/>
-    <mergeCell ref="H155:V155"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="I149:Q149"/>
-    <mergeCell ref="R149:V149"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="I148:Q148"/>
-    <mergeCell ref="R148:V148"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="R147:V147"/>
-    <mergeCell ref="I147:Q147"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="I146:Q146"/>
-    <mergeCell ref="R146:V146"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="I139:N139"/>
-    <mergeCell ref="O139:Q139"/>
-    <mergeCell ref="R139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="I138:N138"/>
-    <mergeCell ref="O138:Q138"/>
-    <mergeCell ref="R138:S138"/>
-    <mergeCell ref="T138:V138"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="I137:N137"/>
-    <mergeCell ref="O137:Q137"/>
-    <mergeCell ref="R137:S137"/>
-    <mergeCell ref="T137:V137"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="I136:N136"/>
-    <mergeCell ref="O136:Q136"/>
-    <mergeCell ref="R136:S136"/>
-    <mergeCell ref="T136:V136"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="I133:N133"/>
-    <mergeCell ref="O133:Q133"/>
-    <mergeCell ref="R133:S133"/>
-    <mergeCell ref="T133:V133"/>
-    <mergeCell ref="O131:Q131"/>
-    <mergeCell ref="T131:V131"/>
-    <mergeCell ref="I132:N132"/>
-    <mergeCell ref="O132:Q132"/>
-    <mergeCell ref="T132:V132"/>
-    <mergeCell ref="R132:S132"/>
-    <mergeCell ref="I131:N131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="R124:X124"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="R131:S131"/>
-    <mergeCell ref="A122:D124"/>
-    <mergeCell ref="E122:F124"/>
-    <mergeCell ref="G122:I124"/>
-    <mergeCell ref="J122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="U122:V122"/>
-    <mergeCell ref="W122:X122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="R123:T123"/>
-    <mergeCell ref="U123:V123"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:X43"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A41:D43"/>
+    <mergeCell ref="E41:F43"/>
+    <mergeCell ref="G41:I43"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="L41:O42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:U57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="L58:U58"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:U56"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
     <mergeCell ref="W81:X81"/>
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="R82:T82"/>
@@ -9867,84 +9876,84 @@
     <mergeCell ref="L83:O83"/>
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="R83:X83"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:U57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="L58:U58"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:U56"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A41:D43"/>
-    <mergeCell ref="E41:F43"/>
-    <mergeCell ref="G41:I43"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="L41:O42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:X43"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="A122:D124"/>
+    <mergeCell ref="E122:F124"/>
+    <mergeCell ref="G122:I124"/>
+    <mergeCell ref="J122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="R123:T123"/>
+    <mergeCell ref="U123:V123"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="O131:Q131"/>
+    <mergeCell ref="T131:V131"/>
+    <mergeCell ref="I132:N132"/>
+    <mergeCell ref="O132:Q132"/>
+    <mergeCell ref="T132:V132"/>
+    <mergeCell ref="R132:S132"/>
+    <mergeCell ref="I131:N131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="R124:X124"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="I136:N136"/>
+    <mergeCell ref="O136:Q136"/>
+    <mergeCell ref="R136:S136"/>
+    <mergeCell ref="T136:V136"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="I133:N133"/>
+    <mergeCell ref="O133:Q133"/>
+    <mergeCell ref="R133:S133"/>
+    <mergeCell ref="T133:V133"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="I138:N138"/>
+    <mergeCell ref="O138:Q138"/>
+    <mergeCell ref="R138:S138"/>
+    <mergeCell ref="T138:V138"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="I137:N137"/>
+    <mergeCell ref="O137:Q137"/>
+    <mergeCell ref="R137:S137"/>
+    <mergeCell ref="T137:V137"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="R147:V147"/>
+    <mergeCell ref="I147:Q147"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="I146:Q146"/>
+    <mergeCell ref="R146:V146"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="I139:N139"/>
+    <mergeCell ref="O139:Q139"/>
+    <mergeCell ref="R139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="H156:V156"/>
+    <mergeCell ref="E155:G156"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="H154:V154"/>
+    <mergeCell ref="H155:V155"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="I149:Q149"/>
+    <mergeCell ref="R149:V149"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="I148:Q148"/>
+    <mergeCell ref="R148:V148"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="G165:P165"/>
+    <mergeCell ref="Q165:V165"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:P163"/>
+    <mergeCell ref="Q163:V163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="G164:P164"/>
+    <mergeCell ref="Q164:V164"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="26" orientation="portrait" r:id="rId1"/>

--- a/BAOCAO/Tailieuthietke/FormLogin(KH).xlsx
+++ b/BAOCAO/Tailieuthietke/FormLogin(KH).xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.a_LearningOnline\A.MonTT\ĐBCLPM\Thầy trụ\Thiết kế các layout cơ bản\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HDT\MTT\BAOCAO\Tailieuthietke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7081CB-7DC1-4251-A79F-D9EA7BB12AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
     <sheet name="Thiết kế" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -373,12 +372,6 @@
     <t>Truy xuất</t>
   </si>
   <si>
-    <t>a. Truy vấn Firebase Authentication qua đối tượng của lớp FirebaseAuth</t>
-  </si>
-  <si>
-    <t>Câu truy vấn: FirebaseAuth.signInWithEmailAndPassword(email, password)</t>
-  </si>
-  <si>
     <t>- Nếu thành công: lưu user và chuyển vào màn hình chính</t>
   </si>
   <si>
@@ -428,12 +421,18 @@
   </si>
   <si>
     <t>Trường hợp nhập mật khẩu nhập nhiều hơn 20 ký tự, báo lỗi</t>
+  </si>
+  <si>
+    <t>a. Truy vấn Authentication qua phương thức của SpringSecurity</t>
+  </si>
+  <si>
+    <t>authenticationManager.authenticate(new UsernamePasswordAuthenticationToken(user.getMatk(), user.getPassword()));</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -1056,128 +1055,314 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,9 +1370,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1195,198 +1377,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{60B003D3-377D-42A0-88D3-DD3D38212E30}"/>
-    <cellStyle name="標準_AP生産依頼 回答リスト画面" xfId="2" xr:uid="{8ACA6C45-8DC7-460E-BE07-C990FB25318D}"/>
-    <cellStyle name="標準_基本要件仕様書_20061109" xfId="4" xr:uid="{E7514DEA-73AB-4A00-AE7C-1E94224C7F09}"/>
-    <cellStyle name="標準_基本設計書(FWIH105)" xfId="3" xr:uid="{54CC864B-CE12-4FEA-8F53-50599147D6D5}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="標準_AP生産依頼 回答リスト画面" xfId="2"/>
+    <cellStyle name="標準_基本要件仕様書_20061109" xfId="4"/>
+    <cellStyle name="標準_基本設計書(FWIH105)" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1428,7 +1427,7 @@
         <xdr:cNvPr id="19" name="Group 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8D111E-1E6C-5A85-C78B-C6E433094379}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE8D111E-1E6C-5A85-C78B-C6E433094379}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1446,7 @@
           <xdr:cNvPr id="15" name="Group 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1007BBB5-45F2-E08E-3ABD-EEBBD9DA721A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1007BBB5-45F2-E08E-3ABD-EEBBD9DA721A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1466,7 +1465,7 @@
             <xdr:cNvPr id="6" name="AutoShape 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD266945-3109-4179-943B-7A5A2E15237F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD266945-3109-4179-943B-7A5A2E15237F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1515,7 +1514,7 @@
             <xdr:cNvPr id="7" name="AutoShape 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCA2DCA-75EB-4D38-9747-CB04892CF2CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DCA2DCA-75EB-4D38-9747-CB04892CF2CE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1565,7 +1564,7 @@
             <xdr:cNvPr id="8" name="Rectangle 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405A73AC-ABBF-41AB-82B8-A9845140D7C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{405A73AC-ABBF-41AB-82B8-A9845140D7C8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1617,7 +1616,7 @@
             <xdr:cNvPr id="9" name="Rectangle 4459">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A4581F-F55B-47A1-8CFD-8CA1FCD957C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02A4581F-F55B-47A1-8CFD-8CA1FCD957C5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1678,7 +1677,7 @@
             <xdr:cNvPr id="10" name="Text Box 4320">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2738FA-1F16-4BAC-9BB8-A83DD813B56D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE2738FA-1F16-4BAC-9BB8-A83DD813B56D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1773,7 +1772,7 @@
             <xdr:cNvPr id="11" name="Line 4328">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F129E75-8AC4-4616-8E91-485948CF3558}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F129E75-8AC4-4616-8E91-485948CF3558}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1822,7 +1821,7 @@
             <xdr:cNvPr id="12" name="Line 4328">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28363902-61EE-408E-BD4B-1F74842286A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28363902-61EE-408E-BD4B-1F74842286A3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1871,7 +1870,7 @@
             <xdr:cNvPr id="13" name="Text Box 4324">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F10527-EFA5-43B7-BF8B-8F8FB7DB6ABB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97F10527-EFA5-43B7-BF8B-8F8FB7DB6ABB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1951,7 +1950,7 @@
           <xdr:cNvPr id="17" name="Graphic 16" descr="Monitor">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{908FA18A-2CCA-6026-B9B3-74207EAE3E2A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{908FA18A-2CCA-6026-B9B3-74207EAE3E2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1960,13 +1959,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1989,7 +1988,7 @@
           <xdr:cNvPr id="18" name="Graphic 17" descr="Monitor">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7002ED-AAA4-4B85-9BDB-FE7EF0DBD7E3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E7002ED-AAA4-4B85-9BDB-FE7EF0DBD7E3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1998,13 +1997,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2048,7 +2047,7 @@
         <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3425CC4-0BA7-E503-69E5-CBA05DD89E9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3425CC4-0BA7-E503-69E5-CBA05DD89E9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2066,7 @@
           <xdr:cNvPr id="19" name="Group 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC83B827-DB56-12B3-FBCC-F358B4183CDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC83B827-DB56-12B3-FBCC-F358B4183CDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2086,7 +2085,7 @@
             <xdr:cNvPr id="21" name="Group 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B25EC4-CDF5-D726-C1C5-4D9CA5837629}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51B25EC4-CDF5-D726-C1C5-4D9CA5837629}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2105,7 +2104,7 @@
               <xdr:cNvPr id="23" name="Group 22">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E0D38C1-0C19-AD07-6046-E9AE8B189AC3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E0D38C1-0C19-AD07-6046-E9AE8B189AC3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2124,7 +2123,7 @@
                 <xdr:cNvPr id="26" name="Rectangle 25">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BA1E45-4C3D-437B-9C00-131184FF0F52}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87BA1E45-4C3D-437B-9C00-131184FF0F52}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2168,7 +2167,7 @@
                 <xdr:cNvPr id="27" name="Rectangle 26">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFA0457-0A6A-CF81-4F3B-E12552258A9A}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCFA0457-0A6A-CF81-4F3B-E12552258A9A}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2223,7 +2222,7 @@
                 <xdr:cNvPr id="28" name="Rectangle 27">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D82906-221C-B8F5-64C3-F150F99B421F}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7D82906-221C-B8F5-64C3-F150F99B421F}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2278,7 +2277,7 @@
                 <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 28">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2F16C8-DE23-A0B4-9EEE-F731B262D67D}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C2F16C8-DE23-A0B4-9EEE-F731B262D67D}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2347,7 +2346,7 @@
                 <xdr:cNvPr id="30" name="Rectangle 29">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401F5BCB-F809-C386-C0D6-68A8086CC4ED}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{401F5BCB-F809-C386-C0D6-68A8086CC4ED}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2402,7 +2401,7 @@
                 <xdr:cNvPr id="31" name="Rectangle: Rounded Corners 30">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4252C7BD-6980-A4D5-E600-879B408BE339}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4252C7BD-6980-A4D5-E600-879B408BE339}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2471,7 +2470,7 @@
                 <xdr:cNvPr id="32" name="Rectangle: Rounded Corners 31">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFBE2E71-3B32-A2EB-E36A-0007C26840F4}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFBE2E71-3B32-A2EB-E36A-0007C26840F4}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2533,7 +2532,7 @@
                 <xdr:cNvPr id="33" name="Rectangle 32">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62DDE73-F54C-F5DB-F78A-0757523D7129}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F62DDE73-F54C-F5DB-F78A-0757523D7129}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2600,7 +2599,7 @@
                 <xdr:cNvPr id="34" name="Rectangle: Rounded Corners 33">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6543E89F-4D8D-BE04-DE07-E229924E8756}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6543E89F-4D8D-BE04-DE07-E229924E8756}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2662,7 +2661,7 @@
                 <xdr:cNvPr id="35" name="Rectangle 34">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C327D3A6-ED62-DB94-0F4D-E86E42BB2005}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C327D3A6-ED62-DB94-0F4D-E86E42BB2005}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2717,7 +2716,7 @@
               <xdr:cNvPr id="24" name="Picture 23">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED06692-B2BB-5742-921B-1451D03B0C8D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1ED06692-B2BB-5742-921B-1451D03B0C8D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2746,7 +2745,7 @@
               <xdr:cNvPr id="25" name="Rectangle 24">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972CBF0D-581D-47A6-E37B-0F5402AAD29D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{972CBF0D-581D-47A6-E37B-0F5402AAD29D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2800,7 +2799,7 @@
             <xdr:cNvPr id="22" name="Rectangle 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6C5EFF-DEDD-265A-89C0-AEB6F548B681}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB6C5EFF-DEDD-265A-89C0-AEB6F548B681}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2845,7 +2844,7 @@
           <xdr:cNvPr id="20" name="Graphic 19" descr="Eye">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF219C1-3348-1972-B870-D5DB8D546231}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CF219C1-3348-1972-B870-D5DB8D546231}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2860,7 +2859,7 @@
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId3"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3146,7 +3145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y244"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="25" workbookViewId="0">
@@ -3163,348 +3162,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="76" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="75" t="s">
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76" t="s">
+      <c r="K1" s="94"/>
+      <c r="L1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="75" t="s">
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="76" t="s">
+      <c r="Q1" s="94"/>
+      <c r="R1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="78" t="s">
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="78"/>
-      <c r="W1" s="79">
+      <c r="V1" s="95"/>
+      <c r="W1" s="106">
         <v>45026</v>
       </c>
-      <c r="X1" s="77"/>
+      <c r="X1" s="100"/>
     </row>
     <row r="2" spans="1:24" ht="15" thickBot="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="75" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="78" t="s">
+      <c r="Q2" s="94"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="78"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="75" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="77" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78" t="s">
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="77" t="s">
+      <c r="Q3" s="95"/>
+      <c r="R3" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="91"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="102"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="92"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="91"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="102"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="92"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="91"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="102"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="92"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="91"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="102"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="92"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="91"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="102"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="92"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="91"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="102"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="92"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="91"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="102"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="92"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="91"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="102"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="92"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="91"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="102"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="12"/>
@@ -3513,21 +3512,21 @@
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
@@ -3541,19 +3540,19 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
@@ -3567,19 +3566,19 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
@@ -3593,19 +3592,19 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
@@ -3619,19 +3618,19 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
@@ -4035,112 +4034,112 @@
       <c r="X39" s="20"/>
     </row>
     <row r="40" spans="1:24" ht="15" thickBot="1">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="76" t="s">
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76" t="s">
+      <c r="F40" s="78"/>
+      <c r="G40" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="84" t="s">
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="84"/>
-      <c r="L40" s="76" t="s">
+      <c r="K40" s="107"/>
+      <c r="L40" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="84" t="s">
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="76" t="s">
+      <c r="Q40" s="107"/>
+      <c r="R40" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S40" s="76"/>
-      <c r="T40" s="76"/>
-      <c r="U40" s="88" t="s">
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="V40" s="88"/>
-      <c r="W40" s="79">
+      <c r="V40" s="108"/>
+      <c r="W40" s="106">
         <v>45026</v>
       </c>
-      <c r="X40" s="77"/>
+      <c r="X40" s="100"/>
     </row>
     <row r="41" spans="1:24" ht="15" thickBot="1">
-      <c r="A41" s="87"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="84" t="s">
+      <c r="A41" s="93"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="77"/>
-      <c r="S41" s="77"/>
-      <c r="T41" s="77"/>
-      <c r="U41" s="88" t="s">
+      <c r="Q41" s="107"/>
+      <c r="R41" s="100"/>
+      <c r="S41" s="100"/>
+      <c r="T41" s="100"/>
+      <c r="U41" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="V41" s="88"/>
-      <c r="W41" s="77"/>
-      <c r="X41" s="77"/>
+      <c r="V41" s="108"/>
+      <c r="W41" s="100"/>
+      <c r="X41" s="100"/>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="84" t="s">
+      <c r="A42" s="93"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="84"/>
-      <c r="L42" s="77" t="s">
+      <c r="K42" s="107"/>
+      <c r="L42" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="88" t="s">
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="77" t="s">
+      <c r="Q42" s="108"/>
+      <c r="R42" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="S42" s="77"/>
-      <c r="T42" s="77"/>
-      <c r="U42" s="77"/>
-      <c r="V42" s="77"/>
-      <c r="W42" s="77"/>
-      <c r="X42" s="77"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
+      <c r="V42" s="100"/>
+      <c r="W42" s="100"/>
+      <c r="X42" s="100"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="21"/>
@@ -4182,830 +4181,830 @@
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1">
       <c r="A47" s="16"/>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83" t="s">
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83" t="s">
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="98"/>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="99"/>
-      <c r="S47" s="100"/>
-      <c r="T47" s="101"/>
-      <c r="U47" s="101"/>
-      <c r="V47" s="102"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="84"/>
+      <c r="S47" s="85"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="87"/>
       <c r="W47" s="13"/>
       <c r="X47" s="17"/>
     </row>
     <row r="48" spans="1:24" ht="15" thickBot="1">
       <c r="A48" s="16"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="84" t="s">
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84" t="s">
+      <c r="P48" s="107"/>
+      <c r="Q48" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="84"/>
-      <c r="S48" s="84" t="s">
+      <c r="R48" s="107"/>
+      <c r="S48" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="T48" s="84"/>
-      <c r="U48" s="84" t="s">
+      <c r="T48" s="107"/>
+      <c r="U48" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="V48" s="84"/>
+      <c r="V48" s="107"/>
       <c r="W48" s="13"/>
       <c r="X48" s="17"/>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="16"/>
-      <c r="B49" s="85">
+      <c r="B49" s="96">
         <v>1</v>
       </c>
-      <c r="C49" s="86">
+      <c r="C49" s="109">
         <v>45026</v>
       </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85" t="s">
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85" t="s">
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
-      <c r="Q49" s="85"/>
-      <c r="R49" s="85"/>
-      <c r="S49" s="85"/>
-      <c r="T49" s="85"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="85"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="96"/>
+      <c r="S49" s="96"/>
+      <c r="T49" s="96"/>
+      <c r="U49" s="96"/>
+      <c r="V49" s="96"/>
       <c r="X49" s="17"/>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="16"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-      <c r="Q50" s="85"/>
-      <c r="R50" s="85"/>
-      <c r="S50" s="85"/>
-      <c r="T50" s="85"/>
-      <c r="U50" s="85"/>
-      <c r="V50" s="85"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="96"/>
+      <c r="O50" s="96"/>
+      <c r="P50" s="96"/>
+      <c r="Q50" s="96"/>
+      <c r="R50" s="96"/>
+      <c r="S50" s="96"/>
+      <c r="T50" s="96"/>
+      <c r="U50" s="96"/>
+      <c r="V50" s="96"/>
       <c r="X50" s="17"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="16"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-      <c r="Q51" s="85"/>
-      <c r="R51" s="85"/>
-      <c r="S51" s="85"/>
-      <c r="T51" s="85"/>
-      <c r="U51" s="85"/>
-      <c r="V51" s="85"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="96"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="96"/>
+      <c r="O51" s="96"/>
+      <c r="P51" s="96"/>
+      <c r="Q51" s="96"/>
+      <c r="R51" s="96"/>
+      <c r="S51" s="96"/>
+      <c r="T51" s="96"/>
+      <c r="U51" s="96"/>
+      <c r="V51" s="96"/>
       <c r="X51" s="17"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="16"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-      <c r="Q52" s="85"/>
-      <c r="R52" s="85"/>
-      <c r="S52" s="85"/>
-      <c r="T52" s="85"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="96"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="96"/>
+      <c r="U52" s="96"/>
+      <c r="V52" s="96"/>
       <c r="X52" s="17"/>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="16"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-      <c r="Q53" s="85"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="96"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="96"/>
+      <c r="O53" s="96"/>
+      <c r="P53" s="96"/>
+      <c r="Q53" s="96"/>
+      <c r="R53" s="96"/>
+      <c r="S53" s="96"/>
+      <c r="T53" s="96"/>
+      <c r="U53" s="96"/>
+      <c r="V53" s="96"/>
       <c r="X53" s="17"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="16"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="85"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="85"/>
-      <c r="R54" s="85"/>
-      <c r="S54" s="85"/>
-      <c r="T54" s="85"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="96"/>
+      <c r="P54" s="96"/>
+      <c r="Q54" s="96"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="96"/>
+      <c r="T54" s="96"/>
+      <c r="U54" s="96"/>
+      <c r="V54" s="96"/>
       <c r="X54" s="17"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="16"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
-      <c r="Q55" s="85"/>
-      <c r="R55" s="85"/>
-      <c r="S55" s="85"/>
-      <c r="T55" s="85"/>
-      <c r="U55" s="85"/>
-      <c r="V55" s="85"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="96"/>
+      <c r="O55" s="96"/>
+      <c r="P55" s="96"/>
+      <c r="Q55" s="96"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="96"/>
+      <c r="T55" s="96"/>
+      <c r="U55" s="96"/>
+      <c r="V55" s="96"/>
       <c r="X55" s="17"/>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="16"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
-      <c r="Q56" s="85"/>
-      <c r="R56" s="85"/>
-      <c r="S56" s="85"/>
-      <c r="T56" s="85"/>
-      <c r="U56" s="85"/>
-      <c r="V56" s="85"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="96"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="96"/>
+      <c r="Q56" s="96"/>
+      <c r="R56" s="96"/>
+      <c r="S56" s="96"/>
+      <c r="T56" s="96"/>
+      <c r="U56" s="96"/>
+      <c r="V56" s="96"/>
       <c r="X56" s="17"/>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="16"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
-      <c r="Q57" s="85"/>
-      <c r="R57" s="85"/>
-      <c r="S57" s="85"/>
-      <c r="T57" s="85"/>
-      <c r="U57" s="85"/>
-      <c r="V57" s="85"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="96"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="96"/>
+      <c r="U57" s="96"/>
+      <c r="V57" s="96"/>
       <c r="X57" s="17"/>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="16"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
-      <c r="Q58" s="85"/>
-      <c r="R58" s="85"/>
-      <c r="S58" s="85"/>
-      <c r="T58" s="85"/>
-      <c r="U58" s="85"/>
-      <c r="V58" s="85"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="96"/>
+      <c r="R58" s="96"/>
+      <c r="S58" s="96"/>
+      <c r="T58" s="96"/>
+      <c r="U58" s="96"/>
+      <c r="V58" s="96"/>
       <c r="X58" s="17"/>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="16"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
-      <c r="Q59" s="85"/>
-      <c r="R59" s="85"/>
-      <c r="S59" s="85"/>
-      <c r="T59" s="85"/>
-      <c r="U59" s="85"/>
-      <c r="V59" s="85"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="96"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="96"/>
+      <c r="R59" s="96"/>
+      <c r="S59" s="96"/>
+      <c r="T59" s="96"/>
+      <c r="U59" s="96"/>
+      <c r="V59" s="96"/>
       <c r="X59" s="17"/>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="16"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
-      <c r="P60" s="85"/>
-      <c r="Q60" s="85"/>
-      <c r="R60" s="85"/>
-      <c r="S60" s="85"/>
-      <c r="T60" s="85"/>
-      <c r="U60" s="85"/>
-      <c r="V60" s="85"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="96"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="96"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="96"/>
+      <c r="O60" s="96"/>
+      <c r="P60" s="96"/>
+      <c r="Q60" s="96"/>
+      <c r="R60" s="96"/>
+      <c r="S60" s="96"/>
+      <c r="T60" s="96"/>
+      <c r="U60" s="96"/>
+      <c r="V60" s="96"/>
       <c r="X60" s="17"/>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="16"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="85"/>
-      <c r="Q61" s="85"/>
-      <c r="R61" s="85"/>
-      <c r="S61" s="85"/>
-      <c r="T61" s="85"/>
-      <c r="U61" s="85"/>
-      <c r="V61" s="85"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="96"/>
+      <c r="R61" s="96"/>
+      <c r="S61" s="96"/>
+      <c r="T61" s="96"/>
+      <c r="U61" s="96"/>
+      <c r="V61" s="96"/>
       <c r="X61" s="17"/>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="16"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85"/>
-      <c r="K62" s="85"/>
-      <c r="L62" s="85"/>
-      <c r="M62" s="85"/>
-      <c r="N62" s="85"/>
-      <c r="O62" s="85"/>
-      <c r="P62" s="85"/>
-      <c r="Q62" s="85"/>
-      <c r="R62" s="85"/>
-      <c r="S62" s="85"/>
-      <c r="T62" s="85"/>
-      <c r="U62" s="85"/>
-      <c r="V62" s="85"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="96"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="96"/>
+      <c r="S62" s="96"/>
+      <c r="T62" s="96"/>
+      <c r="U62" s="96"/>
+      <c r="V62" s="96"/>
       <c r="X62" s="17"/>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="16"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
-      <c r="K63" s="85"/>
-      <c r="L63" s="85"/>
-      <c r="M63" s="85"/>
-      <c r="N63" s="85"/>
-      <c r="O63" s="85"/>
-      <c r="P63" s="85"/>
-      <c r="Q63" s="85"/>
-      <c r="R63" s="85"/>
-      <c r="S63" s="85"/>
-      <c r="T63" s="85"/>
-      <c r="U63" s="85"/>
-      <c r="V63" s="85"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="96"/>
+      <c r="J63" s="96"/>
+      <c r="K63" s="96"/>
+      <c r="L63" s="96"/>
+      <c r="M63" s="96"/>
+      <c r="N63" s="96"/>
+      <c r="O63" s="96"/>
+      <c r="P63" s="96"/>
+      <c r="Q63" s="96"/>
+      <c r="R63" s="96"/>
+      <c r="S63" s="96"/>
+      <c r="T63" s="96"/>
+      <c r="U63" s="96"/>
+      <c r="V63" s="96"/>
       <c r="X63" s="17"/>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="16"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="85"/>
-      <c r="M64" s="85"/>
-      <c r="N64" s="85"/>
-      <c r="O64" s="85"/>
-      <c r="P64" s="85"/>
-      <c r="Q64" s="85"/>
-      <c r="R64" s="85"/>
-      <c r="S64" s="85"/>
-      <c r="T64" s="85"/>
-      <c r="U64" s="85"/>
-      <c r="V64" s="85"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="96"/>
+      <c r="K64" s="96"/>
+      <c r="L64" s="96"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="96"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="96"/>
+      <c r="Q64" s="96"/>
+      <c r="R64" s="96"/>
+      <c r="S64" s="96"/>
+      <c r="T64" s="96"/>
+      <c r="U64" s="96"/>
+      <c r="V64" s="96"/>
       <c r="X64" s="17"/>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="16"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="85"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
-      <c r="K65" s="85"/>
-      <c r="L65" s="85"/>
-      <c r="M65" s="85"/>
-      <c r="N65" s="85"/>
-      <c r="O65" s="85"/>
-      <c r="P65" s="85"/>
-      <c r="Q65" s="85"/>
-      <c r="R65" s="85"/>
-      <c r="S65" s="85"/>
-      <c r="T65" s="85"/>
-      <c r="U65" s="85"/>
-      <c r="V65" s="85"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="96"/>
+      <c r="K65" s="96"/>
+      <c r="L65" s="96"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="96"/>
+      <c r="O65" s="96"/>
+      <c r="P65" s="96"/>
+      <c r="Q65" s="96"/>
+      <c r="R65" s="96"/>
+      <c r="S65" s="96"/>
+      <c r="T65" s="96"/>
+      <c r="U65" s="96"/>
+      <c r="V65" s="96"/>
       <c r="X65" s="17"/>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="16"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="85"/>
-      <c r="K66" s="85"/>
-      <c r="L66" s="85"/>
-      <c r="M66" s="85"/>
-      <c r="N66" s="85"/>
-      <c r="O66" s="85"/>
-      <c r="P66" s="85"/>
-      <c r="Q66" s="85"/>
-      <c r="R66" s="85"/>
-      <c r="S66" s="85"/>
-      <c r="T66" s="85"/>
-      <c r="U66" s="85"/>
-      <c r="V66" s="85"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="96"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="96"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="96"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="96"/>
+      <c r="S66" s="96"/>
+      <c r="T66" s="96"/>
+      <c r="U66" s="96"/>
+      <c r="V66" s="96"/>
       <c r="X66" s="17"/>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="16"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="85"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="85"/>
-      <c r="K67" s="85"/>
-      <c r="L67" s="85"/>
-      <c r="M67" s="85"/>
-      <c r="N67" s="85"/>
-      <c r="O67" s="85"/>
-      <c r="P67" s="85"/>
-      <c r="Q67" s="85"/>
-      <c r="R67" s="85"/>
-      <c r="S67" s="85"/>
-      <c r="T67" s="85"/>
-      <c r="U67" s="85"/>
-      <c r="V67" s="85"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="96"/>
+      <c r="K67" s="96"/>
+      <c r="L67" s="96"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="96"/>
+      <c r="O67" s="96"/>
+      <c r="P67" s="96"/>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="96"/>
+      <c r="S67" s="96"/>
+      <c r="T67" s="96"/>
+      <c r="U67" s="96"/>
+      <c r="V67" s="96"/>
       <c r="X67" s="17"/>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="16"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="85"/>
-      <c r="I68" s="85"/>
-      <c r="J68" s="85"/>
-      <c r="K68" s="85"/>
-      <c r="L68" s="85"/>
-      <c r="M68" s="85"/>
-      <c r="N68" s="85"/>
-      <c r="O68" s="85"/>
-      <c r="P68" s="85"/>
-      <c r="Q68" s="85"/>
-      <c r="R68" s="85"/>
-      <c r="S68" s="85"/>
-      <c r="T68" s="85"/>
-      <c r="U68" s="85"/>
-      <c r="V68" s="85"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="96"/>
+      <c r="K68" s="96"/>
+      <c r="L68" s="96"/>
+      <c r="M68" s="96"/>
+      <c r="N68" s="96"/>
+      <c r="O68" s="96"/>
+      <c r="P68" s="96"/>
+      <c r="Q68" s="96"/>
+      <c r="R68" s="96"/>
+      <c r="S68" s="96"/>
+      <c r="T68" s="96"/>
+      <c r="U68" s="96"/>
+      <c r="V68" s="96"/>
       <c r="X68" s="17"/>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="16"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="85"/>
-      <c r="K69" s="85"/>
-      <c r="L69" s="85"/>
-      <c r="M69" s="85"/>
-      <c r="N69" s="85"/>
-      <c r="O69" s="85"/>
-      <c r="P69" s="85"/>
-      <c r="Q69" s="85"/>
-      <c r="R69" s="85"/>
-      <c r="S69" s="85"/>
-      <c r="T69" s="85"/>
-      <c r="U69" s="85"/>
-      <c r="V69" s="85"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="96"/>
+      <c r="K69" s="96"/>
+      <c r="L69" s="96"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="96"/>
+      <c r="O69" s="96"/>
+      <c r="P69" s="96"/>
+      <c r="Q69" s="96"/>
+      <c r="R69" s="96"/>
+      <c r="S69" s="96"/>
+      <c r="T69" s="96"/>
+      <c r="U69" s="96"/>
+      <c r="V69" s="96"/>
       <c r="X69" s="17"/>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="16"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="85"/>
-      <c r="K70" s="85"/>
-      <c r="L70" s="85"/>
-      <c r="M70" s="85"/>
-      <c r="N70" s="85"/>
-      <c r="O70" s="85"/>
-      <c r="P70" s="85"/>
-      <c r="Q70" s="85"/>
-      <c r="R70" s="85"/>
-      <c r="S70" s="85"/>
-      <c r="T70" s="85"/>
-      <c r="U70" s="85"/>
-      <c r="V70" s="85"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="96"/>
+      <c r="H70" s="96"/>
+      <c r="I70" s="96"/>
+      <c r="J70" s="96"/>
+      <c r="K70" s="96"/>
+      <c r="L70" s="96"/>
+      <c r="M70" s="96"/>
+      <c r="N70" s="96"/>
+      <c r="O70" s="96"/>
+      <c r="P70" s="96"/>
+      <c r="Q70" s="96"/>
+      <c r="R70" s="96"/>
+      <c r="S70" s="96"/>
+      <c r="T70" s="96"/>
+      <c r="U70" s="96"/>
+      <c r="V70" s="96"/>
       <c r="X70" s="17"/>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="16"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
-      <c r="I71" s="85"/>
-      <c r="J71" s="85"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="85"/>
-      <c r="M71" s="85"/>
-      <c r="N71" s="85"/>
-      <c r="O71" s="85"/>
-      <c r="P71" s="85"/>
-      <c r="Q71" s="85"/>
-      <c r="R71" s="85"/>
-      <c r="S71" s="85"/>
-      <c r="T71" s="85"/>
-      <c r="U71" s="85"/>
-      <c r="V71" s="85"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="96"/>
+      <c r="H71" s="96"/>
+      <c r="I71" s="96"/>
+      <c r="J71" s="96"/>
+      <c r="K71" s="96"/>
+      <c r="L71" s="96"/>
+      <c r="M71" s="96"/>
+      <c r="N71" s="96"/>
+      <c r="O71" s="96"/>
+      <c r="P71" s="96"/>
+      <c r="Q71" s="96"/>
+      <c r="R71" s="96"/>
+      <c r="S71" s="96"/>
+      <c r="T71" s="96"/>
+      <c r="U71" s="96"/>
+      <c r="V71" s="96"/>
       <c r="X71" s="17"/>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="16"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="85"/>
-      <c r="L72" s="85"/>
-      <c r="M72" s="85"/>
-      <c r="N72" s="85"/>
-      <c r="O72" s="85"/>
-      <c r="P72" s="85"/>
-      <c r="Q72" s="85"/>
-      <c r="R72" s="85"/>
-      <c r="S72" s="85"/>
-      <c r="T72" s="85"/>
-      <c r="U72" s="85"/>
-      <c r="V72" s="85"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="96"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="96"/>
+      <c r="H72" s="96"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="96"/>
+      <c r="K72" s="96"/>
+      <c r="L72" s="96"/>
+      <c r="M72" s="96"/>
+      <c r="N72" s="96"/>
+      <c r="O72" s="96"/>
+      <c r="P72" s="96"/>
+      <c r="Q72" s="96"/>
+      <c r="R72" s="96"/>
+      <c r="S72" s="96"/>
+      <c r="T72" s="96"/>
+      <c r="U72" s="96"/>
+      <c r="V72" s="96"/>
       <c r="X72" s="17"/>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="16"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-      <c r="J73" s="85"/>
-      <c r="K73" s="85"/>
-      <c r="L73" s="85"/>
-      <c r="M73" s="85"/>
-      <c r="N73" s="85"/>
-      <c r="O73" s="85"/>
-      <c r="P73" s="85"/>
-      <c r="Q73" s="85"/>
-      <c r="R73" s="85"/>
-      <c r="S73" s="85"/>
-      <c r="T73" s="85"/>
-      <c r="U73" s="85"/>
-      <c r="V73" s="85"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="96"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="96"/>
+      <c r="K73" s="96"/>
+      <c r="L73" s="96"/>
+      <c r="M73" s="96"/>
+      <c r="N73" s="96"/>
+      <c r="O73" s="96"/>
+      <c r="P73" s="96"/>
+      <c r="Q73" s="96"/>
+      <c r="R73" s="96"/>
+      <c r="S73" s="96"/>
+      <c r="T73" s="96"/>
+      <c r="U73" s="96"/>
+      <c r="V73" s="96"/>
       <c r="X73" s="17"/>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="16"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="85"/>
-      <c r="K74" s="85"/>
-      <c r="L74" s="85"/>
-      <c r="M74" s="85"/>
-      <c r="N74" s="85"/>
-      <c r="O74" s="85"/>
-      <c r="P74" s="85"/>
-      <c r="Q74" s="85"/>
-      <c r="R74" s="85"/>
-      <c r="S74" s="85"/>
-      <c r="T74" s="85"/>
-      <c r="U74" s="85"/>
-      <c r="V74" s="85"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="96"/>
+      <c r="K74" s="96"/>
+      <c r="L74" s="96"/>
+      <c r="M74" s="96"/>
+      <c r="N74" s="96"/>
+      <c r="O74" s="96"/>
+      <c r="P74" s="96"/>
+      <c r="Q74" s="96"/>
+      <c r="R74" s="96"/>
+      <c r="S74" s="96"/>
+      <c r="T74" s="96"/>
+      <c r="U74" s="96"/>
+      <c r="V74" s="96"/>
       <c r="X74" s="17"/>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="16"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="85"/>
-      <c r="J75" s="85"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
-      <c r="M75" s="85"/>
-      <c r="N75" s="85"/>
-      <c r="O75" s="85"/>
-      <c r="P75" s="85"/>
-      <c r="Q75" s="85"/>
-      <c r="R75" s="85"/>
-      <c r="S75" s="85"/>
-      <c r="T75" s="85"/>
-      <c r="U75" s="85"/>
-      <c r="V75" s="85"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="96"/>
+      <c r="J75" s="96"/>
+      <c r="K75" s="96"/>
+      <c r="L75" s="96"/>
+      <c r="M75" s="96"/>
+      <c r="N75" s="96"/>
+      <c r="O75" s="96"/>
+      <c r="P75" s="96"/>
+      <c r="Q75" s="96"/>
+      <c r="R75" s="96"/>
+      <c r="S75" s="96"/>
+      <c r="T75" s="96"/>
+      <c r="U75" s="96"/>
+      <c r="V75" s="96"/>
       <c r="X75" s="17"/>
     </row>
     <row r="76" spans="1:25" ht="15" thickBot="1">
       <c r="A76" s="16"/>
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="95"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="95"/>
-      <c r="K76" s="95"/>
-      <c r="L76" s="95"/>
-      <c r="M76" s="95"/>
-      <c r="N76" s="95"/>
-      <c r="O76" s="95"/>
-      <c r="P76" s="95"/>
-      <c r="Q76" s="95"/>
-      <c r="R76" s="95"/>
-      <c r="S76" s="95"/>
-      <c r="T76" s="95"/>
-      <c r="U76" s="95"/>
-      <c r="V76" s="96"/>
+      <c r="B76" s="97"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="97"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="97"/>
+      <c r="J76" s="97"/>
+      <c r="K76" s="97"/>
+      <c r="L76" s="97"/>
+      <c r="M76" s="97"/>
+      <c r="N76" s="97"/>
+      <c r="O76" s="97"/>
+      <c r="P76" s="97"/>
+      <c r="Q76" s="97"/>
+      <c r="R76" s="97"/>
+      <c r="S76" s="97"/>
+      <c r="T76" s="97"/>
+      <c r="U76" s="97"/>
+      <c r="V76" s="98"/>
       <c r="W76" s="25"/>
       <c r="X76" s="17"/>
       <c r="Y76" s="16"/>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="16"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="90"/>
-      <c r="H77" s="90"/>
-      <c r="I77" s="90"/>
-      <c r="J77" s="90"/>
-      <c r="K77" s="90"/>
-      <c r="L77" s="90"/>
-      <c r="M77" s="90"/>
-      <c r="N77" s="90"/>
-      <c r="O77" s="90"/>
-      <c r="P77" s="90"/>
-      <c r="Q77" s="90"/>
-      <c r="R77" s="90"/>
-      <c r="S77" s="90"/>
-      <c r="T77" s="90"/>
-      <c r="U77" s="90"/>
-      <c r="V77" s="90"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="99"/>
+      <c r="K77" s="99"/>
+      <c r="L77" s="99"/>
+      <c r="M77" s="99"/>
+      <c r="N77" s="99"/>
+      <c r="O77" s="99"/>
+      <c r="P77" s="99"/>
+      <c r="Q77" s="99"/>
+      <c r="R77" s="99"/>
+      <c r="S77" s="99"/>
+      <c r="T77" s="99"/>
+      <c r="U77" s="99"/>
+      <c r="V77" s="99"/>
       <c r="X77" s="17"/>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="16"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="90"/>
-      <c r="K78" s="90"/>
-      <c r="L78" s="90"/>
-      <c r="M78" s="90"/>
-      <c r="N78" s="90"/>
-      <c r="O78" s="90"/>
-      <c r="P78" s="90"/>
-      <c r="Q78" s="90"/>
-      <c r="R78" s="90"/>
-      <c r="S78" s="90"/>
-      <c r="T78" s="90"/>
-      <c r="U78" s="90"/>
-      <c r="V78" s="90"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="99"/>
+      <c r="J78" s="99"/>
+      <c r="K78" s="99"/>
+      <c r="L78" s="99"/>
+      <c r="M78" s="99"/>
+      <c r="N78" s="99"/>
+      <c r="O78" s="99"/>
+      <c r="P78" s="99"/>
+      <c r="Q78" s="99"/>
+      <c r="R78" s="99"/>
+      <c r="S78" s="99"/>
+      <c r="T78" s="99"/>
+      <c r="U78" s="99"/>
+      <c r="V78" s="99"/>
       <c r="X78" s="17"/>
     </row>
     <row r="79" spans="1:25">
@@ -5039,112 +5038,112 @@
       <c r="X80" s="20"/>
     </row>
     <row r="81" spans="1:24" ht="15" thickBot="1">
-      <c r="A81" s="87" t="s">
+      <c r="A81" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="76" t="s">
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76" t="s">
+      <c r="F81" s="78"/>
+      <c r="G81" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="75" t="s">
+      <c r="H81" s="78"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="75"/>
-      <c r="L81" s="76" t="s">
+      <c r="K81" s="94"/>
+      <c r="L81" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M81" s="76"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76"/>
-      <c r="P81" s="75" t="s">
+      <c r="M81" s="78"/>
+      <c r="N81" s="78"/>
+      <c r="O81" s="78"/>
+      <c r="P81" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Q81" s="75"/>
-      <c r="R81" s="76" t="s">
+      <c r="Q81" s="94"/>
+      <c r="R81" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S81" s="76"/>
-      <c r="T81" s="76"/>
-      <c r="U81" s="78" t="s">
+      <c r="S81" s="78"/>
+      <c r="T81" s="78"/>
+      <c r="U81" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="V81" s="78"/>
-      <c r="W81" s="79">
+      <c r="V81" s="95"/>
+      <c r="W81" s="106">
         <v>45026</v>
       </c>
-      <c r="X81" s="77"/>
+      <c r="X81" s="100"/>
     </row>
     <row r="82" spans="1:24" ht="15" thickBot="1">
-      <c r="A82" s="87"/>
-      <c r="B82" s="87"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="87"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="76"/>
-      <c r="M82" s="76"/>
-      <c r="N82" s="76"/>
-      <c r="O82" s="76"/>
-      <c r="P82" s="75" t="s">
+      <c r="A82" s="93"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="94"/>
+      <c r="K82" s="94"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="78"/>
+      <c r="N82" s="78"/>
+      <c r="O82" s="78"/>
+      <c r="P82" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="77"/>
-      <c r="S82" s="77"/>
-      <c r="T82" s="77"/>
-      <c r="U82" s="78" t="s">
+      <c r="Q82" s="94"/>
+      <c r="R82" s="100"/>
+      <c r="S82" s="100"/>
+      <c r="T82" s="100"/>
+      <c r="U82" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="V82" s="78"/>
-      <c r="W82" s="77"/>
-      <c r="X82" s="77"/>
+      <c r="V82" s="95"/>
+      <c r="W82" s="100"/>
+      <c r="X82" s="100"/>
     </row>
     <row r="83" spans="1:24" ht="15" thickBot="1">
-      <c r="A83" s="87"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="75" t="s">
+      <c r="A83" s="93"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="78"/>
+      <c r="I83" s="78"/>
+      <c r="J83" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="75"/>
-      <c r="L83" s="77" t="s">
+      <c r="K83" s="94"/>
+      <c r="L83" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M83" s="77"/>
-      <c r="N83" s="77"/>
-      <c r="O83" s="77"/>
-      <c r="P83" s="78" t="s">
+      <c r="M83" s="100"/>
+      <c r="N83" s="100"/>
+      <c r="O83" s="100"/>
+      <c r="P83" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q83" s="78"/>
-      <c r="R83" s="77" t="s">
+      <c r="Q83" s="95"/>
+      <c r="R83" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="S83" s="77"/>
-      <c r="T83" s="77"/>
-      <c r="U83" s="77"/>
-      <c r="V83" s="77"/>
-      <c r="W83" s="77"/>
-      <c r="X83" s="77"/>
+      <c r="S83" s="100"/>
+      <c r="T83" s="100"/>
+      <c r="U83" s="100"/>
+      <c r="V83" s="100"/>
+      <c r="W83" s="100"/>
+      <c r="X83" s="100"/>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="21"/>
@@ -5401,112 +5400,112 @@
       <c r="X121" s="20"/>
     </row>
     <row r="122" spans="1:24" ht="15" thickBot="1">
-      <c r="A122" s="87" t="s">
+      <c r="A122" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="87"/>
-      <c r="C122" s="87"/>
-      <c r="D122" s="87"/>
-      <c r="E122" s="76" t="s">
+      <c r="B122" s="93"/>
+      <c r="C122" s="93"/>
+      <c r="D122" s="93"/>
+      <c r="E122" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F122" s="76"/>
-      <c r="G122" s="76" t="s">
+      <c r="F122" s="78"/>
+      <c r="G122" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="76"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="75" t="s">
+      <c r="H122" s="78"/>
+      <c r="I122" s="78"/>
+      <c r="J122" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K122" s="75"/>
-      <c r="L122" s="76" t="s">
+      <c r="K122" s="94"/>
+      <c r="L122" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M122" s="76"/>
-      <c r="N122" s="76"/>
-      <c r="O122" s="76"/>
-      <c r="P122" s="75" t="s">
+      <c r="M122" s="78"/>
+      <c r="N122" s="78"/>
+      <c r="O122" s="78"/>
+      <c r="P122" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Q122" s="75"/>
-      <c r="R122" s="76" t="s">
+      <c r="Q122" s="94"/>
+      <c r="R122" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S122" s="76"/>
-      <c r="T122" s="76"/>
-      <c r="U122" s="78" t="s">
+      <c r="S122" s="78"/>
+      <c r="T122" s="78"/>
+      <c r="U122" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="V122" s="78"/>
-      <c r="W122" s="79">
+      <c r="V122" s="95"/>
+      <c r="W122" s="106">
         <v>45026</v>
       </c>
-      <c r="X122" s="77"/>
+      <c r="X122" s="100"/>
     </row>
     <row r="123" spans="1:24" ht="15" thickBot="1">
-      <c r="A123" s="87"/>
-      <c r="B123" s="87"/>
-      <c r="C123" s="87"/>
-      <c r="D123" s="87"/>
-      <c r="E123" s="76"/>
-      <c r="F123" s="76"/>
-      <c r="G123" s="76"/>
-      <c r="H123" s="76"/>
-      <c r="I123" s="76"/>
-      <c r="J123" s="75"/>
-      <c r="K123" s="75"/>
-      <c r="L123" s="76"/>
-      <c r="M123" s="76"/>
-      <c r="N123" s="76"/>
-      <c r="O123" s="76"/>
-      <c r="P123" s="75" t="s">
+      <c r="A123" s="93"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="93"/>
+      <c r="D123" s="93"/>
+      <c r="E123" s="78"/>
+      <c r="F123" s="78"/>
+      <c r="G123" s="78"/>
+      <c r="H123" s="78"/>
+      <c r="I123" s="78"/>
+      <c r="J123" s="94"/>
+      <c r="K123" s="94"/>
+      <c r="L123" s="78"/>
+      <c r="M123" s="78"/>
+      <c r="N123" s="78"/>
+      <c r="O123" s="78"/>
+      <c r="P123" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q123" s="75"/>
-      <c r="R123" s="77"/>
-      <c r="S123" s="77"/>
-      <c r="T123" s="77"/>
-      <c r="U123" s="78" t="s">
+      <c r="Q123" s="94"/>
+      <c r="R123" s="100"/>
+      <c r="S123" s="100"/>
+      <c r="T123" s="100"/>
+      <c r="U123" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="V123" s="78"/>
-      <c r="W123" s="77"/>
-      <c r="X123" s="77"/>
+      <c r="V123" s="95"/>
+      <c r="W123" s="100"/>
+      <c r="X123" s="100"/>
     </row>
     <row r="124" spans="1:24" ht="15" thickBot="1">
-      <c r="A124" s="87"/>
-      <c r="B124" s="87"/>
-      <c r="C124" s="87"/>
-      <c r="D124" s="87"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="76"/>
-      <c r="G124" s="76"/>
-      <c r="H124" s="76"/>
-      <c r="I124" s="76"/>
-      <c r="J124" s="75" t="s">
+      <c r="A124" s="93"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="93"/>
+      <c r="D124" s="93"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="78"/>
+      <c r="H124" s="78"/>
+      <c r="I124" s="78"/>
+      <c r="J124" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K124" s="75"/>
-      <c r="L124" s="77" t="s">
+      <c r="K124" s="94"/>
+      <c r="L124" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M124" s="77"/>
-      <c r="N124" s="77"/>
-      <c r="O124" s="77"/>
-      <c r="P124" s="78" t="s">
+      <c r="M124" s="100"/>
+      <c r="N124" s="100"/>
+      <c r="O124" s="100"/>
+      <c r="P124" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q124" s="78"/>
-      <c r="R124" s="77" t="s">
+      <c r="Q124" s="95"/>
+      <c r="R124" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="S124" s="77"/>
-      <c r="T124" s="77"/>
-      <c r="U124" s="77"/>
-      <c r="V124" s="77"/>
-      <c r="W124" s="77"/>
-      <c r="X124" s="77"/>
+      <c r="S124" s="100"/>
+      <c r="T124" s="100"/>
+      <c r="U124" s="100"/>
+      <c r="V124" s="100"/>
+      <c r="W124" s="100"/>
+      <c r="X124" s="100"/>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="21"/>
@@ -5762,31 +5761,31 @@
       <c r="C148" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D148" s="83" t="s">
+      <c r="D148" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="E148" s="83"/>
-      <c r="F148" s="83" t="s">
+      <c r="E148" s="88"/>
+      <c r="F148" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="G148" s="83"/>
-      <c r="H148" s="83"/>
-      <c r="I148" s="83"/>
-      <c r="J148" s="83"/>
+      <c r="G148" s="88"/>
+      <c r="H148" s="88"/>
+      <c r="I148" s="88"/>
+      <c r="J148" s="88"/>
       <c r="K148" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L148" s="103" t="s">
+      <c r="L148" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="M148" s="104"/>
-      <c r="N148" s="104"/>
-      <c r="O148" s="104"/>
-      <c r="P148" s="104"/>
-      <c r="Q148" s="104"/>
-      <c r="R148" s="104"/>
-      <c r="S148" s="104"/>
-      <c r="T148" s="105"/>
+      <c r="M148" s="90"/>
+      <c r="N148" s="90"/>
+      <c r="O148" s="90"/>
+      <c r="P148" s="90"/>
+      <c r="Q148" s="90"/>
+      <c r="R148" s="90"/>
+      <c r="S148" s="90"/>
+      <c r="T148" s="91"/>
       <c r="X148" s="17"/>
     </row>
     <row r="149" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
@@ -5794,251 +5793,251 @@
       <c r="C149" s="39">
         <v>1</v>
       </c>
-      <c r="D149" s="106" t="s">
+      <c r="D149" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="E149" s="106"/>
-      <c r="F149" s="107" t="s">
+      <c r="E149" s="92"/>
+      <c r="F149" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="G149" s="108"/>
-      <c r="H149" s="107" t="s">
+      <c r="G149" s="80"/>
+      <c r="H149" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="I149" s="109"/>
-      <c r="J149" s="108"/>
+      <c r="I149" s="81"/>
+      <c r="J149" s="80"/>
       <c r="K149" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L149" s="80"/>
-      <c r="M149" s="81"/>
-      <c r="N149" s="81"/>
-      <c r="O149" s="81"/>
-      <c r="P149" s="81"/>
-      <c r="Q149" s="81"/>
-      <c r="R149" s="81"/>
-      <c r="S149" s="81"/>
-      <c r="T149" s="82"/>
+      <c r="L149" s="75"/>
+      <c r="M149" s="76"/>
+      <c r="N149" s="76"/>
+      <c r="O149" s="76"/>
+      <c r="P149" s="76"/>
+      <c r="Q149" s="76"/>
+      <c r="R149" s="76"/>
+      <c r="S149" s="76"/>
+      <c r="T149" s="77"/>
       <c r="X149" s="17"/>
     </row>
     <row r="150" spans="1:24" ht="15" thickBot="1">
       <c r="A150" s="16"/>
       <c r="C150" s="10"/>
-      <c r="D150" s="76"/>
-      <c r="E150" s="76"/>
-      <c r="F150" s="80"/>
-      <c r="G150" s="82"/>
-      <c r="H150" s="80"/>
-      <c r="I150" s="81"/>
-      <c r="J150" s="82"/>
+      <c r="D150" s="78"/>
+      <c r="E150" s="78"/>
+      <c r="F150" s="75"/>
+      <c r="G150" s="77"/>
+      <c r="H150" s="75"/>
+      <c r="I150" s="76"/>
+      <c r="J150" s="77"/>
       <c r="K150" s="10"/>
-      <c r="L150" s="80"/>
-      <c r="M150" s="81"/>
-      <c r="N150" s="81"/>
-      <c r="O150" s="81"/>
-      <c r="P150" s="81"/>
-      <c r="Q150" s="81"/>
-      <c r="R150" s="81"/>
-      <c r="S150" s="81"/>
-      <c r="T150" s="82"/>
+      <c r="L150" s="75"/>
+      <c r="M150" s="76"/>
+      <c r="N150" s="76"/>
+      <c r="O150" s="76"/>
+      <c r="P150" s="76"/>
+      <c r="Q150" s="76"/>
+      <c r="R150" s="76"/>
+      <c r="S150" s="76"/>
+      <c r="T150" s="77"/>
       <c r="X150" s="17"/>
     </row>
     <row r="151" spans="1:24" ht="15" thickBot="1">
       <c r="A151" s="16"/>
       <c r="C151" s="10"/>
-      <c r="D151" s="76"/>
-      <c r="E151" s="76"/>
-      <c r="F151" s="80"/>
-      <c r="G151" s="82"/>
-      <c r="H151" s="80"/>
-      <c r="I151" s="81"/>
-      <c r="J151" s="82"/>
+      <c r="D151" s="78"/>
+      <c r="E151" s="78"/>
+      <c r="F151" s="75"/>
+      <c r="G151" s="77"/>
+      <c r="H151" s="75"/>
+      <c r="I151" s="76"/>
+      <c r="J151" s="77"/>
       <c r="K151" s="10"/>
-      <c r="L151" s="80"/>
-      <c r="M151" s="81"/>
-      <c r="N151" s="81"/>
-      <c r="O151" s="81"/>
-      <c r="P151" s="81"/>
-      <c r="Q151" s="81"/>
-      <c r="R151" s="81"/>
-      <c r="S151" s="81"/>
-      <c r="T151" s="82"/>
+      <c r="L151" s="75"/>
+      <c r="M151" s="76"/>
+      <c r="N151" s="76"/>
+      <c r="O151" s="76"/>
+      <c r="P151" s="76"/>
+      <c r="Q151" s="76"/>
+      <c r="R151" s="76"/>
+      <c r="S151" s="76"/>
+      <c r="T151" s="77"/>
       <c r="X151" s="17"/>
     </row>
     <row r="152" spans="1:24" ht="15" thickBot="1">
       <c r="A152" s="16"/>
       <c r="C152" s="10"/>
-      <c r="D152" s="76"/>
-      <c r="E152" s="76"/>
-      <c r="F152" s="80"/>
-      <c r="G152" s="82"/>
-      <c r="H152" s="80"/>
-      <c r="I152" s="81"/>
-      <c r="J152" s="82"/>
+      <c r="D152" s="78"/>
+      <c r="E152" s="78"/>
+      <c r="F152" s="75"/>
+      <c r="G152" s="77"/>
+      <c r="H152" s="75"/>
+      <c r="I152" s="76"/>
+      <c r="J152" s="77"/>
       <c r="K152" s="10"/>
-      <c r="L152" s="80"/>
-      <c r="M152" s="81"/>
-      <c r="N152" s="81"/>
-      <c r="O152" s="81"/>
-      <c r="P152" s="81"/>
-      <c r="Q152" s="81"/>
-      <c r="R152" s="81"/>
-      <c r="S152" s="81"/>
-      <c r="T152" s="82"/>
+      <c r="L152" s="75"/>
+      <c r="M152" s="76"/>
+      <c r="N152" s="76"/>
+      <c r="O152" s="76"/>
+      <c r="P152" s="76"/>
+      <c r="Q152" s="76"/>
+      <c r="R152" s="76"/>
+      <c r="S152" s="76"/>
+      <c r="T152" s="77"/>
       <c r="X152" s="17"/>
     </row>
     <row r="153" spans="1:24" ht="15" thickBot="1">
       <c r="A153" s="16"/>
       <c r="C153" s="10"/>
-      <c r="D153" s="76"/>
-      <c r="E153" s="76"/>
-      <c r="F153" s="80"/>
-      <c r="G153" s="82"/>
-      <c r="H153" s="80"/>
-      <c r="I153" s="81"/>
-      <c r="J153" s="82"/>
+      <c r="D153" s="78"/>
+      <c r="E153" s="78"/>
+      <c r="F153" s="75"/>
+      <c r="G153" s="77"/>
+      <c r="H153" s="75"/>
+      <c r="I153" s="76"/>
+      <c r="J153" s="77"/>
       <c r="K153" s="10"/>
-      <c r="L153" s="80"/>
-      <c r="M153" s="81"/>
-      <c r="N153" s="81"/>
-      <c r="O153" s="81"/>
-      <c r="P153" s="81"/>
-      <c r="Q153" s="81"/>
-      <c r="R153" s="81"/>
-      <c r="S153" s="81"/>
-      <c r="T153" s="82"/>
+      <c r="L153" s="75"/>
+      <c r="M153" s="76"/>
+      <c r="N153" s="76"/>
+      <c r="O153" s="76"/>
+      <c r="P153" s="76"/>
+      <c r="Q153" s="76"/>
+      <c r="R153" s="76"/>
+      <c r="S153" s="76"/>
+      <c r="T153" s="77"/>
       <c r="X153" s="17"/>
     </row>
     <row r="154" spans="1:24" ht="15" thickBot="1">
       <c r="A154" s="16"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="76"/>
-      <c r="E154" s="76"/>
-      <c r="F154" s="80"/>
-      <c r="G154" s="82"/>
-      <c r="H154" s="80"/>
-      <c r="I154" s="81"/>
-      <c r="J154" s="82"/>
+      <c r="D154" s="78"/>
+      <c r="E154" s="78"/>
+      <c r="F154" s="75"/>
+      <c r="G154" s="77"/>
+      <c r="H154" s="75"/>
+      <c r="I154" s="76"/>
+      <c r="J154" s="77"/>
       <c r="K154" s="10"/>
-      <c r="L154" s="80"/>
-      <c r="M154" s="81"/>
-      <c r="N154" s="81"/>
-      <c r="O154" s="81"/>
-      <c r="P154" s="81"/>
-      <c r="Q154" s="81"/>
-      <c r="R154" s="81"/>
-      <c r="S154" s="81"/>
-      <c r="T154" s="82"/>
+      <c r="L154" s="75"/>
+      <c r="M154" s="76"/>
+      <c r="N154" s="76"/>
+      <c r="O154" s="76"/>
+      <c r="P154" s="76"/>
+      <c r="Q154" s="76"/>
+      <c r="R154" s="76"/>
+      <c r="S154" s="76"/>
+      <c r="T154" s="77"/>
       <c r="X154" s="17"/>
     </row>
     <row r="155" spans="1:24" ht="15" thickBot="1">
       <c r="A155" s="16"/>
       <c r="C155" s="10"/>
-      <c r="D155" s="76"/>
-      <c r="E155" s="76"/>
-      <c r="F155" s="80"/>
-      <c r="G155" s="82"/>
-      <c r="H155" s="80"/>
-      <c r="I155" s="81"/>
-      <c r="J155" s="82"/>
+      <c r="D155" s="78"/>
+      <c r="E155" s="78"/>
+      <c r="F155" s="75"/>
+      <c r="G155" s="77"/>
+      <c r="H155" s="75"/>
+      <c r="I155" s="76"/>
+      <c r="J155" s="77"/>
       <c r="K155" s="10"/>
-      <c r="L155" s="80"/>
-      <c r="M155" s="81"/>
-      <c r="N155" s="81"/>
-      <c r="O155" s="81"/>
-      <c r="P155" s="81"/>
-      <c r="Q155" s="81"/>
-      <c r="R155" s="81"/>
-      <c r="S155" s="81"/>
-      <c r="T155" s="82"/>
+      <c r="L155" s="75"/>
+      <c r="M155" s="76"/>
+      <c r="N155" s="76"/>
+      <c r="O155" s="76"/>
+      <c r="P155" s="76"/>
+      <c r="Q155" s="76"/>
+      <c r="R155" s="76"/>
+      <c r="S155" s="76"/>
+      <c r="T155" s="77"/>
       <c r="X155" s="17"/>
     </row>
     <row r="156" spans="1:24" ht="15" thickBot="1">
       <c r="A156" s="16"/>
       <c r="C156" s="10"/>
-      <c r="D156" s="76"/>
-      <c r="E156" s="76"/>
-      <c r="F156" s="80"/>
-      <c r="G156" s="82"/>
-      <c r="H156" s="80"/>
-      <c r="I156" s="81"/>
-      <c r="J156" s="82"/>
+      <c r="D156" s="78"/>
+      <c r="E156" s="78"/>
+      <c r="F156" s="75"/>
+      <c r="G156" s="77"/>
+      <c r="H156" s="75"/>
+      <c r="I156" s="76"/>
+      <c r="J156" s="77"/>
       <c r="K156" s="10"/>
-      <c r="L156" s="80"/>
-      <c r="M156" s="81"/>
-      <c r="N156" s="81"/>
-      <c r="O156" s="81"/>
-      <c r="P156" s="81"/>
-      <c r="Q156" s="81"/>
-      <c r="R156" s="81"/>
-      <c r="S156" s="81"/>
-      <c r="T156" s="82"/>
+      <c r="L156" s="75"/>
+      <c r="M156" s="76"/>
+      <c r="N156" s="76"/>
+      <c r="O156" s="76"/>
+      <c r="P156" s="76"/>
+      <c r="Q156" s="76"/>
+      <c r="R156" s="76"/>
+      <c r="S156" s="76"/>
+      <c r="T156" s="77"/>
       <c r="X156" s="17"/>
     </row>
     <row r="157" spans="1:24" ht="15" thickBot="1">
       <c r="A157" s="16"/>
       <c r="C157" s="10"/>
-      <c r="D157" s="76"/>
-      <c r="E157" s="76"/>
-      <c r="F157" s="80"/>
-      <c r="G157" s="82"/>
-      <c r="H157" s="80"/>
-      <c r="I157" s="81"/>
-      <c r="J157" s="82"/>
+      <c r="D157" s="78"/>
+      <c r="E157" s="78"/>
+      <c r="F157" s="75"/>
+      <c r="G157" s="77"/>
+      <c r="H157" s="75"/>
+      <c r="I157" s="76"/>
+      <c r="J157" s="77"/>
       <c r="K157" s="10"/>
-      <c r="L157" s="80"/>
-      <c r="M157" s="81"/>
-      <c r="N157" s="81"/>
-      <c r="O157" s="81"/>
-      <c r="P157" s="81"/>
-      <c r="Q157" s="81"/>
-      <c r="R157" s="81"/>
-      <c r="S157" s="81"/>
-      <c r="T157" s="82"/>
+      <c r="L157" s="75"/>
+      <c r="M157" s="76"/>
+      <c r="N157" s="76"/>
+      <c r="O157" s="76"/>
+      <c r="P157" s="76"/>
+      <c r="Q157" s="76"/>
+      <c r="R157" s="76"/>
+      <c r="S157" s="76"/>
+      <c r="T157" s="77"/>
       <c r="X157" s="17"/>
     </row>
     <row r="158" spans="1:24" ht="15" thickBot="1">
       <c r="A158" s="16"/>
       <c r="C158" s="10"/>
-      <c r="D158" s="76"/>
-      <c r="E158" s="76"/>
-      <c r="F158" s="80"/>
-      <c r="G158" s="82"/>
-      <c r="H158" s="80"/>
-      <c r="I158" s="81"/>
-      <c r="J158" s="82"/>
+      <c r="D158" s="78"/>
+      <c r="E158" s="78"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="77"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="76"/>
+      <c r="J158" s="77"/>
       <c r="K158" s="10"/>
-      <c r="L158" s="80"/>
-      <c r="M158" s="81"/>
-      <c r="N158" s="81"/>
-      <c r="O158" s="81"/>
-      <c r="P158" s="81"/>
-      <c r="Q158" s="81"/>
-      <c r="R158" s="81"/>
-      <c r="S158" s="81"/>
-      <c r="T158" s="82"/>
+      <c r="L158" s="75"/>
+      <c r="M158" s="76"/>
+      <c r="N158" s="76"/>
+      <c r="O158" s="76"/>
+      <c r="P158" s="76"/>
+      <c r="Q158" s="76"/>
+      <c r="R158" s="76"/>
+      <c r="S158" s="76"/>
+      <c r="T158" s="77"/>
       <c r="X158" s="17"/>
     </row>
     <row r="159" spans="1:24" ht="15" thickBot="1">
       <c r="A159" s="16"/>
       <c r="C159" s="10"/>
-      <c r="D159" s="76"/>
-      <c r="E159" s="76"/>
-      <c r="F159" s="80"/>
-      <c r="G159" s="82"/>
-      <c r="H159" s="80"/>
-      <c r="I159" s="81"/>
-      <c r="J159" s="82"/>
+      <c r="D159" s="78"/>
+      <c r="E159" s="78"/>
+      <c r="F159" s="75"/>
+      <c r="G159" s="77"/>
+      <c r="H159" s="75"/>
+      <c r="I159" s="76"/>
+      <c r="J159" s="77"/>
       <c r="K159" s="10"/>
-      <c r="L159" s="80"/>
-      <c r="M159" s="81"/>
-      <c r="N159" s="81"/>
-      <c r="O159" s="81"/>
-      <c r="P159" s="81"/>
-      <c r="Q159" s="81"/>
-      <c r="R159" s="81"/>
-      <c r="S159" s="81"/>
-      <c r="T159" s="82"/>
+      <c r="L159" s="75"/>
+      <c r="M159" s="76"/>
+      <c r="N159" s="76"/>
+      <c r="O159" s="76"/>
+      <c r="P159" s="76"/>
+      <c r="Q159" s="76"/>
+      <c r="R159" s="76"/>
+      <c r="S159" s="76"/>
+      <c r="T159" s="77"/>
       <c r="X159" s="17"/>
     </row>
     <row r="160" spans="1:24">
@@ -6079,112 +6078,112 @@
       <c r="X162" s="20"/>
     </row>
     <row r="163" spans="1:24" ht="15" thickBot="1">
-      <c r="A163" s="87" t="s">
+      <c r="A163" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="87"/>
-      <c r="C163" s="87"/>
-      <c r="D163" s="87"/>
-      <c r="E163" s="76" t="s">
+      <c r="B163" s="93"/>
+      <c r="C163" s="93"/>
+      <c r="D163" s="93"/>
+      <c r="E163" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F163" s="76"/>
-      <c r="G163" s="76" t="s">
+      <c r="F163" s="78"/>
+      <c r="G163" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H163" s="76"/>
-      <c r="I163" s="76"/>
-      <c r="J163" s="75" t="s">
+      <c r="H163" s="78"/>
+      <c r="I163" s="78"/>
+      <c r="J163" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K163" s="75"/>
-      <c r="L163" s="76" t="s">
+      <c r="K163" s="94"/>
+      <c r="L163" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M163" s="76"/>
-      <c r="N163" s="76"/>
-      <c r="O163" s="76"/>
-      <c r="P163" s="75" t="s">
+      <c r="M163" s="78"/>
+      <c r="N163" s="78"/>
+      <c r="O163" s="78"/>
+      <c r="P163" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Q163" s="75"/>
-      <c r="R163" s="76" t="s">
+      <c r="Q163" s="94"/>
+      <c r="R163" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S163" s="76"/>
-      <c r="T163" s="76"/>
-      <c r="U163" s="78" t="s">
+      <c r="S163" s="78"/>
+      <c r="T163" s="78"/>
+      <c r="U163" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="V163" s="78"/>
-      <c r="W163" s="79">
+      <c r="V163" s="95"/>
+      <c r="W163" s="106">
         <v>45026</v>
       </c>
-      <c r="X163" s="77"/>
+      <c r="X163" s="100"/>
     </row>
     <row r="164" spans="1:24" ht="15" thickBot="1">
-      <c r="A164" s="87"/>
-      <c r="B164" s="87"/>
-      <c r="C164" s="87"/>
-      <c r="D164" s="87"/>
-      <c r="E164" s="76"/>
-      <c r="F164" s="76"/>
-      <c r="G164" s="76"/>
-      <c r="H164" s="76"/>
-      <c r="I164" s="76"/>
-      <c r="J164" s="75"/>
-      <c r="K164" s="75"/>
-      <c r="L164" s="76"/>
-      <c r="M164" s="76"/>
-      <c r="N164" s="76"/>
-      <c r="O164" s="76"/>
-      <c r="P164" s="75" t="s">
+      <c r="A164" s="93"/>
+      <c r="B164" s="93"/>
+      <c r="C164" s="93"/>
+      <c r="D164" s="93"/>
+      <c r="E164" s="78"/>
+      <c r="F164" s="78"/>
+      <c r="G164" s="78"/>
+      <c r="H164" s="78"/>
+      <c r="I164" s="78"/>
+      <c r="J164" s="94"/>
+      <c r="K164" s="94"/>
+      <c r="L164" s="78"/>
+      <c r="M164" s="78"/>
+      <c r="N164" s="78"/>
+      <c r="O164" s="78"/>
+      <c r="P164" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q164" s="75"/>
-      <c r="R164" s="77"/>
-      <c r="S164" s="77"/>
-      <c r="T164" s="77"/>
-      <c r="U164" s="78" t="s">
+      <c r="Q164" s="94"/>
+      <c r="R164" s="100"/>
+      <c r="S164" s="100"/>
+      <c r="T164" s="100"/>
+      <c r="U164" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="V164" s="78"/>
-      <c r="W164" s="77"/>
-      <c r="X164" s="77"/>
+      <c r="V164" s="95"/>
+      <c r="W164" s="100"/>
+      <c r="X164" s="100"/>
     </row>
     <row r="165" spans="1:24" ht="15" thickBot="1">
-      <c r="A165" s="87"/>
-      <c r="B165" s="87"/>
-      <c r="C165" s="87"/>
-      <c r="D165" s="87"/>
-      <c r="E165" s="76"/>
-      <c r="F165" s="76"/>
-      <c r="G165" s="76"/>
-      <c r="H165" s="76"/>
-      <c r="I165" s="76"/>
-      <c r="J165" s="75" t="s">
+      <c r="A165" s="93"/>
+      <c r="B165" s="93"/>
+      <c r="C165" s="93"/>
+      <c r="D165" s="93"/>
+      <c r="E165" s="78"/>
+      <c r="F165" s="78"/>
+      <c r="G165" s="78"/>
+      <c r="H165" s="78"/>
+      <c r="I165" s="78"/>
+      <c r="J165" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K165" s="75"/>
-      <c r="L165" s="77" t="s">
+      <c r="K165" s="94"/>
+      <c r="L165" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M165" s="77"/>
-      <c r="N165" s="77"/>
-      <c r="O165" s="77"/>
-      <c r="P165" s="78" t="s">
+      <c r="M165" s="100"/>
+      <c r="N165" s="100"/>
+      <c r="O165" s="100"/>
+      <c r="P165" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q165" s="78"/>
-      <c r="R165" s="77" t="s">
+      <c r="Q165" s="95"/>
+      <c r="R165" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="S165" s="77"/>
-      <c r="T165" s="77"/>
-      <c r="U165" s="77"/>
-      <c r="V165" s="77"/>
-      <c r="W165" s="77"/>
-      <c r="X165" s="77"/>
+      <c r="S165" s="100"/>
+      <c r="T165" s="100"/>
+      <c r="U165" s="100"/>
+      <c r="V165" s="100"/>
+      <c r="W165" s="100"/>
+      <c r="X165" s="100"/>
     </row>
     <row r="166" spans="1:24">
       <c r="A166" s="21"/>
@@ -6383,112 +6382,112 @@
       <c r="X203" s="20"/>
     </row>
     <row r="204" spans="1:24" ht="15" thickBot="1">
-      <c r="A204" s="87" t="s">
+      <c r="A204" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B204" s="87"/>
-      <c r="C204" s="87"/>
-      <c r="D204" s="87"/>
-      <c r="E204" s="76" t="s">
+      <c r="B204" s="93"/>
+      <c r="C204" s="93"/>
+      <c r="D204" s="93"/>
+      <c r="E204" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F204" s="76"/>
-      <c r="G204" s="76" t="s">
+      <c r="F204" s="78"/>
+      <c r="G204" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H204" s="76"/>
-      <c r="I204" s="76"/>
-      <c r="J204" s="75" t="s">
+      <c r="H204" s="78"/>
+      <c r="I204" s="78"/>
+      <c r="J204" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K204" s="75"/>
-      <c r="L204" s="76" t="s">
+      <c r="K204" s="94"/>
+      <c r="L204" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M204" s="76"/>
-      <c r="N204" s="76"/>
-      <c r="O204" s="76"/>
-      <c r="P204" s="75" t="s">
+      <c r="M204" s="78"/>
+      <c r="N204" s="78"/>
+      <c r="O204" s="78"/>
+      <c r="P204" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Q204" s="75"/>
-      <c r="R204" s="76" t="s">
+      <c r="Q204" s="94"/>
+      <c r="R204" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S204" s="76"/>
-      <c r="T204" s="76"/>
-      <c r="U204" s="78" t="s">
+      <c r="S204" s="78"/>
+      <c r="T204" s="78"/>
+      <c r="U204" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="V204" s="78"/>
-      <c r="W204" s="79">
+      <c r="V204" s="95"/>
+      <c r="W204" s="106">
         <v>45026</v>
       </c>
-      <c r="X204" s="77"/>
+      <c r="X204" s="100"/>
     </row>
     <row r="205" spans="1:24" ht="15" thickBot="1">
-      <c r="A205" s="87"/>
-      <c r="B205" s="87"/>
-      <c r="C205" s="87"/>
-      <c r="D205" s="87"/>
-      <c r="E205" s="76"/>
-      <c r="F205" s="76"/>
-      <c r="G205" s="76"/>
-      <c r="H205" s="76"/>
-      <c r="I205" s="76"/>
-      <c r="J205" s="75"/>
-      <c r="K205" s="75"/>
-      <c r="L205" s="76"/>
-      <c r="M205" s="76"/>
-      <c r="N205" s="76"/>
-      <c r="O205" s="76"/>
-      <c r="P205" s="75" t="s">
+      <c r="A205" s="93"/>
+      <c r="B205" s="93"/>
+      <c r="C205" s="93"/>
+      <c r="D205" s="93"/>
+      <c r="E205" s="78"/>
+      <c r="F205" s="78"/>
+      <c r="G205" s="78"/>
+      <c r="H205" s="78"/>
+      <c r="I205" s="78"/>
+      <c r="J205" s="94"/>
+      <c r="K205" s="94"/>
+      <c r="L205" s="78"/>
+      <c r="M205" s="78"/>
+      <c r="N205" s="78"/>
+      <c r="O205" s="78"/>
+      <c r="P205" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q205" s="75"/>
-      <c r="R205" s="77"/>
-      <c r="S205" s="77"/>
-      <c r="T205" s="77"/>
-      <c r="U205" s="78" t="s">
+      <c r="Q205" s="94"/>
+      <c r="R205" s="100"/>
+      <c r="S205" s="100"/>
+      <c r="T205" s="100"/>
+      <c r="U205" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="V205" s="78"/>
-      <c r="W205" s="77"/>
-      <c r="X205" s="77"/>
+      <c r="V205" s="95"/>
+      <c r="W205" s="100"/>
+      <c r="X205" s="100"/>
     </row>
     <row r="206" spans="1:24" ht="15" thickBot="1">
-      <c r="A206" s="87"/>
-      <c r="B206" s="87"/>
-      <c r="C206" s="87"/>
-      <c r="D206" s="87"/>
-      <c r="E206" s="76"/>
-      <c r="F206" s="76"/>
-      <c r="G206" s="76"/>
-      <c r="H206" s="76"/>
-      <c r="I206" s="76"/>
-      <c r="J206" s="75" t="s">
+      <c r="A206" s="93"/>
+      <c r="B206" s="93"/>
+      <c r="C206" s="93"/>
+      <c r="D206" s="93"/>
+      <c r="E206" s="78"/>
+      <c r="F206" s="78"/>
+      <c r="G206" s="78"/>
+      <c r="H206" s="78"/>
+      <c r="I206" s="78"/>
+      <c r="J206" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K206" s="75"/>
-      <c r="L206" s="77" t="s">
+      <c r="K206" s="94"/>
+      <c r="L206" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M206" s="77"/>
-      <c r="N206" s="77"/>
-      <c r="O206" s="77"/>
-      <c r="P206" s="78" t="s">
+      <c r="M206" s="100"/>
+      <c r="N206" s="100"/>
+      <c r="O206" s="100"/>
+      <c r="P206" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q206" s="78"/>
-      <c r="R206" s="77" t="s">
+      <c r="Q206" s="95"/>
+      <c r="R206" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="S206" s="77"/>
-      <c r="T206" s="77"/>
-      <c r="U206" s="77"/>
-      <c r="V206" s="77"/>
-      <c r="W206" s="77"/>
-      <c r="X206" s="77"/>
+      <c r="S206" s="100"/>
+      <c r="T206" s="100"/>
+      <c r="U206" s="100"/>
+      <c r="V206" s="100"/>
+      <c r="W206" s="100"/>
+      <c r="X206" s="100"/>
     </row>
     <row r="207" spans="1:24">
       <c r="A207" s="21"/>
@@ -6688,35 +6687,234 @@
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="H157:J157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="L153:T153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="L154:T154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="L155:T155"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="L159:T159"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:J155"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:J156"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="J204:K205"/>
+    <mergeCell ref="L204:O205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:O206"/>
+    <mergeCell ref="P206:Q206"/>
+    <mergeCell ref="R206:X206"/>
+    <mergeCell ref="W204:X204"/>
+    <mergeCell ref="P205:Q205"/>
+    <mergeCell ref="R205:T205"/>
+    <mergeCell ref="U205:V205"/>
+    <mergeCell ref="W205:X205"/>
+    <mergeCell ref="P204:Q204"/>
+    <mergeCell ref="R204:T204"/>
+    <mergeCell ref="U204:V204"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="R124:X124"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="L156:T156"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="F47:K48"/>
+    <mergeCell ref="L47:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W81:X81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:T82"/>
+    <mergeCell ref="U82:V82"/>
+    <mergeCell ref="W82:X82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:E50"/>
+    <mergeCell ref="F49:K50"/>
+    <mergeCell ref="L49:N50"/>
+    <mergeCell ref="A163:D165"/>
+    <mergeCell ref="E163:F165"/>
+    <mergeCell ref="G163:I165"/>
+    <mergeCell ref="J163:K164"/>
+    <mergeCell ref="L163:O164"/>
+    <mergeCell ref="P163:Q163"/>
+    <mergeCell ref="R163:T163"/>
+    <mergeCell ref="U163:V163"/>
+    <mergeCell ref="W163:X163"/>
+    <mergeCell ref="P164:Q164"/>
+    <mergeCell ref="R164:T164"/>
+    <mergeCell ref="U164:V164"/>
+    <mergeCell ref="W164:X164"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="P165:Q165"/>
+    <mergeCell ref="R165:X165"/>
+    <mergeCell ref="A204:D206"/>
+    <mergeCell ref="E204:F206"/>
+    <mergeCell ref="G204:I206"/>
+    <mergeCell ref="J122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="R123:T123"/>
+    <mergeCell ref="U123:V123"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="L150:T150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="L151:T151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="L152:T152"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:T157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="L158:T158"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="Q49:R50"/>
+    <mergeCell ref="S49:T50"/>
+    <mergeCell ref="U49:V50"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:X83"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:E52"/>
+    <mergeCell ref="F51:K52"/>
+    <mergeCell ref="L51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="Q51:R52"/>
+    <mergeCell ref="S51:T52"/>
+    <mergeCell ref="U51:V52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:E54"/>
+    <mergeCell ref="F53:K54"/>
+    <mergeCell ref="L53:N54"/>
+    <mergeCell ref="O53:P54"/>
+    <mergeCell ref="Q53:R54"/>
+    <mergeCell ref="S53:T54"/>
+    <mergeCell ref="U53:V54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="A40:D42"/>
+    <mergeCell ref="E40:F42"/>
+    <mergeCell ref="G40:I42"/>
+    <mergeCell ref="J40:K41"/>
+    <mergeCell ref="L40:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:X42"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="A4:X12"/>
+    <mergeCell ref="G13:S17"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="C55:E56"/>
+    <mergeCell ref="F55:K56"/>
+    <mergeCell ref="L55:N56"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="Q55:R56"/>
+    <mergeCell ref="S55:T56"/>
+    <mergeCell ref="U55:V56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:E58"/>
+    <mergeCell ref="F57:K58"/>
+    <mergeCell ref="L57:N58"/>
+    <mergeCell ref="O57:P58"/>
+    <mergeCell ref="Q57:R58"/>
+    <mergeCell ref="S57:T58"/>
+    <mergeCell ref="U57:V58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="F59:K60"/>
+    <mergeCell ref="L59:N60"/>
+    <mergeCell ref="O59:P60"/>
+    <mergeCell ref="Q59:R60"/>
+    <mergeCell ref="S59:T60"/>
+    <mergeCell ref="U59:V60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:E62"/>
+    <mergeCell ref="F61:K62"/>
+    <mergeCell ref="L61:N62"/>
+    <mergeCell ref="O61:P62"/>
+    <mergeCell ref="Q61:R62"/>
+    <mergeCell ref="S61:T62"/>
+    <mergeCell ref="U61:V62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:E64"/>
+    <mergeCell ref="F63:K64"/>
+    <mergeCell ref="L63:N64"/>
+    <mergeCell ref="O63:P64"/>
+    <mergeCell ref="Q63:R64"/>
+    <mergeCell ref="S63:T64"/>
+    <mergeCell ref="U63:V64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:E66"/>
+    <mergeCell ref="F65:K66"/>
+    <mergeCell ref="L65:N66"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="Q65:R66"/>
+    <mergeCell ref="S65:T66"/>
+    <mergeCell ref="U65:V66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:E68"/>
+    <mergeCell ref="F67:K68"/>
+    <mergeCell ref="L67:N68"/>
+    <mergeCell ref="O67:P68"/>
+    <mergeCell ref="Q67:R68"/>
+    <mergeCell ref="S67:T68"/>
+    <mergeCell ref="U67:V68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:E70"/>
+    <mergeCell ref="F69:K70"/>
+    <mergeCell ref="L69:N70"/>
+    <mergeCell ref="O69:P70"/>
+    <mergeCell ref="Q69:R70"/>
+    <mergeCell ref="S69:T70"/>
+    <mergeCell ref="U69:V70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:E72"/>
+    <mergeCell ref="F71:K72"/>
+    <mergeCell ref="L71:N72"/>
+    <mergeCell ref="O71:P72"/>
+    <mergeCell ref="Q71:R72"/>
+    <mergeCell ref="S71:T72"/>
+    <mergeCell ref="U71:V72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:E74"/>
+    <mergeCell ref="F73:K74"/>
+    <mergeCell ref="L73:N74"/>
+    <mergeCell ref="O73:P74"/>
+    <mergeCell ref="Q73:R74"/>
+    <mergeCell ref="S73:T74"/>
+    <mergeCell ref="U73:V74"/>
+    <mergeCell ref="S75:T76"/>
+    <mergeCell ref="U75:V76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:E78"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L77:N78"/>
+    <mergeCell ref="O77:P78"/>
+    <mergeCell ref="Q77:R78"/>
+    <mergeCell ref="S77:T78"/>
+    <mergeCell ref="U77:V78"/>
     <mergeCell ref="O47:R47"/>
     <mergeCell ref="S47:V47"/>
     <mergeCell ref="D148:E148"/>
@@ -6741,234 +6939,35 @@
     <mergeCell ref="L75:N76"/>
     <mergeCell ref="O75:P76"/>
     <mergeCell ref="Q75:R76"/>
-    <mergeCell ref="S75:T76"/>
-    <mergeCell ref="U75:V76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:E78"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L77:N78"/>
-    <mergeCell ref="O77:P78"/>
-    <mergeCell ref="Q77:R78"/>
-    <mergeCell ref="S77:T78"/>
-    <mergeCell ref="U77:V78"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:E72"/>
-    <mergeCell ref="F71:K72"/>
-    <mergeCell ref="L71:N72"/>
-    <mergeCell ref="O71:P72"/>
-    <mergeCell ref="Q71:R72"/>
-    <mergeCell ref="S71:T72"/>
-    <mergeCell ref="U71:V72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:E74"/>
-    <mergeCell ref="F73:K74"/>
-    <mergeCell ref="L73:N74"/>
-    <mergeCell ref="O73:P74"/>
-    <mergeCell ref="Q73:R74"/>
-    <mergeCell ref="S73:T74"/>
-    <mergeCell ref="U73:V74"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:E68"/>
-    <mergeCell ref="F67:K68"/>
-    <mergeCell ref="L67:N68"/>
-    <mergeCell ref="O67:P68"/>
-    <mergeCell ref="Q67:R68"/>
-    <mergeCell ref="S67:T68"/>
-    <mergeCell ref="U67:V68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:E70"/>
-    <mergeCell ref="F69:K70"/>
-    <mergeCell ref="L69:N70"/>
-    <mergeCell ref="O69:P70"/>
-    <mergeCell ref="Q69:R70"/>
-    <mergeCell ref="S69:T70"/>
-    <mergeCell ref="U69:V70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:E64"/>
-    <mergeCell ref="F63:K64"/>
-    <mergeCell ref="L63:N64"/>
-    <mergeCell ref="O63:P64"/>
-    <mergeCell ref="Q63:R64"/>
-    <mergeCell ref="S63:T64"/>
-    <mergeCell ref="U63:V64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:E66"/>
-    <mergeCell ref="F65:K66"/>
-    <mergeCell ref="L65:N66"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="Q65:R66"/>
-    <mergeCell ref="S65:T66"/>
-    <mergeCell ref="U65:V66"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="F59:K60"/>
-    <mergeCell ref="L59:N60"/>
-    <mergeCell ref="O59:P60"/>
-    <mergeCell ref="Q59:R60"/>
-    <mergeCell ref="S59:T60"/>
-    <mergeCell ref="U59:V60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:E62"/>
-    <mergeCell ref="F61:K62"/>
-    <mergeCell ref="L61:N62"/>
-    <mergeCell ref="O61:P62"/>
-    <mergeCell ref="Q61:R62"/>
-    <mergeCell ref="S61:T62"/>
-    <mergeCell ref="U61:V62"/>
-    <mergeCell ref="C55:E56"/>
-    <mergeCell ref="F55:K56"/>
-    <mergeCell ref="L55:N56"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="Q55:R56"/>
-    <mergeCell ref="S55:T56"/>
-    <mergeCell ref="U55:V56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:E58"/>
-    <mergeCell ref="F57:K58"/>
-    <mergeCell ref="L57:N58"/>
-    <mergeCell ref="O57:P58"/>
-    <mergeCell ref="Q57:R58"/>
-    <mergeCell ref="S57:T58"/>
-    <mergeCell ref="U57:V58"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="A4:X12"/>
-    <mergeCell ref="G13:S17"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="A40:D42"/>
-    <mergeCell ref="E40:F42"/>
-    <mergeCell ref="G40:I42"/>
-    <mergeCell ref="J40:K41"/>
-    <mergeCell ref="L40:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:X42"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="Q49:R50"/>
-    <mergeCell ref="S49:T50"/>
-    <mergeCell ref="U49:V50"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:X83"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:E52"/>
-    <mergeCell ref="F51:K52"/>
-    <mergeCell ref="L51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="Q51:R52"/>
-    <mergeCell ref="S51:T52"/>
-    <mergeCell ref="U51:V52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:E54"/>
-    <mergeCell ref="F53:K54"/>
-    <mergeCell ref="L53:N54"/>
-    <mergeCell ref="O53:P54"/>
-    <mergeCell ref="Q53:R54"/>
-    <mergeCell ref="S53:T54"/>
-    <mergeCell ref="U53:V54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A204:D206"/>
-    <mergeCell ref="E204:F206"/>
-    <mergeCell ref="G204:I206"/>
-    <mergeCell ref="J122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="U122:V122"/>
-    <mergeCell ref="W122:X122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="R123:T123"/>
-    <mergeCell ref="U123:V123"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="L150:T150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="L151:T151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="L152:T152"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:T157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="L158:T158"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="A163:D165"/>
-    <mergeCell ref="E163:F165"/>
-    <mergeCell ref="G163:I165"/>
-    <mergeCell ref="J163:K164"/>
-    <mergeCell ref="L163:O164"/>
-    <mergeCell ref="P163:Q163"/>
-    <mergeCell ref="R163:T163"/>
-    <mergeCell ref="U163:V163"/>
-    <mergeCell ref="W163:X163"/>
-    <mergeCell ref="P164:Q164"/>
-    <mergeCell ref="R164:T164"/>
-    <mergeCell ref="U164:V164"/>
-    <mergeCell ref="W164:X164"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="P165:Q165"/>
-    <mergeCell ref="R165:X165"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="R124:X124"/>
-    <mergeCell ref="H159:J159"/>
-    <mergeCell ref="L156:T156"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:E48"/>
-    <mergeCell ref="F47:K48"/>
-    <mergeCell ref="L47:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W81:X81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:T82"/>
-    <mergeCell ref="U82:V82"/>
-    <mergeCell ref="W82:X82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E50"/>
-    <mergeCell ref="F49:K50"/>
-    <mergeCell ref="L49:N50"/>
-    <mergeCell ref="J204:K205"/>
-    <mergeCell ref="L204:O205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:O206"/>
-    <mergeCell ref="P206:Q206"/>
-    <mergeCell ref="R206:X206"/>
-    <mergeCell ref="W204:X204"/>
-    <mergeCell ref="P205:Q205"/>
-    <mergeCell ref="R205:T205"/>
-    <mergeCell ref="U205:V205"/>
-    <mergeCell ref="W205:X205"/>
-    <mergeCell ref="P204:Q204"/>
-    <mergeCell ref="R204:T204"/>
-    <mergeCell ref="U204:V204"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="L153:T153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="L154:T154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="L155:T155"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="L159:T159"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="F157:G157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
@@ -6977,11 +6976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7BAF47-5540-452B-A5E0-0183B26E9959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB172"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A131" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I149" sqref="I149:Q149"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A145" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6990,112 +6989,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="113" t="s">
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="173"/>
+      <c r="G1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="112" t="s">
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="112"/>
-      <c r="L1" s="113" t="s">
+      <c r="K1" s="168"/>
+      <c r="L1" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="112" t="s">
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="113" t="s">
+      <c r="Q1" s="168"/>
+      <c r="R1" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="110" t="s">
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="110"/>
-      <c r="W1" s="114">
+      <c r="V1" s="169"/>
+      <c r="W1" s="166">
         <v>45026</v>
       </c>
-      <c r="X1" s="111"/>
+      <c r="X1" s="167"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="112" t="s">
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="110" t="s">
+      <c r="Q2" s="168"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="110"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="112" t="s">
+      <c r="A3" s="172"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="112"/>
-      <c r="L3" s="111" t="s">
+      <c r="K3" s="168"/>
+      <c r="L3" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="110" t="s">
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111" t="s">
+      <c r="Q3" s="169"/>
+      <c r="R3" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="42"/>
@@ -7271,112 +7270,112 @@
       <c r="X40" s="47"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="113" t="s">
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113" t="s">
+      <c r="F41" s="173"/>
+      <c r="G41" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="112" t="s">
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="112"/>
-      <c r="L41" s="113" t="s">
+      <c r="K41" s="168"/>
+      <c r="L41" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="112" t="s">
+      <c r="M41" s="173"/>
+      <c r="N41" s="173"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="113" t="s">
+      <c r="Q41" s="168"/>
+      <c r="R41" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="S41" s="113"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="110" t="s">
+      <c r="S41" s="173"/>
+      <c r="T41" s="173"/>
+      <c r="U41" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="V41" s="110"/>
-      <c r="W41" s="114">
+      <c r="V41" s="169"/>
+      <c r="W41" s="166">
         <v>45026</v>
       </c>
-      <c r="X41" s="111"/>
+      <c r="X41" s="167"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A42" s="115"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="112" t="s">
+      <c r="A42" s="172"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="168"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="173"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="Q42" s="112"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="111"/>
-      <c r="U42" s="110" t="s">
+      <c r="Q42" s="168"/>
+      <c r="R42" s="167"/>
+      <c r="S42" s="167"/>
+      <c r="T42" s="167"/>
+      <c r="U42" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="V42" s="110"/>
-      <c r="W42" s="111"/>
-      <c r="X42" s="111"/>
+      <c r="V42" s="169"/>
+      <c r="W42" s="167"/>
+      <c r="X42" s="167"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A43" s="115"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="112" t="s">
+      <c r="A43" s="172"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="112"/>
-      <c r="L43" s="111" t="s">
+      <c r="K43" s="168"/>
+      <c r="L43" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
-      <c r="P43" s="110" t="s">
+      <c r="M43" s="167"/>
+      <c r="N43" s="167"/>
+      <c r="O43" s="167"/>
+      <c r="P43" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="Q43" s="110"/>
-      <c r="R43" s="111" t="s">
+      <c r="Q43" s="169"/>
+      <c r="R43" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="S43" s="111"/>
-      <c r="T43" s="111"/>
-      <c r="U43" s="111"/>
-      <c r="V43" s="111"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="111"/>
+      <c r="S43" s="167"/>
+      <c r="T43" s="167"/>
+      <c r="U43" s="167"/>
+      <c r="V43" s="167"/>
+      <c r="W43" s="167"/>
+      <c r="X43" s="167"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="42"/>
@@ -7427,41 +7426,41 @@
       <c r="B48" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="117" t="s">
+      <c r="C48" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="116" t="s">
+      <c r="D48" s="179"/>
+      <c r="E48" s="179"/>
+      <c r="F48" s="178" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="116"/>
-      <c r="H48" s="117" t="s">
+      <c r="G48" s="178"/>
+      <c r="H48" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="117"/>
-      <c r="J48" s="117" t="s">
+      <c r="I48" s="179"/>
+      <c r="J48" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="K48" s="117"/>
+      <c r="K48" s="179"/>
       <c r="L48" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="M48" s="116" t="s">
+      <c r="M48" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="N48" s="116"/>
-      <c r="O48" s="117" t="s">
+      <c r="N48" s="178"/>
+      <c r="O48" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="P48" s="117"/>
-      <c r="Q48" s="117" t="s">
+      <c r="P48" s="179"/>
+      <c r="Q48" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="R48" s="117"/>
-      <c r="S48" s="117"/>
-      <c r="T48" s="117"/>
-      <c r="U48" s="117"/>
+      <c r="R48" s="179"/>
+      <c r="S48" s="179"/>
+      <c r="T48" s="179"/>
+      <c r="U48" s="179"/>
       <c r="X48" s="47"/>
     </row>
     <row r="49" spans="1:24">
@@ -7469,37 +7468,37 @@
       <c r="B49" s="50">
         <v>1</v>
       </c>
-      <c r="C49" s="118" t="s">
+      <c r="C49" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="118"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="120" t="s">
+      <c r="D49" s="174"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="181" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="121"/>
-      <c r="H49" s="121">
+      <c r="G49" s="182"/>
+      <c r="H49" s="182">
         <v>32</v>
       </c>
-      <c r="I49" s="122"/>
-      <c r="J49" s="122" t="s">
+      <c r="I49" s="175"/>
+      <c r="J49" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="K49" s="122"/>
+      <c r="K49" s="175"/>
       <c r="L49" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="M49" s="120" t="s">
+      <c r="M49" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121"/>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="122"/>
-      <c r="R49" s="122"/>
-      <c r="S49" s="122"/>
-      <c r="T49" s="122"/>
-      <c r="U49" s="122"/>
+      <c r="N49" s="182"/>
+      <c r="O49" s="182"/>
+      <c r="P49" s="175"/>
+      <c r="Q49" s="175"/>
+      <c r="R49" s="175"/>
+      <c r="S49" s="175"/>
+      <c r="T49" s="175"/>
+      <c r="U49" s="175"/>
       <c r="X49" s="47"/>
     </row>
     <row r="50" spans="1:24">
@@ -7507,89 +7506,89 @@
       <c r="B50" s="52">
         <v>2</v>
       </c>
-      <c r="C50" s="124" t="s">
+      <c r="C50" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="123" t="s">
+      <c r="D50" s="176"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="123"/>
-      <c r="H50" s="123">
+      <c r="G50" s="177"/>
+      <c r="H50" s="177">
         <v>32</v>
       </c>
-      <c r="I50" s="123"/>
-      <c r="J50" s="123" t="s">
+      <c r="I50" s="177"/>
+      <c r="J50" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="K50" s="123"/>
+      <c r="K50" s="177"/>
       <c r="L50" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="M50" s="123" t="s">
+      <c r="M50" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="N50" s="123"/>
-      <c r="O50" s="123" t="s">
+      <c r="N50" s="177"/>
+      <c r="O50" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="P50" s="123"/>
-      <c r="Q50" s="123" t="s">
+      <c r="P50" s="177"/>
+      <c r="Q50" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="R50" s="123"/>
-      <c r="S50" s="123"/>
-      <c r="T50" s="123"/>
-      <c r="U50" s="123"/>
+      <c r="R50" s="177"/>
+      <c r="S50" s="177"/>
+      <c r="T50" s="177"/>
+      <c r="U50" s="177"/>
       <c r="X50" s="47"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="45"/>
       <c r="B51" s="52"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="123"/>
-      <c r="K51" s="123"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="177"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="177"/>
+      <c r="H51" s="177"/>
+      <c r="I51" s="177"/>
+      <c r="J51" s="177"/>
+      <c r="K51" s="177"/>
       <c r="L51" s="52"/>
-      <c r="M51" s="123"/>
-      <c r="N51" s="123"/>
-      <c r="O51" s="123"/>
-      <c r="P51" s="123"/>
-      <c r="Q51" s="123"/>
-      <c r="R51" s="123"/>
-      <c r="S51" s="123"/>
-      <c r="T51" s="123"/>
-      <c r="U51" s="123"/>
+      <c r="M51" s="177"/>
+      <c r="N51" s="177"/>
+      <c r="O51" s="177"/>
+      <c r="P51" s="177"/>
+      <c r="Q51" s="177"/>
+      <c r="R51" s="177"/>
+      <c r="S51" s="177"/>
+      <c r="T51" s="177"/>
+      <c r="U51" s="177"/>
       <c r="X51" s="47"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="45"/>
       <c r="B52" s="53"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
+      <c r="C52" s="171"/>
+      <c r="D52" s="171"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="171"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="171"/>
+      <c r="I52" s="171"/>
+      <c r="J52" s="171"/>
+      <c r="K52" s="171"/>
       <c r="L52" s="53"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="125"/>
-      <c r="P52" s="125"/>
-      <c r="Q52" s="125"/>
-      <c r="R52" s="125"/>
-      <c r="S52" s="125"/>
-      <c r="T52" s="125"/>
-      <c r="U52" s="125"/>
+      <c r="M52" s="171"/>
+      <c r="N52" s="171"/>
+      <c r="O52" s="171"/>
+      <c r="P52" s="171"/>
+      <c r="Q52" s="171"/>
+      <c r="R52" s="171"/>
+      <c r="S52" s="171"/>
+      <c r="T52" s="171"/>
+      <c r="U52" s="171"/>
       <c r="X52" s="47"/>
     </row>
     <row r="53" spans="1:24">
@@ -7612,31 +7611,31 @@
       <c r="B56" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="126" t="s">
+      <c r="C56" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126" t="s">
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126" t="s">
+      <c r="J56" s="112"/>
+      <c r="K56" s="112"/>
+      <c r="L56" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="M56" s="126"/>
-      <c r="N56" s="126"/>
-      <c r="O56" s="126"/>
-      <c r="P56" s="126"/>
-      <c r="Q56" s="126"/>
-      <c r="R56" s="126"/>
-      <c r="S56" s="126"/>
-      <c r="T56" s="126"/>
-      <c r="U56" s="126"/>
+      <c r="M56" s="112"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="112"/>
+      <c r="R56" s="112"/>
+      <c r="S56" s="112"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="112"/>
       <c r="X56" s="47"/>
     </row>
     <row r="57" spans="1:24">
@@ -7644,29 +7643,29 @@
       <c r="B57" s="50">
         <v>1</v>
       </c>
-      <c r="C57" s="118" t="s">
+      <c r="C57" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="122" t="s">
+      <c r="D57" s="174"/>
+      <c r="E57" s="174"/>
+      <c r="F57" s="174"/>
+      <c r="G57" s="174"/>
+      <c r="H57" s="174"/>
+      <c r="I57" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
-      <c r="M57" s="122"/>
-      <c r="N57" s="122"/>
-      <c r="O57" s="122"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="122"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="122"/>
-      <c r="T57" s="122"/>
-      <c r="U57" s="122"/>
+      <c r="J57" s="175"/>
+      <c r="K57" s="175"/>
+      <c r="L57" s="175"/>
+      <c r="M57" s="175"/>
+      <c r="N57" s="175"/>
+      <c r="O57" s="175"/>
+      <c r="P57" s="175"/>
+      <c r="Q57" s="175"/>
+      <c r="R57" s="175"/>
+      <c r="S57" s="175"/>
+      <c r="T57" s="175"/>
+      <c r="U57" s="175"/>
       <c r="X57" s="47"/>
     </row>
     <row r="58" spans="1:24">
@@ -7674,29 +7673,29 @@
       <c r="B58" s="52">
         <v>2</v>
       </c>
-      <c r="C58" s="124" t="s">
+      <c r="C58" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="123" t="s">
+      <c r="D58" s="176"/>
+      <c r="E58" s="176"/>
+      <c r="F58" s="176"/>
+      <c r="G58" s="176"/>
+      <c r="H58" s="176"/>
+      <c r="I58" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="J58" s="123"/>
-      <c r="K58" s="123"/>
-      <c r="L58" s="123"/>
-      <c r="M58" s="123"/>
-      <c r="N58" s="123"/>
-      <c r="O58" s="123"/>
-      <c r="P58" s="123"/>
-      <c r="Q58" s="123"/>
-      <c r="R58" s="123"/>
-      <c r="S58" s="123"/>
-      <c r="T58" s="123"/>
-      <c r="U58" s="123"/>
+      <c r="J58" s="177"/>
+      <c r="K58" s="177"/>
+      <c r="L58" s="177"/>
+      <c r="M58" s="177"/>
+      <c r="N58" s="177"/>
+      <c r="O58" s="177"/>
+      <c r="P58" s="177"/>
+      <c r="Q58" s="177"/>
+      <c r="R58" s="177"/>
+      <c r="S58" s="177"/>
+      <c r="T58" s="177"/>
+      <c r="U58" s="177"/>
       <c r="X58" s="47"/>
     </row>
     <row r="59" spans="1:24">
@@ -7704,29 +7703,29 @@
       <c r="B59" s="53">
         <v>3</v>
       </c>
-      <c r="C59" s="127" t="s">
+      <c r="C59" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="127"/>
-      <c r="I59" s="125" t="s">
+      <c r="D59" s="170"/>
+      <c r="E59" s="170"/>
+      <c r="F59" s="170"/>
+      <c r="G59" s="170"/>
+      <c r="H59" s="170"/>
+      <c r="I59" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="J59" s="125"/>
-      <c r="K59" s="125"/>
-      <c r="L59" s="125"/>
-      <c r="M59" s="125"/>
-      <c r="N59" s="125"/>
-      <c r="O59" s="125"/>
-      <c r="P59" s="125"/>
-      <c r="Q59" s="125"/>
-      <c r="R59" s="125"/>
-      <c r="S59" s="125"/>
-      <c r="T59" s="125"/>
-      <c r="U59" s="125"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="171"/>
+      <c r="L59" s="171"/>
+      <c r="M59" s="171"/>
+      <c r="N59" s="171"/>
+      <c r="O59" s="171"/>
+      <c r="P59" s="171"/>
+      <c r="Q59" s="171"/>
+      <c r="R59" s="171"/>
+      <c r="S59" s="171"/>
+      <c r="T59" s="171"/>
+      <c r="U59" s="171"/>
       <c r="X59" s="47"/>
     </row>
     <row r="60" spans="1:24">
@@ -7814,112 +7813,112 @@
       <c r="X80" s="47"/>
     </row>
     <row r="81" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A81" s="115" t="s">
+      <c r="A81" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="115"/>
-      <c r="C81" s="115"/>
-      <c r="D81" s="115"/>
-      <c r="E81" s="113" t="s">
+      <c r="B81" s="172"/>
+      <c r="C81" s="172"/>
+      <c r="D81" s="172"/>
+      <c r="E81" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="113"/>
-      <c r="G81" s="113" t="s">
+      <c r="F81" s="173"/>
+      <c r="G81" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="113"/>
-      <c r="I81" s="113"/>
-      <c r="J81" s="112" t="s">
+      <c r="H81" s="173"/>
+      <c r="I81" s="173"/>
+      <c r="J81" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="112"/>
-      <c r="L81" s="113" t="s">
+      <c r="K81" s="168"/>
+      <c r="L81" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="M81" s="113"/>
-      <c r="N81" s="113"/>
-      <c r="O81" s="113"/>
-      <c r="P81" s="112" t="s">
+      <c r="M81" s="173"/>
+      <c r="N81" s="173"/>
+      <c r="O81" s="173"/>
+      <c r="P81" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="Q81" s="112"/>
-      <c r="R81" s="113" t="s">
+      <c r="Q81" s="168"/>
+      <c r="R81" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="S81" s="113"/>
-      <c r="T81" s="113"/>
-      <c r="U81" s="110" t="s">
+      <c r="S81" s="173"/>
+      <c r="T81" s="173"/>
+      <c r="U81" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="V81" s="110"/>
-      <c r="W81" s="114">
+      <c r="V81" s="169"/>
+      <c r="W81" s="166">
         <v>45026</v>
       </c>
-      <c r="X81" s="111"/>
+      <c r="X81" s="167"/>
     </row>
     <row r="82" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A82" s="115"/>
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
-      <c r="G82" s="113"/>
-      <c r="H82" s="113"/>
-      <c r="I82" s="113"/>
-      <c r="J82" s="112"/>
-      <c r="K82" s="112"/>
-      <c r="L82" s="113"/>
-      <c r="M82" s="113"/>
-      <c r="N82" s="113"/>
-      <c r="O82" s="113"/>
-      <c r="P82" s="112" t="s">
+      <c r="A82" s="172"/>
+      <c r="B82" s="172"/>
+      <c r="C82" s="172"/>
+      <c r="D82" s="172"/>
+      <c r="E82" s="173"/>
+      <c r="F82" s="173"/>
+      <c r="G82" s="173"/>
+      <c r="H82" s="173"/>
+      <c r="I82" s="173"/>
+      <c r="J82" s="168"/>
+      <c r="K82" s="168"/>
+      <c r="L82" s="173"/>
+      <c r="M82" s="173"/>
+      <c r="N82" s="173"/>
+      <c r="O82" s="173"/>
+      <c r="P82" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="Q82" s="112"/>
-      <c r="R82" s="111"/>
-      <c r="S82" s="111"/>
-      <c r="T82" s="111"/>
-      <c r="U82" s="110" t="s">
+      <c r="Q82" s="168"/>
+      <c r="R82" s="167"/>
+      <c r="S82" s="167"/>
+      <c r="T82" s="167"/>
+      <c r="U82" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="V82" s="110"/>
-      <c r="W82" s="111"/>
-      <c r="X82" s="111"/>
+      <c r="V82" s="169"/>
+      <c r="W82" s="167"/>
+      <c r="X82" s="167"/>
     </row>
     <row r="83" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A83" s="115"/>
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="113"/>
-      <c r="F83" s="113"/>
-      <c r="G83" s="113"/>
-      <c r="H83" s="113"/>
-      <c r="I83" s="113"/>
-      <c r="J83" s="112" t="s">
+      <c r="A83" s="172"/>
+      <c r="B83" s="172"/>
+      <c r="C83" s="172"/>
+      <c r="D83" s="172"/>
+      <c r="E83" s="173"/>
+      <c r="F83" s="173"/>
+      <c r="G83" s="173"/>
+      <c r="H83" s="173"/>
+      <c r="I83" s="173"/>
+      <c r="J83" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="112"/>
-      <c r="L83" s="111" t="s">
+      <c r="K83" s="168"/>
+      <c r="L83" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="M83" s="111"/>
-      <c r="N83" s="111"/>
-      <c r="O83" s="111"/>
-      <c r="P83" s="110" t="s">
+      <c r="M83" s="167"/>
+      <c r="N83" s="167"/>
+      <c r="O83" s="167"/>
+      <c r="P83" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="Q83" s="110"/>
-      <c r="R83" s="111" t="s">
+      <c r="Q83" s="169"/>
+      <c r="R83" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="S83" s="111"/>
-      <c r="T83" s="111"/>
-      <c r="U83" s="111"/>
-      <c r="V83" s="111"/>
-      <c r="W83" s="111"/>
-      <c r="X83" s="111"/>
+      <c r="S83" s="167"/>
+      <c r="T83" s="167"/>
+      <c r="U83" s="167"/>
+      <c r="V83" s="167"/>
+      <c r="W83" s="167"/>
+      <c r="X83" s="167"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="42"/>
@@ -8477,112 +8476,112 @@
       <c r="X121" s="60"/>
     </row>
     <row r="122" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A122" s="128" t="s">
+      <c r="A122" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="129"/>
-      <c r="C122" s="129"/>
-      <c r="D122" s="130"/>
-      <c r="E122" s="137" t="s">
+      <c r="B122" s="139"/>
+      <c r="C122" s="139"/>
+      <c r="D122" s="140"/>
+      <c r="E122" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="F122" s="138"/>
-      <c r="G122" s="137" t="s">
+      <c r="F122" s="148"/>
+      <c r="G122" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="143"/>
-      <c r="I122" s="138"/>
-      <c r="J122" s="146" t="s">
+      <c r="H122" s="153"/>
+      <c r="I122" s="148"/>
+      <c r="J122" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="K122" s="147"/>
-      <c r="L122" s="137" t="s">
+      <c r="K122" s="156"/>
+      <c r="L122" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="M122" s="143"/>
-      <c r="N122" s="143"/>
-      <c r="O122" s="138"/>
-      <c r="P122" s="150" t="s">
+      <c r="M122" s="153"/>
+      <c r="N122" s="153"/>
+      <c r="O122" s="148"/>
+      <c r="P122" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="Q122" s="151"/>
-      <c r="R122" s="152" t="s">
+      <c r="Q122" s="160"/>
+      <c r="R122" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="S122" s="153"/>
-      <c r="T122" s="154"/>
-      <c r="U122" s="155" t="s">
+      <c r="S122" s="162"/>
+      <c r="T122" s="163"/>
+      <c r="U122" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="V122" s="156"/>
-      <c r="W122" s="157">
+      <c r="V122" s="137"/>
+      <c r="W122" s="164">
         <v>45026</v>
       </c>
-      <c r="X122" s="158"/>
+      <c r="X122" s="165"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A123" s="131"/>
-      <c r="B123" s="132"/>
-      <c r="C123" s="132"/>
-      <c r="D123" s="133"/>
-      <c r="E123" s="139"/>
-      <c r="F123" s="140"/>
-      <c r="G123" s="139"/>
-      <c r="H123" s="144"/>
-      <c r="I123" s="140"/>
-      <c r="J123" s="148"/>
-      <c r="K123" s="149"/>
-      <c r="L123" s="141"/>
-      <c r="M123" s="145"/>
-      <c r="N123" s="145"/>
-      <c r="O123" s="142"/>
-      <c r="P123" s="150" t="s">
+      <c r="A123" s="141"/>
+      <c r="B123" s="142"/>
+      <c r="C123" s="142"/>
+      <c r="D123" s="143"/>
+      <c r="E123" s="149"/>
+      <c r="F123" s="150"/>
+      <c r="G123" s="149"/>
+      <c r="H123" s="118"/>
+      <c r="I123" s="150"/>
+      <c r="J123" s="157"/>
+      <c r="K123" s="158"/>
+      <c r="L123" s="151"/>
+      <c r="M123" s="154"/>
+      <c r="N123" s="154"/>
+      <c r="O123" s="152"/>
+      <c r="P123" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="Q123" s="151"/>
-      <c r="R123" s="159"/>
-      <c r="S123" s="160"/>
-      <c r="T123" s="161"/>
-      <c r="U123" s="155" t="s">
+      <c r="Q123" s="160"/>
+      <c r="R123" s="133"/>
+      <c r="S123" s="134"/>
+      <c r="T123" s="135"/>
+      <c r="U123" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="V123" s="156"/>
-      <c r="W123" s="159"/>
-      <c r="X123" s="161"/>
+      <c r="V123" s="137"/>
+      <c r="W123" s="133"/>
+      <c r="X123" s="135"/>
     </row>
     <row r="124" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A124" s="134"/>
-      <c r="B124" s="135"/>
-      <c r="C124" s="135"/>
-      <c r="D124" s="136"/>
-      <c r="E124" s="141"/>
-      <c r="F124" s="142"/>
-      <c r="G124" s="141"/>
-      <c r="H124" s="145"/>
-      <c r="I124" s="142"/>
-      <c r="J124" s="150" t="s">
+      <c r="A124" s="144"/>
+      <c r="B124" s="145"/>
+      <c r="C124" s="145"/>
+      <c r="D124" s="146"/>
+      <c r="E124" s="151"/>
+      <c r="F124" s="152"/>
+      <c r="G124" s="151"/>
+      <c r="H124" s="154"/>
+      <c r="I124" s="152"/>
+      <c r="J124" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="K124" s="151"/>
-      <c r="L124" s="159" t="s">
+      <c r="K124" s="160"/>
+      <c r="L124" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="M124" s="160"/>
-      <c r="N124" s="160"/>
-      <c r="O124" s="161"/>
-      <c r="P124" s="155" t="s">
+      <c r="M124" s="134"/>
+      <c r="N124" s="134"/>
+      <c r="O124" s="135"/>
+      <c r="P124" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="Q124" s="156"/>
-      <c r="R124" s="159" t="s">
+      <c r="Q124" s="137"/>
+      <c r="R124" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="S124" s="160"/>
-      <c r="T124" s="160"/>
-      <c r="U124" s="160"/>
-      <c r="V124" s="160"/>
-      <c r="W124" s="160"/>
-      <c r="X124" s="161"/>
+      <c r="S124" s="134"/>
+      <c r="T124" s="134"/>
+      <c r="U124" s="134"/>
+      <c r="V124" s="134"/>
+      <c r="W124" s="134"/>
+      <c r="X124" s="135"/>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="61"/>
@@ -8756,33 +8755,33 @@
       <c r="E131" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F131" s="126" t="s">
+      <c r="F131" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G131" s="126"/>
-      <c r="H131" s="126"/>
-      <c r="I131" s="126" t="s">
+      <c r="G131" s="112"/>
+      <c r="H131" s="112"/>
+      <c r="I131" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="J131" s="126"/>
-      <c r="K131" s="126"/>
-      <c r="L131" s="126"/>
-      <c r="M131" s="126"/>
-      <c r="N131" s="126"/>
-      <c r="O131" s="126" t="s">
+      <c r="J131" s="112"/>
+      <c r="K131" s="112"/>
+      <c r="L131" s="112"/>
+      <c r="M131" s="112"/>
+      <c r="N131" s="112"/>
+      <c r="O131" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="P131" s="126"/>
-      <c r="Q131" s="126"/>
-      <c r="R131" s="126" t="s">
+      <c r="P131" s="112"/>
+      <c r="Q131" s="112"/>
+      <c r="R131" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="S131" s="126"/>
-      <c r="T131" s="126" t="s">
+      <c r="S131" s="112"/>
+      <c r="T131" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="U131" s="126"/>
-      <c r="V131" s="126"/>
+      <c r="U131" s="112"/>
+      <c r="V131" s="112"/>
     </row>
     <row r="132" spans="1:24">
       <c r="A132" s="61"/>
@@ -8792,31 +8791,31 @@
       <c r="E132" s="68">
         <v>1</v>
       </c>
-      <c r="F132" s="162" t="s">
+      <c r="F132" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="G132" s="162"/>
-      <c r="H132" s="162"/>
-      <c r="I132" s="162" t="s">
+      <c r="G132" s="111"/>
+      <c r="H132" s="111"/>
+      <c r="I132" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="J132" s="162"/>
-      <c r="K132" s="162"/>
-      <c r="L132" s="162"/>
-      <c r="M132" s="162"/>
-      <c r="N132" s="162"/>
-      <c r="O132" s="163" t="s">
+      <c r="J132" s="111"/>
+      <c r="K132" s="111"/>
+      <c r="L132" s="111"/>
+      <c r="M132" s="111"/>
+      <c r="N132" s="111"/>
+      <c r="O132" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="P132" s="163"/>
-      <c r="Q132" s="163"/>
-      <c r="R132" s="163" t="s">
+      <c r="P132" s="132"/>
+      <c r="Q132" s="132"/>
+      <c r="R132" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="S132" s="163"/>
-      <c r="T132" s="163"/>
-      <c r="U132" s="163"/>
-      <c r="V132" s="163"/>
+      <c r="S132" s="132"/>
+      <c r="T132" s="132"/>
+      <c r="U132" s="132"/>
+      <c r="V132" s="132"/>
     </row>
     <row r="133" spans="1:24">
       <c r="A133" s="61"/>
@@ -8826,31 +8825,31 @@
       <c r="E133" s="68">
         <v>2</v>
       </c>
-      <c r="F133" s="162" t="s">
+      <c r="F133" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="G133" s="162"/>
-      <c r="H133" s="162"/>
-      <c r="I133" s="162" t="s">
+      <c r="G133" s="111"/>
+      <c r="H133" s="111"/>
+      <c r="I133" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="J133" s="162"/>
-      <c r="K133" s="162"/>
-      <c r="L133" s="162"/>
-      <c r="M133" s="162"/>
-      <c r="N133" s="162"/>
-      <c r="O133" s="163" t="s">
+      <c r="J133" s="111"/>
+      <c r="K133" s="111"/>
+      <c r="L133" s="111"/>
+      <c r="M133" s="111"/>
+      <c r="N133" s="111"/>
+      <c r="O133" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="P133" s="163"/>
-      <c r="Q133" s="163"/>
-      <c r="R133" s="163" t="s">
+      <c r="P133" s="132"/>
+      <c r="Q133" s="132"/>
+      <c r="R133" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="S133" s="163"/>
-      <c r="T133" s="163"/>
-      <c r="U133" s="163"/>
-      <c r="V133" s="163"/>
+      <c r="S133" s="132"/>
+      <c r="T133" s="132"/>
+      <c r="U133" s="132"/>
+      <c r="V133" s="132"/>
       <c r="W133" s="62"/>
       <c r="X133" s="63"/>
     </row>
@@ -8898,33 +8897,33 @@
       <c r="E136" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F136" s="126" t="s">
+      <c r="F136" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G136" s="126"/>
-      <c r="H136" s="126"/>
-      <c r="I136" s="126" t="s">
+      <c r="G136" s="112"/>
+      <c r="H136" s="112"/>
+      <c r="I136" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="J136" s="126"/>
-      <c r="K136" s="126"/>
-      <c r="L136" s="126"/>
-      <c r="M136" s="126"/>
-      <c r="N136" s="126"/>
-      <c r="O136" s="126" t="s">
+      <c r="J136" s="112"/>
+      <c r="K136" s="112"/>
+      <c r="L136" s="112"/>
+      <c r="M136" s="112"/>
+      <c r="N136" s="112"/>
+      <c r="O136" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="P136" s="126"/>
-      <c r="Q136" s="126"/>
-      <c r="R136" s="126" t="s">
+      <c r="P136" s="112"/>
+      <c r="Q136" s="112"/>
+      <c r="R136" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="S136" s="126"/>
-      <c r="T136" s="126" t="s">
+      <c r="S136" s="112"/>
+      <c r="T136" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="U136" s="126"/>
-      <c r="V136" s="126"/>
+      <c r="U136" s="112"/>
+      <c r="V136" s="112"/>
       <c r="W136" s="62"/>
       <c r="X136" s="63"/>
     </row>
@@ -8936,29 +8935,29 @@
       <c r="E137" s="68">
         <v>1</v>
       </c>
-      <c r="F137" s="162" t="s">
+      <c r="F137" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="G137" s="162"/>
-      <c r="H137" s="162"/>
-      <c r="I137" s="162" t="s">
+      <c r="G137" s="111"/>
+      <c r="H137" s="111"/>
+      <c r="I137" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="J137" s="162"/>
-      <c r="K137" s="162"/>
-      <c r="L137" s="162"/>
-      <c r="M137" s="162"/>
-      <c r="N137" s="162"/>
-      <c r="O137" s="163"/>
-      <c r="P137" s="163"/>
-      <c r="Q137" s="163"/>
-      <c r="R137" s="163" t="s">
+      <c r="J137" s="111"/>
+      <c r="K137" s="111"/>
+      <c r="L137" s="111"/>
+      <c r="M137" s="111"/>
+      <c r="N137" s="111"/>
+      <c r="O137" s="132"/>
+      <c r="P137" s="132"/>
+      <c r="Q137" s="132"/>
+      <c r="R137" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="S137" s="163"/>
-      <c r="T137" s="163"/>
-      <c r="U137" s="163"/>
-      <c r="V137" s="163"/>
+      <c r="S137" s="132"/>
+      <c r="T137" s="132"/>
+      <c r="U137" s="132"/>
+      <c r="V137" s="132"/>
       <c r="W137" s="62"/>
       <c r="X137" s="63"/>
     </row>
@@ -8970,29 +8969,29 @@
       <c r="E138" s="68">
         <v>2</v>
       </c>
-      <c r="F138" s="162" t="s">
+      <c r="F138" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="G138" s="162"/>
-      <c r="H138" s="162"/>
-      <c r="I138" s="162" t="s">
+      <c r="G138" s="111"/>
+      <c r="H138" s="111"/>
+      <c r="I138" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="J138" s="162"/>
-      <c r="K138" s="162"/>
-      <c r="L138" s="162"/>
-      <c r="M138" s="162"/>
-      <c r="N138" s="162"/>
-      <c r="O138" s="163"/>
-      <c r="P138" s="163"/>
-      <c r="Q138" s="163"/>
-      <c r="R138" s="163" t="s">
+      <c r="J138" s="111"/>
+      <c r="K138" s="111"/>
+      <c r="L138" s="111"/>
+      <c r="M138" s="111"/>
+      <c r="N138" s="111"/>
+      <c r="O138" s="132"/>
+      <c r="P138" s="132"/>
+      <c r="Q138" s="132"/>
+      <c r="R138" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="S138" s="163"/>
-      <c r="T138" s="163"/>
-      <c r="U138" s="163"/>
-      <c r="V138" s="163"/>
+      <c r="S138" s="132"/>
+      <c r="T138" s="132"/>
+      <c r="U138" s="132"/>
+      <c r="V138" s="132"/>
       <c r="W138" s="62"/>
       <c r="X138" s="63"/>
     </row>
@@ -9004,29 +9003,29 @@
       <c r="E139" s="68">
         <v>3</v>
       </c>
-      <c r="F139" s="162" t="s">
+      <c r="F139" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="G139" s="162"/>
-      <c r="H139" s="162"/>
-      <c r="I139" s="162" t="s">
+      <c r="G139" s="111"/>
+      <c r="H139" s="111"/>
+      <c r="I139" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="J139" s="162"/>
-      <c r="K139" s="162"/>
-      <c r="L139" s="162"/>
-      <c r="M139" s="162"/>
-      <c r="N139" s="162"/>
-      <c r="O139" s="163"/>
-      <c r="P139" s="163"/>
-      <c r="Q139" s="163"/>
-      <c r="R139" s="163" t="s">
+      <c r="J139" s="111"/>
+      <c r="K139" s="111"/>
+      <c r="L139" s="111"/>
+      <c r="M139" s="111"/>
+      <c r="N139" s="111"/>
+      <c r="O139" s="132"/>
+      <c r="P139" s="132"/>
+      <c r="Q139" s="132"/>
+      <c r="R139" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="S139" s="163"/>
-      <c r="T139" s="163"/>
-      <c r="U139" s="163"/>
-      <c r="V139" s="163"/>
+      <c r="S139" s="132"/>
+      <c r="T139" s="132"/>
+      <c r="U139" s="132"/>
+      <c r="V139" s="132"/>
       <c r="W139" s="62"/>
       <c r="X139" s="63"/>
     </row>
@@ -9177,29 +9176,29 @@
       <c r="E146" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="F146" s="170" t="s">
+      <c r="F146" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="G146" s="170"/>
-      <c r="H146" s="170"/>
-      <c r="I146" s="171" t="s">
+      <c r="G146" s="110"/>
+      <c r="H146" s="110"/>
+      <c r="I146" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="J146" s="172"/>
-      <c r="K146" s="172"/>
-      <c r="L146" s="172"/>
-      <c r="M146" s="172"/>
-      <c r="N146" s="172"/>
-      <c r="O146" s="172"/>
-      <c r="P146" s="172"/>
-      <c r="Q146" s="173"/>
-      <c r="R146" s="171" t="s">
+      <c r="J146" s="129"/>
+      <c r="K146" s="129"/>
+      <c r="L146" s="129"/>
+      <c r="M146" s="129"/>
+      <c r="N146" s="129"/>
+      <c r="O146" s="129"/>
+      <c r="P146" s="129"/>
+      <c r="Q146" s="130"/>
+      <c r="R146" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="S146" s="172"/>
-      <c r="T146" s="172"/>
-      <c r="U146" s="172"/>
-      <c r="V146" s="174"/>
+      <c r="S146" s="129"/>
+      <c r="T146" s="129"/>
+      <c r="U146" s="129"/>
+      <c r="V146" s="131"/>
       <c r="W146" s="62"/>
       <c r="X146" s="63"/>
     </row>
@@ -9210,29 +9209,29 @@
       <c r="E147" s="68">
         <v>1</v>
       </c>
-      <c r="F147" s="162" t="s">
+      <c r="F147" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="G147" s="162"/>
-      <c r="H147" s="162"/>
-      <c r="I147" s="167" t="s">
+      <c r="G147" s="111"/>
+      <c r="H147" s="111"/>
+      <c r="I147" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="J147" s="168"/>
-      <c r="K147" s="168"/>
-      <c r="L147" s="168"/>
-      <c r="M147" s="168"/>
-      <c r="N147" s="168"/>
-      <c r="O147" s="168"/>
-      <c r="P147" s="168"/>
-      <c r="Q147" s="169"/>
-      <c r="R147" s="164" t="s">
-        <v>115</v>
-      </c>
-      <c r="S147" s="165"/>
-      <c r="T147" s="165"/>
-      <c r="U147" s="165"/>
-      <c r="V147" s="166"/>
+      <c r="J147" s="123"/>
+      <c r="K147" s="123"/>
+      <c r="L147" s="123"/>
+      <c r="M147" s="123"/>
+      <c r="N147" s="123"/>
+      <c r="O147" s="123"/>
+      <c r="P147" s="123"/>
+      <c r="Q147" s="124"/>
+      <c r="R147" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="S147" s="126"/>
+      <c r="T147" s="126"/>
+      <c r="U147" s="126"/>
+      <c r="V147" s="127"/>
       <c r="W147" s="62"/>
       <c r="X147" s="63"/>
     </row>
@@ -9243,29 +9242,29 @@
       <c r="E148" s="68">
         <v>2</v>
       </c>
-      <c r="F148" s="162" t="s">
+      <c r="F148" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="G148" s="162"/>
-      <c r="H148" s="162"/>
-      <c r="I148" s="167" t="s">
+      <c r="G148" s="111"/>
+      <c r="H148" s="111"/>
+      <c r="I148" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="J148" s="168"/>
-      <c r="K148" s="168"/>
-      <c r="L148" s="168"/>
-      <c r="M148" s="168"/>
-      <c r="N148" s="168"/>
-      <c r="O148" s="168"/>
-      <c r="P148" s="168"/>
-      <c r="Q148" s="169"/>
-      <c r="R148" s="164" t="s">
-        <v>116</v>
-      </c>
-      <c r="S148" s="165"/>
-      <c r="T148" s="165"/>
-      <c r="U148" s="165"/>
-      <c r="V148" s="166"/>
+      <c r="J148" s="123"/>
+      <c r="K148" s="123"/>
+      <c r="L148" s="123"/>
+      <c r="M148" s="123"/>
+      <c r="N148" s="123"/>
+      <c r="O148" s="123"/>
+      <c r="P148" s="123"/>
+      <c r="Q148" s="124"/>
+      <c r="R148" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="S148" s="126"/>
+      <c r="T148" s="126"/>
+      <c r="U148" s="126"/>
+      <c r="V148" s="127"/>
       <c r="W148" s="62"/>
       <c r="X148" s="63"/>
     </row>
@@ -9276,29 +9275,29 @@
       <c r="E149" s="68">
         <v>3</v>
       </c>
-      <c r="F149" s="162" t="s">
+      <c r="F149" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="G149" s="162"/>
-      <c r="H149" s="162"/>
-      <c r="I149" s="167" t="s">
-        <v>119</v>
-      </c>
-      <c r="J149" s="168"/>
-      <c r="K149" s="168"/>
-      <c r="L149" s="168"/>
-      <c r="M149" s="168"/>
-      <c r="N149" s="168"/>
-      <c r="O149" s="168"/>
-      <c r="P149" s="168"/>
-      <c r="Q149" s="169"/>
-      <c r="R149" s="164" t="s">
+      <c r="G149" s="111"/>
+      <c r="H149" s="111"/>
+      <c r="I149" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="S149" s="165"/>
-      <c r="T149" s="165"/>
-      <c r="U149" s="165"/>
-      <c r="V149" s="166"/>
+      <c r="J149" s="123"/>
+      <c r="K149" s="123"/>
+      <c r="L149" s="123"/>
+      <c r="M149" s="123"/>
+      <c r="N149" s="123"/>
+      <c r="O149" s="123"/>
+      <c r="P149" s="123"/>
+      <c r="Q149" s="124"/>
+      <c r="R149" s="125" t="s">
+        <v>115</v>
+      </c>
+      <c r="S149" s="126"/>
+      <c r="T149" s="126"/>
+      <c r="U149" s="126"/>
+      <c r="V149" s="127"/>
       <c r="W149" s="62"/>
       <c r="X149" s="63"/>
     </row>
@@ -9368,80 +9367,80 @@
     <row r="154" spans="1:24">
       <c r="A154" s="61"/>
       <c r="D154" s="62"/>
-      <c r="E154" s="181" t="s">
+      <c r="E154" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="F154" s="181"/>
-      <c r="G154" s="181"/>
-      <c r="H154" s="181" t="s">
+      <c r="F154" s="120"/>
+      <c r="G154" s="120"/>
+      <c r="H154" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="I154" s="181"/>
-      <c r="J154" s="181"/>
-      <c r="K154" s="181"/>
-      <c r="L154" s="181"/>
-      <c r="M154" s="181"/>
-      <c r="N154" s="181"/>
-      <c r="O154" s="181"/>
-      <c r="P154" s="181"/>
-      <c r="Q154" s="181"/>
-      <c r="R154" s="181"/>
-      <c r="S154" s="181"/>
-      <c r="T154" s="181"/>
-      <c r="U154" s="181"/>
-      <c r="V154" s="181"/>
+      <c r="I154" s="120"/>
+      <c r="J154" s="120"/>
+      <c r="K154" s="120"/>
+      <c r="L154" s="120"/>
+      <c r="M154" s="120"/>
+      <c r="N154" s="120"/>
+      <c r="O154" s="120"/>
+      <c r="P154" s="120"/>
+      <c r="Q154" s="120"/>
+      <c r="R154" s="120"/>
+      <c r="S154" s="120"/>
+      <c r="T154" s="120"/>
+      <c r="U154" s="120"/>
+      <c r="V154" s="120"/>
       <c r="W154" s="62"/>
       <c r="X154" s="63"/>
     </row>
     <row r="155" spans="1:24">
       <c r="A155" s="61"/>
-      <c r="E155" s="176" t="s">
+      <c r="E155" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="F155" s="177"/>
-      <c r="G155" s="178"/>
-      <c r="H155" s="182" t="s">
+      <c r="F155" s="115"/>
+      <c r="G155" s="116"/>
+      <c r="H155" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="I155" s="182"/>
-      <c r="J155" s="182"/>
-      <c r="K155" s="182"/>
-      <c r="L155" s="182"/>
-      <c r="M155" s="182"/>
-      <c r="N155" s="182"/>
-      <c r="O155" s="182"/>
-      <c r="P155" s="182"/>
-      <c r="Q155" s="182"/>
-      <c r="R155" s="182"/>
-      <c r="S155" s="182"/>
-      <c r="T155" s="182"/>
-      <c r="U155" s="182"/>
-      <c r="V155" s="182"/>
+      <c r="I155" s="121"/>
+      <c r="J155" s="121"/>
+      <c r="K155" s="121"/>
+      <c r="L155" s="121"/>
+      <c r="M155" s="121"/>
+      <c r="N155" s="121"/>
+      <c r="O155" s="121"/>
+      <c r="P155" s="121"/>
+      <c r="Q155" s="121"/>
+      <c r="R155" s="121"/>
+      <c r="S155" s="121"/>
+      <c r="T155" s="121"/>
+      <c r="U155" s="121"/>
+      <c r="V155" s="121"/>
       <c r="W155" s="62"/>
       <c r="X155" s="63"/>
     </row>
     <row r="156" spans="1:24">
       <c r="A156" s="61"/>
-      <c r="E156" s="179"/>
-      <c r="F156" s="144"/>
-      <c r="G156" s="180"/>
-      <c r="H156" s="175" t="s">
+      <c r="E156" s="117"/>
+      <c r="F156" s="118"/>
+      <c r="G156" s="119"/>
+      <c r="H156" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="I156" s="175"/>
-      <c r="J156" s="175"/>
-      <c r="K156" s="175"/>
-      <c r="L156" s="175"/>
-      <c r="M156" s="175"/>
-      <c r="N156" s="175"/>
-      <c r="O156" s="175"/>
-      <c r="P156" s="175"/>
-      <c r="Q156" s="175"/>
-      <c r="R156" s="175"/>
-      <c r="S156" s="175"/>
-      <c r="T156" s="175"/>
-      <c r="U156" s="175"/>
-      <c r="V156" s="175"/>
+      <c r="I156" s="113"/>
+      <c r="J156" s="113"/>
+      <c r="K156" s="113"/>
+      <c r="L156" s="113"/>
+      <c r="M156" s="113"/>
+      <c r="N156" s="113"/>
+      <c r="O156" s="113"/>
+      <c r="P156" s="113"/>
+      <c r="Q156" s="113"/>
+      <c r="R156" s="113"/>
+      <c r="S156" s="113"/>
+      <c r="T156" s="113"/>
+      <c r="U156" s="113"/>
+      <c r="V156" s="113"/>
       <c r="W156" s="62"/>
       <c r="X156" s="63"/>
     </row>
@@ -9471,7 +9470,7 @@
     <row r="158" spans="1:24">
       <c r="A158" s="61"/>
       <c r="E158" s="70" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F158" s="67"/>
       <c r="G158" s="65"/>
@@ -9497,7 +9496,7 @@
       <c r="A159" s="61"/>
       <c r="E159" s="69"/>
       <c r="F159" s="65" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G159" s="65"/>
       <c r="H159" s="65"/>
@@ -9517,7 +9516,7 @@
       <c r="A160" s="61"/>
       <c r="E160" s="70"/>
       <c r="F160" s="67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G160" s="65"/>
       <c r="H160" s="65"/>
@@ -9537,7 +9536,7 @@
       <c r="A161" s="61"/>
       <c r="E161" s="69"/>
       <c r="F161" s="67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G161" s="65"/>
       <c r="H161" s="65"/>
@@ -9560,82 +9559,82 @@
       <c r="X162" s="62"/>
     </row>
     <row r="163" spans="1:24">
-      <c r="E163" s="126" t="s">
+      <c r="E163" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="F163" s="112"/>
+      <c r="G163" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="H163" s="112"/>
+      <c r="I163" s="112"/>
+      <c r="J163" s="112"/>
+      <c r="K163" s="112"/>
+      <c r="L163" s="112"/>
+      <c r="M163" s="112"/>
+      <c r="N163" s="112"/>
+      <c r="O163" s="112"/>
+      <c r="P163" s="112"/>
+      <c r="Q163" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="R163" s="112"/>
+      <c r="S163" s="112"/>
+      <c r="T163" s="112"/>
+      <c r="U163" s="112"/>
+      <c r="V163" s="112"/>
+    </row>
+    <row r="164" spans="1:24">
+      <c r="E164" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="F163" s="126"/>
-      <c r="G163" s="126" t="s">
+      <c r="F164" s="110"/>
+      <c r="G164" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="H164" s="111"/>
+      <c r="I164" s="111"/>
+      <c r="J164" s="111"/>
+      <c r="K164" s="111"/>
+      <c r="L164" s="111"/>
+      <c r="M164" s="111"/>
+      <c r="N164" s="111"/>
+      <c r="O164" s="111"/>
+      <c r="P164" s="111"/>
+      <c r="Q164" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="R164" s="111"/>
+      <c r="S164" s="111"/>
+      <c r="T164" s="111"/>
+      <c r="U164" s="111"/>
+      <c r="V164" s="111"/>
+    </row>
+    <row r="165" spans="1:24">
+      <c r="E165" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="H163" s="126"/>
-      <c r="I163" s="126"/>
-      <c r="J163" s="126"/>
-      <c r="K163" s="126"/>
-      <c r="L163" s="126"/>
-      <c r="M163" s="126"/>
-      <c r="N163" s="126"/>
-      <c r="O163" s="126"/>
-      <c r="P163" s="126"/>
-      <c r="Q163" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="R163" s="126"/>
-      <c r="S163" s="126"/>
-      <c r="T163" s="126"/>
-      <c r="U163" s="126"/>
-      <c r="V163" s="126"/>
-    </row>
-    <row r="164" spans="1:24">
-      <c r="E164" s="170" t="s">
-        <v>106</v>
-      </c>
-      <c r="F164" s="170"/>
-      <c r="G164" s="162" t="s">
-        <v>108</v>
-      </c>
-      <c r="H164" s="162"/>
-      <c r="I164" s="162"/>
-      <c r="J164" s="162"/>
-      <c r="K164" s="162"/>
-      <c r="L164" s="162"/>
-      <c r="M164" s="162"/>
-      <c r="N164" s="162"/>
-      <c r="O164" s="162"/>
-      <c r="P164" s="162"/>
-      <c r="Q164" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="R164" s="162"/>
-      <c r="S164" s="162"/>
-      <c r="T164" s="162"/>
-      <c r="U164" s="162"/>
-      <c r="V164" s="162"/>
-    </row>
-    <row r="165" spans="1:24">
-      <c r="E165" s="170" t="s">
+      <c r="F165" s="110"/>
+      <c r="G165" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="F165" s="170"/>
-      <c r="G165" s="162" t="s">
+      <c r="H165" s="111"/>
+      <c r="I165" s="111"/>
+      <c r="J165" s="111"/>
+      <c r="K165" s="111"/>
+      <c r="L165" s="111"/>
+      <c r="M165" s="111"/>
+      <c r="N165" s="111"/>
+      <c r="O165" s="111"/>
+      <c r="P165" s="111"/>
+      <c r="Q165" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="H165" s="162"/>
-      <c r="I165" s="162"/>
-      <c r="J165" s="162"/>
-      <c r="K165" s="162"/>
-      <c r="L165" s="162"/>
-      <c r="M165" s="162"/>
-      <c r="N165" s="162"/>
-      <c r="O165" s="162"/>
-      <c r="P165" s="162"/>
-      <c r="Q165" s="162" t="s">
-        <v>111</v>
-      </c>
-      <c r="R165" s="162"/>
-      <c r="S165" s="162"/>
-      <c r="T165" s="162"/>
-      <c r="U165" s="162"/>
-      <c r="V165" s="162"/>
+      <c r="R165" s="111"/>
+      <c r="S165" s="111"/>
+      <c r="T165" s="111"/>
+      <c r="U165" s="111"/>
+      <c r="V165" s="111"/>
     </row>
     <row r="168" spans="1:24">
       <c r="C168" s="66" t="s">
@@ -9666,7 +9665,7 @@
     <row r="169" spans="1:24">
       <c r="C169" s="64"/>
       <c r="D169" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E169" s="65"/>
       <c r="F169" s="65"/>
@@ -9718,7 +9717,7 @@
     <row r="171" spans="1:24">
       <c r="C171" s="64"/>
       <c r="D171" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E171" s="65"/>
       <c r="F171" s="65"/>
@@ -9744,7 +9743,7 @@
     <row r="172" spans="1:24">
       <c r="C172" s="64"/>
       <c r="D172" s="70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E172" s="65"/>
       <c r="F172" s="65"/>
@@ -9769,84 +9768,84 @@
     </row>
   </sheetData>
   <mergeCells count="176">
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="G165:P165"/>
-    <mergeCell ref="Q165:V165"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:P163"/>
-    <mergeCell ref="Q163:V163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:P164"/>
-    <mergeCell ref="Q164:V164"/>
-    <mergeCell ref="H156:V156"/>
-    <mergeCell ref="E155:G156"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="H154:V154"/>
-    <mergeCell ref="H155:V155"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="I149:Q149"/>
-    <mergeCell ref="R149:V149"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="I148:Q148"/>
-    <mergeCell ref="R148:V148"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="R147:V147"/>
-    <mergeCell ref="I147:Q147"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="I146:Q146"/>
-    <mergeCell ref="R146:V146"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="I139:N139"/>
-    <mergeCell ref="O139:Q139"/>
-    <mergeCell ref="R139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="I138:N138"/>
-    <mergeCell ref="O138:Q138"/>
-    <mergeCell ref="R138:S138"/>
-    <mergeCell ref="T138:V138"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="I137:N137"/>
-    <mergeCell ref="O137:Q137"/>
-    <mergeCell ref="R137:S137"/>
-    <mergeCell ref="T137:V137"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="I136:N136"/>
-    <mergeCell ref="O136:Q136"/>
-    <mergeCell ref="R136:S136"/>
-    <mergeCell ref="T136:V136"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="I133:N133"/>
-    <mergeCell ref="O133:Q133"/>
-    <mergeCell ref="R133:S133"/>
-    <mergeCell ref="T133:V133"/>
-    <mergeCell ref="O131:Q131"/>
-    <mergeCell ref="T131:V131"/>
-    <mergeCell ref="I132:N132"/>
-    <mergeCell ref="O132:Q132"/>
-    <mergeCell ref="T132:V132"/>
-    <mergeCell ref="R132:S132"/>
-    <mergeCell ref="I131:N131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="R124:X124"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="R131:S131"/>
-    <mergeCell ref="A122:D124"/>
-    <mergeCell ref="E122:F124"/>
-    <mergeCell ref="G122:I124"/>
-    <mergeCell ref="J122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="U122:V122"/>
-    <mergeCell ref="W122:X122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="R123:T123"/>
-    <mergeCell ref="U123:V123"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:X43"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A41:D43"/>
+    <mergeCell ref="E41:F43"/>
+    <mergeCell ref="G41:I43"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="L41:O42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:U57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="L58:U58"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:U56"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
     <mergeCell ref="W81:X81"/>
     <mergeCell ref="P82:Q82"/>
     <mergeCell ref="R82:T82"/>
@@ -9867,84 +9866,84 @@
     <mergeCell ref="L83:O83"/>
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="R83:X83"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:U57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="L58:U58"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:U56"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A41:D43"/>
-    <mergeCell ref="E41:F43"/>
-    <mergeCell ref="G41:I43"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="L41:O42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:X43"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="A122:D124"/>
+    <mergeCell ref="E122:F124"/>
+    <mergeCell ref="G122:I124"/>
+    <mergeCell ref="J122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="R123:T123"/>
+    <mergeCell ref="U123:V123"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="O131:Q131"/>
+    <mergeCell ref="T131:V131"/>
+    <mergeCell ref="I132:N132"/>
+    <mergeCell ref="O132:Q132"/>
+    <mergeCell ref="T132:V132"/>
+    <mergeCell ref="R132:S132"/>
+    <mergeCell ref="I131:N131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="R124:X124"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="I136:N136"/>
+    <mergeCell ref="O136:Q136"/>
+    <mergeCell ref="R136:S136"/>
+    <mergeCell ref="T136:V136"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="I133:N133"/>
+    <mergeCell ref="O133:Q133"/>
+    <mergeCell ref="R133:S133"/>
+    <mergeCell ref="T133:V133"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="I138:N138"/>
+    <mergeCell ref="O138:Q138"/>
+    <mergeCell ref="R138:S138"/>
+    <mergeCell ref="T138:V138"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="I137:N137"/>
+    <mergeCell ref="O137:Q137"/>
+    <mergeCell ref="R137:S137"/>
+    <mergeCell ref="T137:V137"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="R147:V147"/>
+    <mergeCell ref="I147:Q147"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="I146:Q146"/>
+    <mergeCell ref="R146:V146"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="I139:N139"/>
+    <mergeCell ref="O139:Q139"/>
+    <mergeCell ref="R139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="H156:V156"/>
+    <mergeCell ref="E155:G156"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="H154:V154"/>
+    <mergeCell ref="H155:V155"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="I149:Q149"/>
+    <mergeCell ref="R149:V149"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="I148:Q148"/>
+    <mergeCell ref="R148:V148"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="G165:P165"/>
+    <mergeCell ref="Q165:V165"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:P163"/>
+    <mergeCell ref="Q163:V163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="G164:P164"/>
+    <mergeCell ref="Q164:V164"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="26" orientation="portrait" r:id="rId1"/>
